--- a/cook-fuel-stove.xlsx
+++ b/cook-fuel-stove.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bikash/TEA-cook/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00-Bikash\01-cooking\01-analysis-files\TEA-cook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0670F97D-324A-AF48-8DA2-4DD0C7BBB4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2E8D4C-D727-4FE8-AC3A-69AFA479D513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7EBAAA4E-59CC-FC40-A9EE-7A0CED89A0F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7EBAAA4E-59CC-FC40-A9EE-7A0CED89A0F9}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,26 +36,53 @@
   <commentList>
     <comment ref="V5" authorId="0" shapeId="0" xr:uid="{D6D45B34-63C1-E643-A96F-1EA2F6555628}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Check the emission factor</t>
+        </r>
       </text>
     </comment>
     <comment ref="V12" authorId="1" shapeId="0" xr:uid="{4C8744A5-6485-F34B-B795-D5CA2CF2D9AE}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Check the emission factor</t>
+        </r>
       </text>
     </comment>
     <comment ref="V19" authorId="2" shapeId="0" xr:uid="{A8EC30E5-1FB3-9A45-ADA8-1D01A5459B0F}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Check the emission factor</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -241,11 +257,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;₹&quot;* #,##0_);_(&quot;₹&quot;* \(#,##0\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;₹&quot;* #,##0_);_(&quot;₹&quot;* \(#,##0\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -503,9 +519,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -529,11 +545,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -541,7 +557,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -560,8 +575,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -574,11 +589,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -593,15 +608,15 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -625,7 +640,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -636,24 +651,28 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{5135518D-583A-4564-A07B-111E61FDFF97}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -672,7 +691,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -960,7 +979,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -984,41 +1003,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA4CFB0-2DDE-054C-A475-43A61531E0CF}">
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O20" sqref="O20"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="30.796875" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="15.69921875" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="11.5" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="11" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.8984375" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="2.69921875" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="17" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="15.5" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="3.1640625" customWidth="1"/>
-    <col min="15" max="18" width="10.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="18.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="13.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="18.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="27.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="17.296875" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="3.19921875" customWidth="1"/>
+    <col min="15" max="18" width="10.796875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="11.19921875" collapsed="1"/>
+    <col min="20" max="20" width="18.796875" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="13.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="18.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="27.796875" customWidth="1" outlineLevel="1"/>
     <col min="24" max="24" width="26" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="22.5" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="17.1640625" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="17.19921875" customWidth="1" outlineLevel="1"/>
     <col min="28" max="28" width="18.5" customWidth="1" outlineLevel="1"/>
     <col min="29" max="29" width="13" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="17.1640625" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="17.19921875" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1100,7 +1120,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
@@ -1126,33 +1146,34 @@
         <v>50</v>
       </c>
       <c r="I2" s="11"/>
-      <c r="J2" s="60">
-        <v>4</v>
-      </c>
-      <c r="K2" s="25">
-        <v>1</v>
-      </c>
-      <c r="L2" s="25">
+      <c r="J2" s="59">
+        <f>J9*0.95</f>
+        <v>3.61</v>
+      </c>
+      <c r="K2" s="24">
+        <v>1</v>
+      </c>
+      <c r="L2" s="60">
         <f>J2*K2</f>
-        <v>4</v>
-      </c>
-      <c r="M2" s="64">
+        <v>3.61</v>
+      </c>
+      <c r="M2" s="63">
         <f>L2*330</f>
-        <v>1320</v>
+        <v>1191.3</v>
       </c>
       <c r="O2" s="5">
         <v>1</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P2" s="21">
         <f>O2*M2</f>
-        <v>1320</v>
-      </c>
-      <c r="Q2" s="22">
+        <v>1191.3</v>
+      </c>
+      <c r="Q2" s="21">
         <v>500</v>
       </c>
-      <c r="R2" s="23">
+      <c r="R2" s="22">
         <f>P2+Q2</f>
-        <v>1820</v>
+        <v>1691.3</v>
       </c>
       <c r="T2" s="9">
         <v>200000</v>
@@ -1163,14 +1184,14 @@
       <c r="V2" s="5">
         <v>0.4</v>
       </c>
-      <c r="W2" s="25">
+      <c r="W2" s="24">
         <f>(M2*V2)/(10^3)</f>
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="X2" s="22" t="s">
+        <v>0.47652</v>
+      </c>
+      <c r="X2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y2" s="21" t="s">
         <v>39</v>
       </c>
       <c r="AA2" s="5"/>
@@ -1178,7 +1199,7 @@
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>41</v>
       </c>
@@ -1201,36 +1222,37 @@
         <v>750</v>
       </c>
       <c r="H3" s="9">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I3" s="11"/>
-      <c r="J3" s="60">
-        <v>3.5</v>
-      </c>
-      <c r="K3" s="25">
-        <v>1</v>
-      </c>
-      <c r="L3" s="25">
-        <f t="shared" ref="L3:L7" si="0">J3*K3</f>
-        <v>3.5</v>
-      </c>
-      <c r="M3" s="64">
-        <f t="shared" ref="M3:M22" si="1">L3*330</f>
-        <v>1155</v>
+      <c r="J3" s="59">
+        <f t="shared" ref="J3:J7" si="0">J10*0.95</f>
+        <v>3.1587499999999995</v>
+      </c>
+      <c r="K3" s="24">
+        <v>1</v>
+      </c>
+      <c r="L3" s="60">
+        <f t="shared" ref="L3:L7" si="1">J3*K3</f>
+        <v>3.1587499999999995</v>
+      </c>
+      <c r="M3" s="63">
+        <f t="shared" ref="M3:M22" si="2">L3*330</f>
+        <v>1042.3874999999998</v>
       </c>
       <c r="O3" s="5">
         <v>1</v>
       </c>
-      <c r="P3" s="22">
-        <f t="shared" ref="P3:P7" si="2">O3*M3</f>
-        <v>1155</v>
-      </c>
-      <c r="Q3" s="22">
+      <c r="P3" s="21">
+        <f t="shared" ref="P3:P7" si="3">O3*M3</f>
+        <v>1042.3874999999998</v>
+      </c>
+      <c r="Q3" s="21">
         <v>750</v>
       </c>
-      <c r="R3" s="23">
-        <f t="shared" ref="R3:R7" si="3">P3+Q3</f>
-        <v>1905</v>
+      <c r="R3" s="22">
+        <f t="shared" ref="R3:R7" si="4">P3+Q3</f>
+        <v>1792.3874999999998</v>
       </c>
       <c r="T3" s="9">
         <v>200000</v>
@@ -1241,14 +1263,14 @@
       <c r="V3" s="5">
         <v>0.4</v>
       </c>
-      <c r="W3" s="25">
-        <f t="shared" ref="W3:W7" si="4">(M3*V3)/(10^3)</f>
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="X3" s="22" t="s">
+      <c r="W3" s="24">
+        <f t="shared" ref="W3:W7" si="5">(M3*V3)/(10^3)</f>
+        <v>0.41695499999999991</v>
+      </c>
+      <c r="X3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="Y3" s="21" t="s">
         <v>39</v>
       </c>
       <c r="AA3" s="5"/>
@@ -1256,7 +1278,7 @@
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
@@ -1282,33 +1304,34 @@
         <v>100</v>
       </c>
       <c r="I4" s="11"/>
-      <c r="J4" s="60">
-        <v>3.25</v>
-      </c>
-      <c r="K4" s="25">
-        <v>1</v>
-      </c>
-      <c r="L4" s="25">
+      <c r="J4" s="59">
         <f t="shared" si="0"/>
-        <v>3.25</v>
-      </c>
-      <c r="M4" s="64">
+        <v>2.933125</v>
+      </c>
+      <c r="K4" s="24">
+        <v>1</v>
+      </c>
+      <c r="L4" s="60">
         <f t="shared" si="1"/>
-        <v>1072.5</v>
+        <v>2.933125</v>
+      </c>
+      <c r="M4" s="63">
+        <f t="shared" si="2"/>
+        <v>967.93124999999998</v>
       </c>
       <c r="O4" s="5">
         <v>1</v>
       </c>
-      <c r="P4" s="22">
-        <f t="shared" si="2"/>
-        <v>1072.5</v>
-      </c>
-      <c r="Q4" s="22">
+      <c r="P4" s="21">
+        <f t="shared" si="3"/>
+        <v>967.93124999999998</v>
+      </c>
+      <c r="Q4" s="21">
         <v>1000</v>
       </c>
-      <c r="R4" s="23">
-        <f t="shared" si="3"/>
-        <v>2072.5</v>
+      <c r="R4" s="22">
+        <f t="shared" si="4"/>
+        <v>1967.9312500000001</v>
       </c>
       <c r="T4" s="9">
         <v>200000</v>
@@ -1319,14 +1342,14 @@
       <c r="V4" s="5">
         <v>0.4</v>
       </c>
-      <c r="W4" s="25">
-        <f t="shared" si="4"/>
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="X4" s="22" t="s">
+      <c r="W4" s="24">
+        <f t="shared" si="5"/>
+        <v>0.38717250000000003</v>
+      </c>
+      <c r="X4" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="22" t="s">
+      <c r="Y4" s="21" t="s">
         <v>39</v>
       </c>
       <c r="Z4" s="10"/>
@@ -1335,7 +1358,7 @@
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
@@ -1352,7 +1375,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="8">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G5" s="9">
         <v>40000</v>
@@ -1361,33 +1384,34 @@
         <v>500</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="61">
-        <v>3</v>
-      </c>
-      <c r="K5" s="25">
-        <v>1</v>
-      </c>
-      <c r="L5" s="25">
+      <c r="J5" s="59">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M5" s="64">
+        <v>2.7074999999999996</v>
+      </c>
+      <c r="K5" s="24">
+        <v>1</v>
+      </c>
+      <c r="L5" s="60">
         <f t="shared" si="1"/>
-        <v>990</v>
+        <v>2.7074999999999996</v>
+      </c>
+      <c r="M5" s="63">
+        <f t="shared" si="2"/>
+        <v>893.47499999999991</v>
       </c>
       <c r="O5" s="5">
         <v>1.5</v>
       </c>
-      <c r="P5" s="22">
-        <f t="shared" si="2"/>
-        <v>1485</v>
-      </c>
-      <c r="Q5" s="22">
+      <c r="P5" s="21">
+        <f t="shared" si="3"/>
+        <v>1340.2124999999999</v>
+      </c>
+      <c r="Q5" s="21">
         <v>1000</v>
       </c>
-      <c r="R5" s="23">
-        <f t="shared" si="3"/>
-        <v>2485</v>
+      <c r="R5" s="22">
+        <f t="shared" si="4"/>
+        <v>2340.2124999999996</v>
       </c>
       <c r="T5" s="9">
         <v>200000</v>
@@ -1395,17 +1419,17 @@
       <c r="U5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V5" s="24">
+      <c r="V5" s="23">
         <v>0.15</v>
       </c>
-      <c r="W5" s="25">
-        <f t="shared" si="4"/>
-        <v>0.14849999999999999</v>
-      </c>
-      <c r="X5" s="22" t="s">
+      <c r="W5" s="24">
+        <f t="shared" si="5"/>
+        <v>0.13402124999999998</v>
+      </c>
+      <c r="X5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y5" s="22" t="s">
+      <c r="Y5" s="21" t="s">
         <v>39</v>
       </c>
       <c r="Z5" s="10"/>
@@ -1414,7 +1438,7 @@
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -1431,7 +1455,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="8">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G6" s="9">
         <v>1000</v>
@@ -1440,33 +1464,34 @@
         <v>250</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="61">
-        <v>3</v>
-      </c>
-      <c r="K6" s="25">
-        <v>1</v>
-      </c>
-      <c r="L6" s="25">
+      <c r="J6" s="59">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M6" s="64">
+        <v>2.7074999999999996</v>
+      </c>
+      <c r="K6" s="24">
+        <v>1</v>
+      </c>
+      <c r="L6" s="60">
         <f t="shared" si="1"/>
-        <v>990</v>
+        <v>2.7074999999999996</v>
+      </c>
+      <c r="M6" s="63">
+        <f t="shared" si="2"/>
+        <v>893.47499999999991</v>
       </c>
       <c r="O6" s="5">
         <v>5.26</v>
       </c>
-      <c r="P6" s="22">
-        <f t="shared" si="2"/>
-        <v>5207.3999999999996</v>
-      </c>
-      <c r="Q6" s="22">
+      <c r="P6" s="21">
+        <f t="shared" si="3"/>
+        <v>4699.6784999999991</v>
+      </c>
+      <c r="Q6" s="21">
         <v>1000</v>
       </c>
-      <c r="R6" s="23">
-        <f t="shared" si="3"/>
-        <v>6207.4</v>
+      <c r="R6" s="22">
+        <f t="shared" si="4"/>
+        <v>5699.6784999999991</v>
       </c>
       <c r="T6" s="9">
         <v>200000</v>
@@ -1477,14 +1502,14 @@
       <c r="V6" s="5">
         <v>0.23</v>
       </c>
-      <c r="W6" s="25">
-        <f t="shared" si="4"/>
-        <v>0.22770000000000001</v>
-      </c>
-      <c r="X6" s="22" t="s">
+      <c r="W6" s="24">
+        <f t="shared" si="5"/>
+        <v>0.20549924999999999</v>
+      </c>
+      <c r="X6" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y6" s="22" t="s">
+      <c r="Y6" s="21" t="s">
         <v>39</v>
       </c>
       <c r="Z6" s="10"/>
@@ -1493,7 +1518,7 @@
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
@@ -1510,42 +1535,43 @@
         <v>10</v>
       </c>
       <c r="F7" s="8">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G7" s="9">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H7" s="9">
         <v>250</v>
       </c>
       <c r="I7" s="11"/>
-      <c r="J7" s="61">
-        <v>3</v>
-      </c>
-      <c r="K7" s="25">
-        <v>1</v>
-      </c>
-      <c r="L7" s="25">
+      <c r="J7" s="59">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M7" s="64">
+        <v>2.7074999999999996</v>
+      </c>
+      <c r="K7" s="24">
+        <v>1</v>
+      </c>
+      <c r="L7" s="60">
         <f t="shared" si="1"/>
-        <v>990</v>
+        <v>2.7074999999999996</v>
+      </c>
+      <c r="M7" s="63">
+        <f t="shared" si="2"/>
+        <v>893.47499999999991</v>
       </c>
       <c r="O7" s="5">
         <v>5.86</v>
       </c>
-      <c r="P7" s="22">
-        <f t="shared" si="2"/>
-        <v>5801.4000000000005</v>
-      </c>
-      <c r="Q7" s="22">
+      <c r="P7" s="21">
+        <f t="shared" si="3"/>
+        <v>5235.7635</v>
+      </c>
+      <c r="Q7" s="21">
         <v>1000</v>
       </c>
-      <c r="R7" s="23">
-        <f t="shared" si="3"/>
-        <v>6801.4000000000005</v>
+      <c r="R7" s="22">
+        <f t="shared" si="4"/>
+        <v>6235.7635</v>
       </c>
       <c r="T7" s="9">
         <v>250000</v>
@@ -1556,14 +1582,14 @@
       <c r="V7" s="5">
         <v>0.2</v>
       </c>
-      <c r="W7" s="25">
-        <f t="shared" si="4"/>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="X7" s="22" t="s">
+      <c r="W7" s="24">
+        <f t="shared" si="5"/>
+        <v>0.17869499999999999</v>
+      </c>
+      <c r="X7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y7" s="22" t="s">
+      <c r="Y7" s="21" t="s">
         <v>39</v>
       </c>
       <c r="Z7" s="10"/>
@@ -1572,79 +1598,80 @@
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
     </row>
-    <row r="8" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>10</v>
       </c>
-      <c r="F8" s="38">
-        <v>0.8</v>
-      </c>
-      <c r="G8" s="39">
+      <c r="F8" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="G8" s="38">
         <v>1000</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="38">
         <v>250</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="62">
-        <v>3</v>
-      </c>
-      <c r="K8" s="44">
-        <v>1</v>
-      </c>
-      <c r="L8" s="44">
-        <f t="shared" ref="L8" si="5">J8*K8</f>
-        <v>3</v>
-      </c>
-      <c r="M8" s="65">
-        <f t="shared" si="1"/>
-        <v>990</v>
-      </c>
-      <c r="N8" s="41"/>
-      <c r="O8" s="34">
+      <c r="I8" s="39"/>
+      <c r="J8" s="61">
+        <f>0.95*J15</f>
+        <v>2.7074999999999996</v>
+      </c>
+      <c r="K8" s="43">
+        <v>1</v>
+      </c>
+      <c r="L8" s="61">
+        <f t="shared" ref="L8" si="6">J8*K8</f>
+        <v>2.7074999999999996</v>
+      </c>
+      <c r="M8" s="64">
+        <f t="shared" si="2"/>
+        <v>893.47499999999991</v>
+      </c>
+      <c r="N8" s="40"/>
+      <c r="O8" s="33">
         <v>5.26</v>
       </c>
-      <c r="P8" s="42">
-        <f t="shared" ref="P8" si="6">O8*M8</f>
-        <v>5207.3999999999996</v>
-      </c>
-      <c r="Q8" s="42">
+      <c r="P8" s="41">
+        <f t="shared" ref="P8" si="7">O8*M8</f>
+        <v>4699.6784999999991</v>
+      </c>
+      <c r="Q8" s="41">
         <v>1000</v>
       </c>
-      <c r="R8" s="43">
-        <f t="shared" ref="R8" si="7">P8+Q8</f>
-        <v>6207.4</v>
-      </c>
-      <c r="S8" s="41"/>
-      <c r="T8" s="39">
+      <c r="R8" s="42">
+        <f t="shared" ref="R8" si="8">P8+Q8</f>
+        <v>5699.6784999999991</v>
+      </c>
+      <c r="S8" s="40"/>
+      <c r="T8" s="38">
         <v>250000</v>
       </c>
-      <c r="U8" s="34" t="s">
+      <c r="U8" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V8" s="33">
         <v>0.23</v>
       </c>
-      <c r="W8" s="44">
-        <f t="shared" ref="W8" si="8">(M8*V8)/(10^3)</f>
-        <v>0.22770000000000001</v>
-      </c>
-      <c r="X8" s="42" t="s">
+      <c r="W8" s="43">
+        <f t="shared" ref="W8" si="9">(M8*V8)/(10^3)</f>
+        <v>0.20549924999999999</v>
+      </c>
+      <c r="X8" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="Y8" s="42" t="s">
+      <c r="Y8" s="41" t="s">
         <v>39</v>
       </c>
       <c r="AA8" s="5"/>
@@ -1652,77 +1679,78 @@
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
     </row>
-    <row r="9" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="28">
-        <v>1</v>
-      </c>
-      <c r="F9" s="29">
+      <c r="E9" s="27">
+        <v>1</v>
+      </c>
+      <c r="F9" s="28">
         <v>0.1</v>
       </c>
-      <c r="G9" s="30">
-        <v>500</v>
-      </c>
-      <c r="H9" s="30">
-        <v>50</v>
+      <c r="G9" s="29">
+        <v>600</v>
+      </c>
+      <c r="H9" s="29">
+        <v>100</v>
       </c>
       <c r="I9" s="11"/>
-      <c r="J9" s="63">
-        <v>4</v>
-      </c>
-      <c r="K9" s="33">
-        <v>1</v>
-      </c>
-      <c r="L9" s="33">
+      <c r="J9" s="62">
+        <f>0.95*J16</f>
+        <v>3.8</v>
+      </c>
+      <c r="K9" s="32">
+        <v>1</v>
+      </c>
+      <c r="L9" s="66">
         <f>J9*K9</f>
-        <v>4</v>
-      </c>
-      <c r="M9" s="66">
+        <v>3.8</v>
+      </c>
+      <c r="M9" s="65">
         <f>L9*330</f>
-        <v>1320</v>
-      </c>
-      <c r="O9" s="27">
-        <v>1</v>
-      </c>
-      <c r="P9" s="31">
+        <v>1254</v>
+      </c>
+      <c r="O9" s="26">
+        <v>1</v>
+      </c>
+      <c r="P9" s="30">
         <f>O9*M9</f>
-        <v>1320</v>
-      </c>
-      <c r="Q9" s="31">
+        <v>1254</v>
+      </c>
+      <c r="Q9" s="30">
         <v>750</v>
       </c>
-      <c r="R9" s="32">
+      <c r="R9" s="31">
         <f>P9+Q9</f>
-        <v>2070</v>
-      </c>
-      <c r="T9" s="30">
+        <v>2004</v>
+      </c>
+      <c r="T9" s="29">
         <v>570000</v>
       </c>
-      <c r="U9" s="27" t="s">
+      <c r="U9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V9" s="27">
+      <c r="V9" s="26">
         <v>0.4</v>
       </c>
-      <c r="W9" s="33">
+      <c r="W9" s="32">
         <f>(M9*V9)/(10^3)</f>
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="X9" s="31" t="s">
+        <v>0.50160000000000005</v>
+      </c>
+      <c r="X9" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="Y9" s="31" t="s">
+      <c r="Y9" s="30" t="s">
         <v>39</v>
       </c>
       <c r="AA9" s="5"/>
@@ -1730,7 +1758,7 @@
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
@@ -1750,39 +1778,40 @@
         <v>0.4</v>
       </c>
       <c r="G10" s="9">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="H10" s="9">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="I10" s="11"/>
-      <c r="J10" s="60">
-        <v>3.5</v>
-      </c>
-      <c r="K10" s="25">
-        <v>1</v>
-      </c>
-      <c r="L10" s="25">
-        <f t="shared" ref="L10:L15" si="9">J10*K10</f>
-        <v>3.5</v>
-      </c>
-      <c r="M10" s="64">
-        <f t="shared" si="1"/>
-        <v>1155</v>
+      <c r="J10" s="62">
+        <f t="shared" ref="J10:J14" si="10">0.95*J17</f>
+        <v>3.3249999999999997</v>
+      </c>
+      <c r="K10" s="24">
+        <v>1</v>
+      </c>
+      <c r="L10" s="60">
+        <f t="shared" ref="L10:L15" si="11">J10*K10</f>
+        <v>3.3249999999999997</v>
+      </c>
+      <c r="M10" s="63">
+        <f t="shared" si="2"/>
+        <v>1097.25</v>
       </c>
       <c r="O10" s="5">
         <v>1</v>
       </c>
-      <c r="P10" s="22">
-        <f t="shared" ref="P10:P15" si="10">O10*M10</f>
-        <v>1155</v>
-      </c>
-      <c r="Q10" s="22">
+      <c r="P10" s="21">
+        <f t="shared" ref="P10:P15" si="12">O10*M10</f>
+        <v>1097.25</v>
+      </c>
+      <c r="Q10" s="21">
         <v>1000</v>
       </c>
-      <c r="R10" s="23">
-        <f t="shared" ref="R10:R15" si="11">P10+Q10</f>
-        <v>2155</v>
+      <c r="R10" s="22">
+        <f t="shared" ref="R10:R15" si="13">P10+Q10</f>
+        <v>2097.25</v>
       </c>
       <c r="T10" s="9">
         <v>570000</v>
@@ -1793,14 +1822,14 @@
       <c r="V10" s="5">
         <v>0.4</v>
       </c>
-      <c r="W10" s="25">
-        <f t="shared" ref="W10:W15" si="12">(M10*V10)/(10^3)</f>
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="X10" s="22" t="s">
+      <c r="W10" s="24">
+        <f t="shared" ref="W10:W15" si="14">(M10*V10)/(10^3)</f>
+        <v>0.43890000000000001</v>
+      </c>
+      <c r="X10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y10" s="22" t="s">
+      <c r="Y10" s="21" t="s">
         <v>39</v>
       </c>
       <c r="AA10" s="5"/>
@@ -1808,7 +1837,7 @@
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1831,36 +1860,37 @@
         <v>1000</v>
       </c>
       <c r="H11" s="9">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I11" s="11"/>
-      <c r="J11" s="60">
-        <v>3.25</v>
-      </c>
-      <c r="K11" s="25">
-        <v>1</v>
-      </c>
-      <c r="L11" s="25">
-        <f t="shared" si="9"/>
-        <v>3.25</v>
-      </c>
-      <c r="M11" s="64">
-        <f t="shared" si="1"/>
-        <v>1072.5</v>
+      <c r="J11" s="62">
+        <f t="shared" si="10"/>
+        <v>3.0874999999999999</v>
+      </c>
+      <c r="K11" s="24">
+        <v>1</v>
+      </c>
+      <c r="L11" s="60">
+        <f t="shared" si="11"/>
+        <v>3.0874999999999999</v>
+      </c>
+      <c r="M11" s="63">
+        <f t="shared" si="2"/>
+        <v>1018.875</v>
       </c>
       <c r="O11" s="5">
         <v>1</v>
       </c>
-      <c r="P11" s="22">
-        <f t="shared" si="10"/>
-        <v>1072.5</v>
-      </c>
-      <c r="Q11" s="22">
+      <c r="P11" s="21">
+        <f t="shared" si="12"/>
+        <v>1018.875</v>
+      </c>
+      <c r="Q11" s="21">
         <v>1250</v>
       </c>
-      <c r="R11" s="23">
-        <f t="shared" si="11"/>
-        <v>2322.5</v>
+      <c r="R11" s="22">
+        <f t="shared" si="13"/>
+        <v>2268.875</v>
       </c>
       <c r="T11" s="9">
         <v>570000</v>
@@ -1871,14 +1901,14 @@
       <c r="V11" s="5">
         <v>0.4</v>
       </c>
-      <c r="W11" s="25">
-        <f t="shared" si="12"/>
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="X11" s="22" t="s">
+      <c r="W11" s="24">
+        <f t="shared" si="14"/>
+        <v>0.40755000000000002</v>
+      </c>
+      <c r="X11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y11" s="22" t="s">
+      <c r="Y11" s="21" t="s">
         <v>39</v>
       </c>
       <c r="AA11" s="5"/>
@@ -1886,7 +1916,7 @@
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
@@ -1903,42 +1933,43 @@
         <v>10</v>
       </c>
       <c r="F12" s="8">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G12" s="9">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="H12" s="9">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="11"/>
-      <c r="J12" s="61">
-        <v>3</v>
-      </c>
-      <c r="K12" s="25">
-        <v>1</v>
-      </c>
-      <c r="L12" s="25">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="M12" s="64">
-        <f t="shared" si="1"/>
-        <v>990</v>
+      <c r="J12" s="62">
+        <f t="shared" si="10"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="K12" s="24">
+        <v>1</v>
+      </c>
+      <c r="L12" s="60">
+        <f t="shared" si="11"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="M12" s="63">
+        <f t="shared" si="2"/>
+        <v>940.49999999999989</v>
       </c>
       <c r="O12" s="5">
         <v>1.5</v>
       </c>
-      <c r="P12" s="22">
-        <f t="shared" si="10"/>
-        <v>1485</v>
-      </c>
-      <c r="Q12" s="22">
+      <c r="P12" s="21">
+        <f t="shared" si="12"/>
+        <v>1410.7499999999998</v>
+      </c>
+      <c r="Q12" s="21">
         <v>1250</v>
       </c>
-      <c r="R12" s="23">
-        <f t="shared" si="11"/>
-        <v>2735</v>
+      <c r="R12" s="22">
+        <f t="shared" si="13"/>
+        <v>2660.75</v>
       </c>
       <c r="T12" s="9">
         <v>570000</v>
@@ -1946,17 +1977,17 @@
       <c r="U12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V12" s="24">
+      <c r="V12" s="23">
         <v>0.15</v>
       </c>
-      <c r="W12" s="25">
-        <f t="shared" si="12"/>
-        <v>0.14849999999999999</v>
-      </c>
-      <c r="X12" s="22" t="s">
+      <c r="W12" s="24">
+        <f t="shared" si="14"/>
+        <v>0.14107499999999998</v>
+      </c>
+      <c r="X12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y12" s="22" t="s">
+      <c r="Y12" s="21" t="s">
         <v>39</v>
       </c>
       <c r="AA12" s="5"/>
@@ -1964,7 +1995,7 @@
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
@@ -1981,42 +2012,43 @@
         <v>10</v>
       </c>
       <c r="F13" s="8">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="G13" s="9">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="H13" s="9">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I13" s="11"/>
-      <c r="J13" s="61">
-        <v>3</v>
-      </c>
-      <c r="K13" s="25">
-        <v>1</v>
-      </c>
-      <c r="L13" s="25">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="M13" s="64">
-        <f t="shared" si="1"/>
-        <v>990</v>
+      <c r="J13" s="62">
+        <f t="shared" si="10"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="K13" s="24">
+        <v>1</v>
+      </c>
+      <c r="L13" s="60">
+        <f t="shared" si="11"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="M13" s="63">
+        <f t="shared" si="2"/>
+        <v>940.49999999999989</v>
       </c>
       <c r="O13" s="5">
         <v>5.26</v>
       </c>
-      <c r="P13" s="22">
-        <f t="shared" si="10"/>
-        <v>5207.3999999999996</v>
-      </c>
-      <c r="Q13" s="22">
+      <c r="P13" s="21">
+        <f t="shared" si="12"/>
+        <v>4947.0299999999988</v>
+      </c>
+      <c r="Q13" s="21">
         <v>1250</v>
       </c>
-      <c r="R13" s="23">
-        <f t="shared" si="11"/>
-        <v>6457.4</v>
+      <c r="R13" s="22">
+        <f t="shared" si="13"/>
+        <v>6197.0299999999988</v>
       </c>
       <c r="T13" s="9">
         <v>570000</v>
@@ -2027,14 +2059,14 @@
       <c r="V13" s="5">
         <v>0.23</v>
       </c>
-      <c r="W13" s="25">
-        <f t="shared" si="12"/>
-        <v>0.22770000000000001</v>
-      </c>
-      <c r="X13" s="22" t="s">
+      <c r="W13" s="24">
+        <f t="shared" si="14"/>
+        <v>0.21631499999999998</v>
+      </c>
+      <c r="X13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y13" s="22" t="s">
+      <c r="Y13" s="21" t="s">
         <v>39</v>
       </c>
       <c r="AA13" s="5"/>
@@ -2042,7 +2074,7 @@
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
@@ -2059,42 +2091,43 @@
         <v>10</v>
       </c>
       <c r="F14" s="8">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="G14" s="9">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="H14" s="9">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I14" s="11"/>
-      <c r="J14" s="61">
-        <v>3</v>
-      </c>
-      <c r="K14" s="25">
-        <v>1</v>
-      </c>
-      <c r="L14" s="25">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="M14" s="64">
-        <f t="shared" si="1"/>
-        <v>990</v>
+      <c r="J14" s="62">
+        <f t="shared" si="10"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="K14" s="24">
+        <v>1</v>
+      </c>
+      <c r="L14" s="60">
+        <f t="shared" si="11"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="M14" s="63">
+        <f t="shared" si="2"/>
+        <v>940.49999999999989</v>
       </c>
       <c r="O14" s="5">
         <v>5.86</v>
       </c>
-      <c r="P14" s="22">
-        <f t="shared" si="10"/>
-        <v>5801.4000000000005</v>
-      </c>
-      <c r="Q14" s="22">
+      <c r="P14" s="21">
+        <f t="shared" si="12"/>
+        <v>5511.33</v>
+      </c>
+      <c r="Q14" s="21">
         <v>1250</v>
       </c>
-      <c r="R14" s="23">
-        <f t="shared" si="11"/>
-        <v>7051.4000000000005</v>
+      <c r="R14" s="22">
+        <f t="shared" si="13"/>
+        <v>6761.33</v>
       </c>
       <c r="T14" s="9">
         <v>712500</v>
@@ -2105,14 +2138,14 @@
       <c r="V14" s="5">
         <v>0.2</v>
       </c>
-      <c r="W14" s="25">
-        <f t="shared" si="12"/>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="X14" s="22" t="s">
+      <c r="W14" s="24">
+        <f t="shared" si="14"/>
+        <v>0.18809999999999999</v>
+      </c>
+      <c r="X14" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y14" s="22" t="s">
+      <c r="Y14" s="21" t="s">
         <v>39</v>
       </c>
       <c r="AA14" s="5"/>
@@ -2120,77 +2153,78 @@
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
     </row>
-    <row r="15" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="36">
         <v>10</v>
       </c>
-      <c r="F15" s="38">
-        <v>0.8</v>
-      </c>
-      <c r="G15" s="39">
-        <v>1000</v>
-      </c>
-      <c r="H15" s="39">
-        <v>250</v>
-      </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="62">
-        <v>3</v>
-      </c>
-      <c r="K15" s="44">
-        <v>1</v>
-      </c>
-      <c r="L15" s="44">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="M15" s="65">
-        <f t="shared" si="1"/>
-        <v>990</v>
-      </c>
-      <c r="N15" s="41"/>
-      <c r="O15" s="34">
+      <c r="F15" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="G15" s="38">
+        <v>1300</v>
+      </c>
+      <c r="H15" s="38">
+        <v>500</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="61">
+        <f>0.95*J22</f>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="K15" s="43">
+        <v>1</v>
+      </c>
+      <c r="L15" s="61">
+        <f t="shared" si="11"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="M15" s="64">
+        <f t="shared" si="2"/>
+        <v>940.49999999999989</v>
+      </c>
+      <c r="N15" s="40"/>
+      <c r="O15" s="33">
         <v>5.26</v>
       </c>
-      <c r="P15" s="42">
-        <f t="shared" si="10"/>
-        <v>5207.3999999999996</v>
-      </c>
-      <c r="Q15" s="42">
+      <c r="P15" s="41">
+        <f t="shared" si="12"/>
+        <v>4947.0299999999988</v>
+      </c>
+      <c r="Q15" s="41">
         <v>1250</v>
       </c>
-      <c r="R15" s="43">
-        <f t="shared" si="11"/>
-        <v>6457.4</v>
-      </c>
-      <c r="S15" s="41"/>
-      <c r="T15" s="39">
+      <c r="R15" s="42">
+        <f t="shared" si="13"/>
+        <v>6197.0299999999988</v>
+      </c>
+      <c r="S15" s="40"/>
+      <c r="T15" s="38">
         <v>712500</v>
       </c>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34">
+      <c r="U15" s="33"/>
+      <c r="V15" s="33">
         <v>0.23</v>
       </c>
-      <c r="W15" s="44">
-        <f t="shared" si="12"/>
-        <v>0.22770000000000001</v>
-      </c>
-      <c r="X15" s="42" t="s">
+      <c r="W15" s="43">
+        <f t="shared" si="14"/>
+        <v>0.21631499999999998</v>
+      </c>
+      <c r="X15" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="Y15" s="42" t="s">
+      <c r="Y15" s="41" t="s">
         <v>39</v>
       </c>
       <c r="AA15" s="5"/>
@@ -2198,77 +2232,77 @@
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
     </row>
-    <row r="16" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="28">
-        <v>1</v>
-      </c>
-      <c r="F16" s="29">
+      <c r="E16" s="27">
+        <v>1</v>
+      </c>
+      <c r="F16" s="28">
         <v>0.1</v>
       </c>
-      <c r="G16" s="30">
-        <v>500</v>
-      </c>
-      <c r="H16" s="30">
-        <v>50</v>
+      <c r="G16" s="29">
+        <v>700</v>
+      </c>
+      <c r="H16" s="29">
+        <v>200</v>
       </c>
       <c r="I16" s="11"/>
-      <c r="J16" s="63">
+      <c r="J16" s="62">
         <v>4</v>
       </c>
-      <c r="K16" s="33">
-        <v>1</v>
-      </c>
-      <c r="L16" s="33">
+      <c r="K16" s="32">
+        <v>1</v>
+      </c>
+      <c r="L16" s="66">
         <f>J16*K16</f>
         <v>4</v>
       </c>
-      <c r="M16" s="66">
+      <c r="M16" s="65">
         <f>L16*330</f>
         <v>1320</v>
       </c>
-      <c r="O16" s="27">
-        <v>1</v>
-      </c>
-      <c r="P16" s="31">
+      <c r="O16" s="26">
+        <v>1</v>
+      </c>
+      <c r="P16" s="30">
         <f>O16*M16</f>
         <v>1320</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q16" s="30">
         <v>1000</v>
       </c>
-      <c r="R16" s="32">
+      <c r="R16" s="31">
         <f>P16+Q16</f>
         <v>2320</v>
       </c>
-      <c r="T16" s="30">
+      <c r="T16" s="29">
         <v>900000</v>
       </c>
-      <c r="U16" s="27" t="s">
+      <c r="U16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V16" s="27">
+      <c r="V16" s="26">
         <v>0.4</v>
       </c>
-      <c r="W16" s="33">
+      <c r="W16" s="32">
         <f>(M16*V16)/(10^3)</f>
         <v>0.52800000000000002</v>
       </c>
-      <c r="X16" s="31" t="s">
+      <c r="X16" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="Y16" s="31" t="s">
+      <c r="Y16" s="30" t="s">
         <v>39</v>
       </c>
       <c r="AA16" s="5"/>
@@ -2276,7 +2310,7 @@
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
@@ -2296,38 +2330,38 @@
         <v>0.4</v>
       </c>
       <c r="G17" s="9">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="H17" s="9">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="I17" s="11"/>
-      <c r="J17" s="60">
+      <c r="J17" s="59">
         <v>3.5</v>
       </c>
-      <c r="K17" s="25">
-        <v>1</v>
-      </c>
-      <c r="L17" s="25">
-        <f t="shared" ref="L17:L22" si="13">J17*K17</f>
+      <c r="K17" s="24">
+        <v>1</v>
+      </c>
+      <c r="L17" s="60">
+        <f t="shared" ref="L17:L22" si="15">J17*K17</f>
         <v>3.5</v>
       </c>
-      <c r="M17" s="64">
-        <f t="shared" si="1"/>
+      <c r="M17" s="63">
+        <f t="shared" si="2"/>
         <v>1155</v>
       </c>
       <c r="O17" s="5">
         <v>1</v>
       </c>
-      <c r="P17" s="22">
-        <f t="shared" ref="P17:P22" si="14">O17*M17</f>
+      <c r="P17" s="21">
+        <f t="shared" ref="P17:P22" si="16">O17*M17</f>
         <v>1155</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="Q17" s="21">
         <v>1250</v>
       </c>
-      <c r="R17" s="23">
-        <f t="shared" ref="R17:R22" si="15">P17+Q17</f>
+      <c r="R17" s="22">
+        <f t="shared" ref="R17:R22" si="17">P17+Q17</f>
         <v>2405</v>
       </c>
       <c r="T17" s="9">
@@ -2339,14 +2373,14 @@
       <c r="V17" s="5">
         <v>0.4</v>
       </c>
-      <c r="W17" s="25">
-        <f t="shared" ref="W17:W22" si="16">(M17*V17)/(10^3)</f>
+      <c r="W17" s="24">
+        <f t="shared" ref="W17:W22" si="18">(M17*V17)/(10^3)</f>
         <v>0.46200000000000002</v>
       </c>
-      <c r="X17" s="22" t="s">
+      <c r="X17" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" s="22" t="s">
+      <c r="Y17" s="21" t="s">
         <v>39</v>
       </c>
       <c r="AA17" s="5"/>
@@ -2354,7 +2388,7 @@
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -2377,35 +2411,35 @@
         <v>1000</v>
       </c>
       <c r="H18" s="9">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I18" s="11"/>
-      <c r="J18" s="60">
+      <c r="J18" s="59">
         <v>3.25</v>
       </c>
-      <c r="K18" s="25">
-        <v>1</v>
-      </c>
-      <c r="L18" s="25">
-        <f t="shared" si="13"/>
+      <c r="K18" s="24">
+        <v>1</v>
+      </c>
+      <c r="L18" s="60">
+        <f t="shared" si="15"/>
         <v>3.25</v>
       </c>
-      <c r="M18" s="64">
-        <f t="shared" si="1"/>
+      <c r="M18" s="63">
+        <f t="shared" si="2"/>
         <v>1072.5</v>
       </c>
       <c r="O18" s="5">
         <v>1</v>
       </c>
-      <c r="P18" s="22">
-        <f t="shared" si="14"/>
+      <c r="P18" s="21">
+        <f t="shared" si="16"/>
         <v>1072.5</v>
       </c>
-      <c r="Q18" s="22">
+      <c r="Q18" s="21">
         <v>1500</v>
       </c>
-      <c r="R18" s="23">
-        <f t="shared" si="15"/>
+      <c r="R18" s="22">
+        <f t="shared" si="17"/>
         <v>2572.5</v>
       </c>
       <c r="T18" s="9">
@@ -2417,14 +2451,14 @@
       <c r="V18" s="5">
         <v>0.4</v>
       </c>
-      <c r="W18" s="25">
-        <f t="shared" si="16"/>
+      <c r="W18" s="24">
+        <f t="shared" si="18"/>
         <v>0.42899999999999999</v>
       </c>
-      <c r="X18" s="22" t="s">
+      <c r="X18" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y18" s="22" t="s">
+      <c r="Y18" s="21" t="s">
         <v>39</v>
       </c>
       <c r="AA18" s="5"/>
@@ -2432,7 +2466,7 @@
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>41</v>
       </c>
@@ -2449,41 +2483,41 @@
         <v>10</v>
       </c>
       <c r="F19" s="8">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G19" s="9">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="H19" s="9">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="I19" s="11"/>
-      <c r="J19" s="61">
+      <c r="J19" s="60">
         <v>3</v>
       </c>
-      <c r="K19" s="25">
-        <v>1</v>
-      </c>
-      <c r="L19" s="25">
-        <f t="shared" si="13"/>
+      <c r="K19" s="24">
+        <v>1</v>
+      </c>
+      <c r="L19" s="60">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="M19" s="64">
-        <f t="shared" si="1"/>
+      <c r="M19" s="63">
+        <f t="shared" si="2"/>
         <v>990</v>
       </c>
       <c r="O19" s="5">
         <v>1.5</v>
       </c>
-      <c r="P19" s="22">
-        <f t="shared" si="14"/>
+      <c r="P19" s="21">
+        <f t="shared" si="16"/>
         <v>1485</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="Q19" s="21">
         <v>1500</v>
       </c>
-      <c r="R19" s="23">
-        <f t="shared" si="15"/>
+      <c r="R19" s="22">
+        <f t="shared" si="17"/>
         <v>2985</v>
       </c>
       <c r="T19" s="9">
@@ -2492,17 +2526,17 @@
       <c r="U19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V19" s="24">
+      <c r="V19" s="23">
         <v>0.15</v>
       </c>
-      <c r="W19" s="25">
-        <f t="shared" si="16"/>
+      <c r="W19" s="24">
+        <f t="shared" si="18"/>
         <v>0.14849999999999999</v>
       </c>
-      <c r="X19" s="22" t="s">
+      <c r="X19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y19" s="22" t="s">
+      <c r="Y19" s="21" t="s">
         <v>39</v>
       </c>
       <c r="AA19" s="5"/>
@@ -2510,7 +2544,7 @@
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -2530,38 +2564,38 @@
         <v>0.8</v>
       </c>
       <c r="G20" s="9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H20" s="9">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="I20" s="11"/>
-      <c r="J20" s="61">
+      <c r="J20" s="60">
         <v>3</v>
       </c>
-      <c r="K20" s="25">
-        <v>1</v>
-      </c>
-      <c r="L20" s="25">
-        <f t="shared" si="13"/>
+      <c r="K20" s="24">
+        <v>1</v>
+      </c>
+      <c r="L20" s="60">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="M20" s="64">
-        <f t="shared" si="1"/>
+      <c r="M20" s="63">
+        <f t="shared" si="2"/>
         <v>990</v>
       </c>
       <c r="O20" s="5">
         <v>5.26</v>
       </c>
-      <c r="P20" s="22">
-        <f t="shared" si="14"/>
+      <c r="P20" s="21">
+        <f t="shared" si="16"/>
         <v>5207.3999999999996</v>
       </c>
-      <c r="Q20" s="22">
+      <c r="Q20" s="21">
         <v>1500</v>
       </c>
-      <c r="R20" s="23">
-        <f t="shared" si="15"/>
+      <c r="R20" s="22">
+        <f t="shared" si="17"/>
         <v>6707.4</v>
       </c>
       <c r="T20" s="9">
@@ -2573,14 +2607,14 @@
       <c r="V20" s="5">
         <v>0.23</v>
       </c>
-      <c r="W20" s="25">
-        <f t="shared" si="16"/>
+      <c r="W20" s="24">
+        <f t="shared" si="18"/>
         <v>0.22770000000000001</v>
       </c>
-      <c r="X20" s="22" t="s">
+      <c r="X20" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y20" s="22" t="s">
+      <c r="Y20" s="21" t="s">
         <v>39</v>
       </c>
       <c r="AA20" s="5"/>
@@ -2588,7 +2622,7 @@
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
@@ -2608,38 +2642,38 @@
         <v>0.8</v>
       </c>
       <c r="G21" s="9">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="H21" s="9">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="I21" s="11"/>
-      <c r="J21" s="61">
+      <c r="J21" s="60">
         <v>3</v>
       </c>
-      <c r="K21" s="25">
-        <v>1</v>
-      </c>
-      <c r="L21" s="25">
-        <f t="shared" si="13"/>
+      <c r="K21" s="24">
+        <v>1</v>
+      </c>
+      <c r="L21" s="60">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="M21" s="64">
-        <f t="shared" si="1"/>
+      <c r="M21" s="63">
+        <f t="shared" si="2"/>
         <v>990</v>
       </c>
       <c r="O21" s="5">
         <v>5.86</v>
       </c>
-      <c r="P21" s="22">
-        <f t="shared" si="14"/>
+      <c r="P21" s="21">
+        <f t="shared" si="16"/>
         <v>5801.4000000000005</v>
       </c>
-      <c r="Q21" s="22">
+      <c r="Q21" s="21">
         <v>1500</v>
       </c>
-      <c r="R21" s="23">
-        <f t="shared" si="15"/>
+      <c r="R21" s="22">
+        <f t="shared" si="17"/>
         <v>7301.4000000000005</v>
       </c>
       <c r="T21" s="9">
@@ -2651,14 +2685,14 @@
       <c r="V21" s="5">
         <v>0.2</v>
       </c>
-      <c r="W21" s="25">
-        <f t="shared" si="16"/>
+      <c r="W21" s="24">
+        <f t="shared" si="18"/>
         <v>0.19800000000000001</v>
       </c>
-      <c r="X21" s="22" t="s">
+      <c r="X21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y21" s="22" t="s">
+      <c r="Y21" s="21" t="s">
         <v>39</v>
       </c>
       <c r="AA21" s="5"/>
@@ -2666,79 +2700,79 @@
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
     </row>
-    <row r="22" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+    <row r="22" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="36">
         <v>10</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="37">
         <v>0.8</v>
       </c>
-      <c r="G22" s="39">
-        <v>1000</v>
-      </c>
-      <c r="H22" s="39">
-        <v>250</v>
-      </c>
-      <c r="I22" s="40"/>
-      <c r="J22" s="62">
+      <c r="G22" s="38">
+        <v>2000</v>
+      </c>
+      <c r="H22" s="38">
+        <v>750</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="61">
         <v>3</v>
       </c>
-      <c r="K22" s="44">
-        <v>1</v>
-      </c>
-      <c r="L22" s="44">
-        <f t="shared" si="13"/>
+      <c r="K22" s="43">
+        <v>1</v>
+      </c>
+      <c r="L22" s="61">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="M22" s="65">
-        <f t="shared" si="1"/>
+      <c r="M22" s="64">
+        <f t="shared" si="2"/>
         <v>990</v>
       </c>
-      <c r="N22" s="41"/>
-      <c r="O22" s="34">
+      <c r="N22" s="40"/>
+      <c r="O22" s="33">
         <v>5.26</v>
       </c>
-      <c r="P22" s="42">
-        <f t="shared" si="14"/>
+      <c r="P22" s="41">
+        <f t="shared" si="16"/>
         <v>5207.3999999999996</v>
       </c>
-      <c r="Q22" s="42">
+      <c r="Q22" s="41">
         <v>1500</v>
       </c>
-      <c r="R22" s="43">
-        <f t="shared" si="15"/>
+      <c r="R22" s="42">
+        <f t="shared" si="17"/>
         <v>6707.4</v>
       </c>
-      <c r="S22" s="41"/>
-      <c r="T22" s="39">
+      <c r="S22" s="40"/>
+      <c r="T22" s="38">
         <v>1125000</v>
       </c>
-      <c r="U22" s="34" t="s">
+      <c r="U22" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="V22" s="34">
+      <c r="V22" s="33">
         <v>0.23</v>
       </c>
-      <c r="W22" s="44">
-        <f t="shared" si="16"/>
+      <c r="W22" s="43">
+        <f t="shared" si="18"/>
         <v>0.22770000000000001</v>
       </c>
-      <c r="X22" s="42" t="s">
+      <c r="X22" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="Y22" s="42" t="s">
+      <c r="Y22" s="41" t="s">
         <v>39</v>
       </c>
       <c r="AA22" s="5"/>
@@ -2746,7 +2780,7 @@
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
     </row>
-    <row r="23" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2758,43 +2792,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79E494E-2633-3B47-AC49-AD95AC048CCB}">
   <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O46" sqref="O46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.796875" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="15.19921875" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="11.5" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.296875" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="3" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="17" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="15.5" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="3.1640625" customWidth="1"/>
-    <col min="15" max="18" width="10.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="2.6640625" customWidth="1"/>
-    <col min="20" max="20" width="18.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="13.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="18.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="27.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="17.296875" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="3.19921875" customWidth="1"/>
+    <col min="15" max="18" width="10.796875" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="2.69921875" customWidth="1"/>
+    <col min="20" max="20" width="18.796875" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="13.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="18.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="27.796875" customWidth="1" outlineLevel="1"/>
     <col min="24" max="24" width="26" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="22.5" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="3.5" customWidth="1"/>
-    <col min="27" max="27" width="17.1640625" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="17.19921875" customWidth="1" outlineLevel="1"/>
     <col min="28" max="28" width="18.5" customWidth="1" outlineLevel="1"/>
     <col min="29" max="29" width="13" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="17.1640625" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="17.19921875" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2875,8 +2909,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2892,7 +2926,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G2" s="9">
         <v>1000</v>
@@ -2928,18 +2962,18 @@
         <f>P2+Q2</f>
         <v>5119.9999999999991</v>
       </c>
-      <c r="T2" s="22">
+      <c r="T2" s="21">
         <v>200000</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="6">
         <v>0.79</v>
       </c>
-      <c r="W2" s="26">
+      <c r="W2" s="25">
         <f>(V2*M2)/(10^3)</f>
         <v>0.72995999999999994</v>
       </c>
-      <c r="X2" s="22">
+      <c r="X2" s="21">
         <v>2000</v>
       </c>
       <c r="Y2" s="5"/>
@@ -2949,8 +2983,8 @@
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2966,7 +3000,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G3" s="9">
         <v>1500</v>
@@ -3002,18 +3036,18 @@
         <f t="shared" ref="R3:R8" si="3">P3+Q3</f>
         <v>4955.0000000000009</v>
       </c>
-      <c r="T3" s="22">
+      <c r="T3" s="21">
         <v>200000</v>
       </c>
       <c r="U3" s="5"/>
       <c r="V3" s="6">
         <v>0.79</v>
       </c>
-      <c r="W3" s="26">
+      <c r="W3" s="25">
         <f t="shared" ref="W3:W9" si="4">(V3*M3)/(10^3)</f>
         <v>0.70389000000000013</v>
       </c>
-      <c r="X3" s="22">
+      <c r="X3" s="21">
         <v>2000</v>
       </c>
       <c r="Y3" s="5"/>
@@ -3023,8 +3057,8 @@
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3040,7 +3074,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G4" s="9">
         <v>1000</v>
@@ -3076,18 +3110,18 @@
         <f t="shared" si="3"/>
         <v>18729.999999999996</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="21">
         <v>200000</v>
       </c>
       <c r="U4" s="5"/>
-      <c r="V4" s="59">
-        <v>0</v>
-      </c>
-      <c r="W4" s="26">
+      <c r="V4" s="58">
+        <v>0</v>
+      </c>
+      <c r="W4" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X4" s="22">
+      <c r="X4" s="21">
         <v>2000</v>
       </c>
       <c r="Y4" s="5"/>
@@ -3097,8 +3131,8 @@
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3114,7 +3148,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G5" s="9">
         <v>1500</v>
@@ -3150,18 +3184,18 @@
         <f t="shared" si="3"/>
         <v>18070.000000000004</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="21">
         <v>200000</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="6">
         <v>0</v>
       </c>
-      <c r="W5" s="26">
+      <c r="W5" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X5" s="22">
+      <c r="X5" s="21">
         <v>2000</v>
       </c>
       <c r="Y5" s="5"/>
@@ -3171,8 +3205,8 @@
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3188,7 +3222,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G6" s="9">
         <v>15000</v>
@@ -3224,18 +3258,18 @@
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="21">
         <v>200000</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="6">
         <v>0</v>
       </c>
-      <c r="W6" s="26">
+      <c r="W6" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X6" s="22">
+      <c r="X6" s="21">
         <v>2000</v>
       </c>
       <c r="Y6" s="5"/>
@@ -3245,8 +3279,8 @@
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3262,7 +3296,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G7" s="9">
         <v>16000</v>
@@ -3298,18 +3332,18 @@
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="21">
         <v>200000</v>
       </c>
       <c r="U7" s="5"/>
       <c r="V7" s="6">
         <v>0</v>
       </c>
-      <c r="W7" s="26">
+      <c r="W7" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X7" s="22">
+      <c r="X7" s="21">
         <v>2000</v>
       </c>
       <c r="Y7" s="5"/>
@@ -3319,8 +3353,8 @@
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3336,7 +3370,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G8" s="9">
         <v>15000</v>
@@ -3372,18 +3406,18 @@
         <f t="shared" si="3"/>
         <v>438.00000000000006</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="21">
         <v>200000</v>
       </c>
       <c r="U8" s="5"/>
       <c r="V8" s="6">
         <v>0</v>
       </c>
-      <c r="W8" s="26">
+      <c r="W8" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X8" s="22">
+      <c r="X8" s="21">
         <v>2000</v>
       </c>
       <c r="Y8" s="5"/>
@@ -3393,85 +3427,85 @@
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
     </row>
-    <row r="9" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>10</v>
       </c>
-      <c r="F9" s="38">
-        <v>0.9</v>
-      </c>
-      <c r="G9" s="39">
+      <c r="F9" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="38">
         <v>16000</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="38">
         <v>100</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="34">
+      <c r="I9" s="40"/>
+      <c r="J9" s="33">
         <v>2.7</v>
       </c>
-      <c r="K9" s="18">
-        <v>1</v>
-      </c>
-      <c r="L9" s="18">
+      <c r="K9" s="17">
+        <v>1</v>
+      </c>
+      <c r="L9" s="17">
         <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="17">
         <f t="shared" si="1"/>
         <v>891.00000000000011</v>
       </c>
-      <c r="N9" s="41"/>
-      <c r="O9" s="34">
+      <c r="N9" s="40"/>
+      <c r="O9" s="33">
         <v>-0.5</v>
       </c>
-      <c r="P9" s="34">
+      <c r="P9" s="33">
         <f>O9*M9</f>
         <v>-445.50000000000006</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="33">
         <v>900</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="33">
         <f>P9+Q9</f>
         <v>454.49999999999994</v>
       </c>
-      <c r="S9" s="41"/>
-      <c r="T9" s="42">
+      <c r="S9" s="40"/>
+      <c r="T9" s="41">
         <v>200000</v>
       </c>
-      <c r="U9" s="34"/>
-      <c r="V9" s="18">
-        <v>0</v>
-      </c>
-      <c r="W9" s="45">
+      <c r="U9" s="33"/>
+      <c r="V9" s="17">
+        <v>0</v>
+      </c>
+      <c r="W9" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X9" s="42">
+      <c r="X9" s="41">
         <v>2000</v>
       </c>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-    </row>
-    <row r="10" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+    </row>
+    <row r="10" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3487,13 +3521,14 @@
         <v>10</v>
       </c>
       <c r="F10" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G10" s="9">
-        <v>1000</v>
+        <f>G2*1.2</f>
+        <v>1200</v>
       </c>
       <c r="H10" s="9">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J10" s="5">
         <v>2.8</v>
@@ -3523,18 +3558,18 @@
         <f>P10+Q10</f>
         <v>6293.9999999999991</v>
       </c>
-      <c r="T10" s="22">
+      <c r="T10" s="21">
         <v>570000</v>
       </c>
       <c r="U10" s="5"/>
       <c r="V10" s="6">
         <v>0.79</v>
       </c>
-      <c r="W10" s="26">
+      <c r="W10" s="25">
         <f>(V10*M10)/(10^3)</f>
         <v>0.72995999999999994</v>
       </c>
-      <c r="X10" s="22">
+      <c r="X10" s="21">
         <v>2000</v>
       </c>
       <c r="Y10" s="5"/>
@@ -3544,8 +3579,8 @@
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3561,13 +3596,14 @@
         <v>10</v>
       </c>
       <c r="F11" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G11" s="9">
-        <v>1500</v>
+        <f>G3*1.2</f>
+        <v>1800</v>
       </c>
       <c r="H11" s="9">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J11" s="5">
         <v>2.7</v>
@@ -3597,18 +3633,18 @@
         <f t="shared" ref="R11:R16" si="7">P11+Q11</f>
         <v>6096.0000000000009</v>
       </c>
-      <c r="T11" s="22">
+      <c r="T11" s="21">
         <v>570000</v>
       </c>
       <c r="U11" s="5"/>
       <c r="V11" s="6">
         <v>0.79</v>
       </c>
-      <c r="W11" s="26">
+      <c r="W11" s="25">
         <f t="shared" ref="W11:W17" si="8">(V11*M11)/(10^3)</f>
         <v>0.70389000000000013</v>
       </c>
-      <c r="X11" s="22">
+      <c r="X11" s="21">
         <v>2000</v>
       </c>
       <c r="Y11" s="5"/>
@@ -3618,8 +3654,8 @@
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3635,13 +3671,14 @@
         <v>10</v>
       </c>
       <c r="F12" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G12" s="9">
-        <v>1000</v>
+        <f t="shared" ref="G12:G16" si="9">G4*1.2</f>
+        <v>1200</v>
       </c>
       <c r="H12" s="9">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J12" s="5">
         <v>2.8</v>
@@ -3671,18 +3708,18 @@
         <f t="shared" si="7"/>
         <v>23449.999999999996</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="21">
         <v>570000</v>
       </c>
       <c r="U12" s="5"/>
       <c r="V12" s="6">
         <v>0</v>
       </c>
-      <c r="W12" s="26">
+      <c r="W12" s="25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X12" s="22">
+      <c r="X12" s="21">
         <v>2000</v>
       </c>
       <c r="Y12" s="5"/>
@@ -3692,8 +3729,8 @@
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -3709,13 +3746,14 @@
         <v>10</v>
       </c>
       <c r="F13" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G13" s="9">
-        <v>1500</v>
+        <f t="shared" si="9"/>
+        <v>1800</v>
       </c>
       <c r="H13" s="9">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J13" s="5">
         <v>2.7</v>
@@ -3745,18 +3783,18 @@
         <f t="shared" si="7"/>
         <v>22625.000000000004</v>
       </c>
-      <c r="T13" s="22">
+      <c r="T13" s="21">
         <v>570000</v>
       </c>
       <c r="U13" s="5"/>
       <c r="V13" s="6">
         <v>0</v>
       </c>
-      <c r="W13" s="26">
+      <c r="W13" s="25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X13" s="22">
+      <c r="X13" s="21">
         <v>2000</v>
       </c>
       <c r="Y13" s="5"/>
@@ -3766,8 +3804,8 @@
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3783,13 +3821,14 @@
         <v>10</v>
       </c>
       <c r="F14" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G14" s="9">
-        <v>15000</v>
+        <f t="shared" si="9"/>
+        <v>18000</v>
       </c>
       <c r="H14" s="9">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J14" s="5">
         <v>2.8</v>
@@ -3819,18 +3858,18 @@
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="21">
         <v>570000</v>
       </c>
       <c r="U14" s="5"/>
       <c r="V14" s="6">
         <v>0</v>
       </c>
-      <c r="W14" s="26">
+      <c r="W14" s="25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X14" s="22">
+      <c r="X14" s="21">
         <v>2000</v>
       </c>
       <c r="Y14" s="5"/>
@@ -3840,8 +3879,8 @@
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3857,13 +3896,14 @@
         <v>10</v>
       </c>
       <c r="F15" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G15" s="9">
-        <v>16000</v>
+        <f t="shared" si="9"/>
+        <v>19200</v>
       </c>
       <c r="H15" s="9">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J15" s="5">
         <v>2.7</v>
@@ -3893,18 +3933,18 @@
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
-      <c r="T15" s="22">
+      <c r="T15" s="21">
         <v>570000</v>
       </c>
       <c r="U15" s="5"/>
       <c r="V15" s="6">
         <v>0</v>
       </c>
-      <c r="W15" s="26">
+      <c r="W15" s="25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X15" s="22">
+      <c r="X15" s="21">
         <v>2000</v>
       </c>
       <c r="Y15" s="5"/>
@@ -3914,8 +3954,8 @@
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3931,13 +3971,14 @@
         <v>10</v>
       </c>
       <c r="F16" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G16" s="9">
-        <v>15000</v>
+        <f t="shared" si="9"/>
+        <v>18000</v>
       </c>
       <c r="H16" s="9">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J16" s="5">
         <v>2.8</v>
@@ -3967,18 +4008,18 @@
         <f t="shared" si="7"/>
         <v>769</v>
       </c>
-      <c r="T16" s="22">
+      <c r="T16" s="21">
         <v>570000</v>
       </c>
       <c r="U16" s="5"/>
       <c r="V16" s="6">
         <v>0</v>
       </c>
-      <c r="W16" s="26">
+      <c r="W16" s="25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X16" s="22">
+      <c r="X16" s="21">
         <v>2000</v>
       </c>
       <c r="Y16" s="5"/>
@@ -3988,85 +4029,86 @@
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
     </row>
-    <row r="17" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>10</v>
       </c>
-      <c r="F17" s="38">
-        <v>0.9</v>
-      </c>
-      <c r="G17" s="39">
-        <v>16000</v>
-      </c>
-      <c r="H17" s="39">
-        <v>100</v>
-      </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="34">
+      <c r="F17" s="37">
+        <v>0.85</v>
+      </c>
+      <c r="G17" s="38">
+        <f>G9*1.2</f>
+        <v>19200</v>
+      </c>
+      <c r="H17" s="38">
+        <v>250</v>
+      </c>
+      <c r="I17" s="40"/>
+      <c r="J17" s="33">
         <v>2.7</v>
       </c>
-      <c r="K17" s="18">
-        <v>1</v>
-      </c>
-      <c r="L17" s="18">
+      <c r="K17" s="17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="17">
         <f t="shared" si="5"/>
         <v>2.7</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="17">
         <f t="shared" si="1"/>
         <v>891.00000000000011</v>
       </c>
-      <c r="N17" s="41"/>
-      <c r="O17" s="34">
+      <c r="N17" s="40"/>
+      <c r="O17" s="33">
         <v>-0.25</v>
       </c>
-      <c r="P17" s="34">
+      <c r="P17" s="33">
         <f>O17*M17</f>
         <v>-222.75000000000003</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17" s="33">
         <v>1000</v>
       </c>
-      <c r="R17" s="34">
+      <c r="R17" s="33">
         <f>P17+Q17</f>
         <v>777.25</v>
       </c>
-      <c r="S17" s="41"/>
-      <c r="T17" s="42">
+      <c r="S17" s="40"/>
+      <c r="T17" s="41">
         <v>570000</v>
       </c>
-      <c r="U17" s="34"/>
-      <c r="V17" s="18">
-        <v>0</v>
-      </c>
-      <c r="W17" s="45">
+      <c r="U17" s="33"/>
+      <c r="V17" s="17">
+        <v>0</v>
+      </c>
+      <c r="W17" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X17" s="42">
+      <c r="X17" s="41">
         <v>2000</v>
       </c>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
-    </row>
-    <row r="18" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+    </row>
+    <row r="18" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -4085,10 +4127,11 @@
         <v>0.9</v>
       </c>
       <c r="G18" s="9">
-        <v>1000</v>
+        <f>G10*1.2</f>
+        <v>1440</v>
       </c>
       <c r="H18" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J18" s="5">
         <v>2.8</v>
@@ -4118,18 +4161,18 @@
         <f>P18+Q18</f>
         <v>7467.9999999999991</v>
       </c>
-      <c r="T18" s="22">
+      <c r="T18" s="21">
         <v>900000</v>
       </c>
       <c r="U18" s="5"/>
       <c r="V18" s="6">
         <v>0.79</v>
       </c>
-      <c r="W18" s="26">
+      <c r="W18" s="25">
         <f>(V18*M18)/(10^3)</f>
         <v>0.72995999999999994</v>
       </c>
-      <c r="X18" s="22">
+      <c r="X18" s="21">
         <v>2000</v>
       </c>
       <c r="Y18" s="5"/>
@@ -4139,8 +4182,8 @@
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -4159,10 +4202,11 @@
         <v>0.9</v>
       </c>
       <c r="G19" s="9">
-        <v>1500</v>
+        <f>G11*1.2</f>
+        <v>2160</v>
       </c>
       <c r="H19" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J19" s="5">
         <v>2.7</v>
@@ -4171,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" ref="L19:L25" si="9">J19*K19</f>
+        <f t="shared" ref="L19:L25" si="10">J19*K19</f>
         <v>2.7</v>
       </c>
       <c r="M19" s="6">
@@ -4182,7 +4226,7 @@
         <v>7</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" ref="P19:P25" si="10">O19*M19</f>
+        <f t="shared" ref="P19:P24" si="11">O19*M19</f>
         <v>6237.0000000000009</v>
       </c>
       <c r="Q19" s="5">
@@ -4192,18 +4236,18 @@
         <f>P19+Q19</f>
         <v>7237.0000000000009</v>
       </c>
-      <c r="T19" s="22">
+      <c r="T19" s="21">
         <v>900000</v>
       </c>
       <c r="U19" s="5"/>
       <c r="V19" s="6">
         <v>0.79</v>
       </c>
-      <c r="W19" s="26">
-        <f t="shared" ref="W19:W25" si="11">(V19*M19)/(10^3)</f>
+      <c r="W19" s="25">
+        <f t="shared" ref="W19:W25" si="12">(V19*M19)/(10^3)</f>
         <v>0.70389000000000013</v>
       </c>
-      <c r="X19" s="22">
+      <c r="X19" s="21">
         <v>2000</v>
       </c>
       <c r="Y19" s="5"/>
@@ -4213,8 +4257,8 @@
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4233,10 +4277,11 @@
         <v>0.9</v>
       </c>
       <c r="G20" s="9">
-        <v>1000</v>
+        <f t="shared" ref="G20:G24" si="13">G12*1.2</f>
+        <v>1440</v>
       </c>
       <c r="H20" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J20" s="5">
         <v>2.8</v>
@@ -4245,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.8</v>
       </c>
       <c r="M20" s="6">
@@ -4256,28 +4301,28 @@
         <v>30</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>27719.999999999996</v>
       </c>
       <c r="Q20" s="5">
         <v>500</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" ref="R20:R24" si="12">P20+Q20</f>
+        <f t="shared" ref="R20:R24" si="14">P20+Q20</f>
         <v>28219.999999999996</v>
       </c>
-      <c r="T20" s="22">
+      <c r="T20" s="21">
         <v>900000</v>
       </c>
       <c r="U20" s="5"/>
       <c r="V20" s="6">
         <v>0</v>
       </c>
-      <c r="W20" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="22">
+      <c r="W20" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="21">
         <v>2000</v>
       </c>
       <c r="Y20" s="5"/>
@@ -4287,8 +4332,8 @@
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -4307,10 +4352,11 @@
         <v>0.9</v>
       </c>
       <c r="G21" s="9">
-        <v>1500</v>
+        <f t="shared" si="13"/>
+        <v>2160</v>
       </c>
       <c r="H21" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J21" s="5">
         <v>2.7</v>
@@ -4319,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.7</v>
       </c>
       <c r="M21" s="6">
@@ -4330,28 +4376,28 @@
         <v>30</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>26730.000000000004</v>
       </c>
       <c r="Q21" s="5">
         <v>500</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>27230.000000000004</v>
       </c>
-      <c r="T21" s="22">
+      <c r="T21" s="21">
         <v>900000</v>
       </c>
       <c r="U21" s="5"/>
       <c r="V21" s="6">
         <v>0</v>
       </c>
-      <c r="W21" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="22">
+      <c r="W21" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="21">
         <v>2000</v>
       </c>
       <c r="Y21" s="5"/>
@@ -4361,8 +4407,8 @@
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -4381,10 +4427,11 @@
         <v>0.9</v>
       </c>
       <c r="G22" s="9">
-        <v>15000</v>
+        <f t="shared" si="13"/>
+        <v>21600</v>
       </c>
       <c r="H22" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J22" s="5">
         <v>2.8</v>
@@ -4393,7 +4440,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.8</v>
       </c>
       <c r="M22" s="6">
@@ -4404,28 +4451,28 @@
         <v>0</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q22" s="5">
         <v>1000</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
-      <c r="T22" s="22">
+      <c r="T22" s="21">
         <v>900000</v>
       </c>
       <c r="U22" s="5"/>
       <c r="V22" s="6">
         <v>0</v>
       </c>
-      <c r="W22" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="22">
+      <c r="W22" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="21">
         <v>2000</v>
       </c>
       <c r="Y22" s="5"/>
@@ -4435,8 +4482,8 @@
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -4455,10 +4502,11 @@
         <v>0.9</v>
       </c>
       <c r="G23" s="9">
-        <v>16000</v>
+        <f t="shared" si="13"/>
+        <v>23040</v>
       </c>
       <c r="H23" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J23" s="5">
         <v>2.7</v>
@@ -4467,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.7</v>
       </c>
       <c r="M23" s="6">
@@ -4478,28 +4526,28 @@
         <v>0</v>
       </c>
       <c r="P23" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q23" s="5">
         <v>1000</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
-      <c r="T23" s="22">
+      <c r="T23" s="21">
         <v>900000</v>
       </c>
       <c r="U23" s="5"/>
       <c r="V23" s="6">
         <v>0</v>
       </c>
-      <c r="W23" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="22">
+      <c r="W23" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="21">
         <v>2000</v>
       </c>
       <c r="Y23" s="5"/>
@@ -4509,8 +4557,8 @@
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4529,10 +4577,11 @@
         <v>0.9</v>
       </c>
       <c r="G24" s="9">
-        <v>15000</v>
+        <f t="shared" si="13"/>
+        <v>21600</v>
       </c>
       <c r="H24" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J24" s="5">
         <v>2.8</v>
@@ -4541,7 +4590,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.8</v>
       </c>
       <c r="M24" s="6">
@@ -4552,28 +4601,28 @@
         <v>-0.1</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-92.399999999999991</v>
       </c>
       <c r="Q24" s="5">
         <v>1500</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1407.6</v>
       </c>
-      <c r="T24" s="22">
+      <c r="T24" s="21">
         <v>900000</v>
       </c>
       <c r="U24" s="5"/>
       <c r="V24" s="6">
         <v>0</v>
       </c>
-      <c r="W24" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X24" s="22">
+      <c r="W24" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="21">
         <v>2000</v>
       </c>
       <c r="Y24" s="5"/>
@@ -4583,159 +4632,161 @@
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
     </row>
-    <row r="25" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
+    <row r="25" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="50">
         <v>10</v>
       </c>
-      <c r="F25" s="52">
+      <c r="F25" s="51">
         <v>0.9</v>
       </c>
-      <c r="G25" s="53">
-        <v>16000</v>
-      </c>
-      <c r="H25" s="53">
-        <v>100</v>
-      </c>
-      <c r="I25" s="54"/>
-      <c r="J25" s="55">
+      <c r="G25" s="52">
+        <f>G17*1.2</f>
+        <v>23040</v>
+      </c>
+      <c r="H25" s="52">
+        <v>500</v>
+      </c>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54">
         <v>2.7</v>
       </c>
-      <c r="K25" s="51">
-        <v>1</v>
-      </c>
-      <c r="L25" s="51">
-        <f t="shared" si="9"/>
+      <c r="K25" s="50">
+        <v>1</v>
+      </c>
+      <c r="L25" s="50">
+        <f t="shared" si="10"/>
         <v>2.7</v>
       </c>
-      <c r="M25" s="51">
+      <c r="M25" s="50">
         <f t="shared" si="1"/>
         <v>891.00000000000011</v>
       </c>
-      <c r="N25" s="54"/>
-      <c r="O25" s="55">
+      <c r="N25" s="53"/>
+      <c r="O25" s="54">
         <v>-0.1</v>
       </c>
-      <c r="P25" s="55">
+      <c r="P25" s="54">
         <f>O25*M25</f>
         <v>-89.100000000000023</v>
       </c>
-      <c r="Q25" s="55">
+      <c r="Q25" s="54">
         <v>1500</v>
       </c>
-      <c r="R25" s="55">
+      <c r="R25" s="54">
         <f>P25+Q25</f>
         <v>1410.9</v>
       </c>
-      <c r="S25" s="46"/>
-      <c r="T25" s="58">
+      <c r="S25" s="45"/>
+      <c r="T25" s="57">
         <v>900000</v>
       </c>
-      <c r="U25" s="55"/>
-      <c r="V25" s="51">
-        <v>0</v>
-      </c>
-      <c r="W25" s="57">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="58">
+      <c r="U25" s="54"/>
+      <c r="V25" s="50">
+        <v>0</v>
+      </c>
+      <c r="W25" s="56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="57">
         <v>2000</v>
       </c>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="55"/>
-      <c r="AB25" s="55"/>
-      <c r="AC25" s="55"/>
-      <c r="AD25" s="55"/>
-    </row>
-    <row r="26" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="54"/>
+      <c r="AA25" s="54"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="54"/>
+      <c r="AD25" s="54"/>
+    </row>
+    <row r="26" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="27">
         <v>10</v>
       </c>
-      <c r="F26" s="29">
-        <v>0.9</v>
-      </c>
-      <c r="G26" s="30">
-        <v>1000</v>
-      </c>
-      <c r="H26" s="30">
-        <v>100</v>
-      </c>
-      <c r="J26" s="27">
+      <c r="F26" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="G26" s="29">
+        <f>G2*110%</f>
+        <v>1100</v>
+      </c>
+      <c r="H26" s="29">
+        <v>150</v>
+      </c>
+      <c r="J26" s="26">
         <v>2.8</v>
       </c>
-      <c r="K26" s="28">
-        <v>1</v>
-      </c>
-      <c r="L26" s="28">
+      <c r="K26" s="27">
+        <v>1</v>
+      </c>
+      <c r="L26" s="27">
         <f>J26*K26</f>
         <v>2.8</v>
       </c>
-      <c r="M26" s="28">
+      <c r="M26" s="27">
         <f>L26*330</f>
         <v>923.99999999999989</v>
       </c>
-      <c r="O26" s="27">
+      <c r="O26" s="26">
         <v>6</v>
       </c>
-      <c r="P26" s="27">
+      <c r="P26" s="26">
         <f>M26*O26</f>
         <v>5543.9999999999991</v>
       </c>
-      <c r="Q26" s="27">
+      <c r="Q26" s="26">
         <v>600</v>
       </c>
-      <c r="R26" s="27">
+      <c r="R26" s="26">
         <f>P26+Q26</f>
         <v>6143.9999999999991</v>
       </c>
-      <c r="T26" s="31">
+      <c r="T26" s="30">
         <v>250000</v>
       </c>
-      <c r="U26" s="27"/>
-      <c r="V26" s="28">
+      <c r="U26" s="26"/>
+      <c r="V26" s="27">
         <v>0.79</v>
       </c>
-      <c r="W26" s="56">
+      <c r="W26" s="55">
         <f>(V26*M26)/(10^3)</f>
         <v>0.72995999999999994</v>
       </c>
-      <c r="X26" s="31">
+      <c r="X26" s="30">
         <v>2000</v>
       </c>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4751,13 +4802,14 @@
         <v>10</v>
       </c>
       <c r="F27" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G27" s="9">
-        <v>1500</v>
+        <v>0.8</v>
+      </c>
+      <c r="G27" s="29">
+        <f t="shared" ref="G27:G32" si="15">G3*110%</f>
+        <v>1650.0000000000002</v>
       </c>
       <c r="H27" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J27" s="5">
         <v>2.7</v>
@@ -4766,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" ref="L27:L33" si="13">J27*K27</f>
+        <f t="shared" ref="L27:L33" si="16">J27*K27</f>
         <v>2.7</v>
       </c>
       <c r="M27" s="6">
@@ -4776,8 +4828,8 @@
       <c r="O27" s="5">
         <v>6</v>
       </c>
-      <c r="P27" s="27">
-        <f t="shared" ref="P27:P32" si="14">M27*O27</f>
+      <c r="P27" s="26">
+        <f t="shared" ref="P27:P32" si="17">M27*O27</f>
         <v>5346.0000000000009</v>
       </c>
       <c r="Q27" s="5">
@@ -4787,18 +4839,18 @@
         <f>P27+Q27</f>
         <v>5946.0000000000009</v>
       </c>
-      <c r="T27" s="22">
+      <c r="T27" s="21">
         <v>250000</v>
       </c>
       <c r="U27" s="5"/>
       <c r="V27" s="6">
         <v>0.79</v>
       </c>
-      <c r="W27" s="26">
-        <f t="shared" ref="W27:W33" si="15">(V27*M27)/(10^3)</f>
+      <c r="W27" s="25">
+        <f t="shared" ref="W27:W33" si="18">(V27*M27)/(10^3)</f>
         <v>0.70389000000000013</v>
       </c>
-      <c r="X27" s="22">
+      <c r="X27" s="21">
         <v>2000</v>
       </c>
       <c r="Y27" s="5"/>
@@ -4808,8 +4860,8 @@
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -4825,13 +4877,14 @@
         <v>10</v>
       </c>
       <c r="F28" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G28" s="9">
-        <v>1000</v>
+        <v>0.8</v>
+      </c>
+      <c r="G28" s="29">
+        <f t="shared" si="15"/>
+        <v>1100</v>
       </c>
       <c r="H28" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J28" s="5">
         <v>2.8</v>
@@ -4840,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.8</v>
       </c>
       <c r="M28" s="6">
@@ -4850,8 +4903,8 @@
       <c r="O28" s="5">
         <v>20</v>
       </c>
-      <c r="P28" s="27">
-        <f t="shared" si="14"/>
+      <c r="P28" s="26">
+        <f t="shared" si="17"/>
         <v>18479.999999999996</v>
       </c>
       <c r="Q28" s="5">
@@ -4861,18 +4914,18 @@
         <f>P28+Q28</f>
         <v>18829.999999999996</v>
       </c>
-      <c r="T28" s="22">
+      <c r="T28" s="21">
         <v>250000</v>
       </c>
       <c r="U28" s="5"/>
       <c r="V28" s="6">
         <v>0</v>
       </c>
-      <c r="W28" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X28" s="22">
+      <c r="W28" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="21">
         <v>2000</v>
       </c>
       <c r="Y28" s="5"/>
@@ -4882,8 +4935,8 @@
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -4899,13 +4952,14 @@
         <v>10</v>
       </c>
       <c r="F29" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G29" s="9">
-        <v>1500</v>
+        <v>0.8</v>
+      </c>
+      <c r="G29" s="29">
+        <f t="shared" si="15"/>
+        <v>1650.0000000000002</v>
       </c>
       <c r="H29" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J29" s="5">
         <v>2.7</v>
@@ -4914,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.7</v>
       </c>
       <c r="M29" s="6">
@@ -4924,8 +4978,8 @@
       <c r="O29" s="5">
         <v>20</v>
       </c>
-      <c r="P29" s="27">
-        <f t="shared" si="14"/>
+      <c r="P29" s="26">
+        <f t="shared" si="17"/>
         <v>17820.000000000004</v>
       </c>
       <c r="Q29" s="5">
@@ -4935,18 +4989,18 @@
         <f>P29+Q29</f>
         <v>18170.000000000004</v>
       </c>
-      <c r="T29" s="22">
+      <c r="T29" s="21">
         <v>250000</v>
       </c>
       <c r="U29" s="5"/>
       <c r="V29" s="6">
         <v>0</v>
       </c>
-      <c r="W29" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X29" s="22">
+      <c r="W29" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="21">
         <v>2000</v>
       </c>
       <c r="Y29" s="5"/>
@@ -4956,8 +5010,8 @@
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -4973,13 +5027,14 @@
         <v>10</v>
       </c>
       <c r="F30" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G30" s="9">
-        <v>15000</v>
+        <v>0.8</v>
+      </c>
+      <c r="G30" s="29">
+        <f t="shared" si="15"/>
+        <v>16500</v>
       </c>
       <c r="H30" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J30" s="5">
         <v>2.8</v>
@@ -4988,7 +5043,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.8</v>
       </c>
       <c r="M30" s="6">
@@ -4998,29 +5053,29 @@
       <c r="O30" s="5">
         <v>0</v>
       </c>
-      <c r="P30" s="27">
-        <f t="shared" si="14"/>
+      <c r="P30" s="26">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q30" s="5">
         <v>600</v>
       </c>
       <c r="R30" s="5">
-        <f t="shared" ref="R30:R32" si="16">P30+Q30</f>
+        <f t="shared" ref="R30:R32" si="19">P30+Q30</f>
         <v>600</v>
       </c>
-      <c r="T30" s="22">
+      <c r="T30" s="21">
         <v>250000</v>
       </c>
       <c r="U30" s="5"/>
       <c r="V30" s="6">
         <v>0</v>
       </c>
-      <c r="W30" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X30" s="22">
+      <c r="W30" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="21">
         <v>2000</v>
       </c>
       <c r="Y30" s="5"/>
@@ -5030,8 +5085,8 @@
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -5047,13 +5102,14 @@
         <v>10</v>
       </c>
       <c r="F31" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G31" s="9">
-        <v>16000</v>
+        <v>0.8</v>
+      </c>
+      <c r="G31" s="29">
+        <f t="shared" si="15"/>
+        <v>17600</v>
       </c>
       <c r="H31" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J31" s="5">
         <v>2.7</v>
@@ -5062,7 +5118,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.7</v>
       </c>
       <c r="M31" s="6">
@@ -5072,29 +5128,29 @@
       <c r="O31" s="5">
         <v>0</v>
       </c>
-      <c r="P31" s="27">
-        <f t="shared" si="14"/>
+      <c r="P31" s="26">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q31" s="5">
         <v>600</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>600</v>
       </c>
-      <c r="T31" s="22">
+      <c r="T31" s="21">
         <v>250000</v>
       </c>
       <c r="U31" s="5"/>
       <c r="V31" s="6">
         <v>0</v>
       </c>
-      <c r="W31" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X31" s="22">
+      <c r="W31" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="21">
         <v>2000</v>
       </c>
       <c r="Y31" s="5"/>
@@ -5104,8 +5160,8 @@
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -5121,13 +5177,14 @@
         <v>10</v>
       </c>
       <c r="F32" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G32" s="9">
-        <v>15000</v>
+        <v>0.8</v>
+      </c>
+      <c r="G32" s="29">
+        <f t="shared" si="15"/>
+        <v>16500</v>
       </c>
       <c r="H32" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J32" s="5">
         <v>2.8</v>
@@ -5136,7 +5193,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.8</v>
       </c>
       <c r="M32" s="6">
@@ -5146,29 +5203,29 @@
       <c r="O32" s="5">
         <v>-0.5</v>
       </c>
-      <c r="P32" s="27">
-        <f t="shared" si="14"/>
+      <c r="P32" s="26">
+        <f t="shared" si="17"/>
         <v>-461.99999999999994</v>
       </c>
       <c r="Q32" s="5">
         <v>1000</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>538</v>
       </c>
-      <c r="T32" s="22">
+      <c r="T32" s="21">
         <v>250000</v>
       </c>
       <c r="U32" s="5"/>
       <c r="V32" s="6">
         <v>0</v>
       </c>
-      <c r="W32" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X32" s="22">
+      <c r="W32" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="21">
         <v>2000</v>
       </c>
       <c r="Y32" s="5"/>
@@ -5178,85 +5235,86 @@
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
     </row>
-    <row r="33" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="17">
         <v>10</v>
       </c>
-      <c r="F33" s="38">
-        <v>0.9</v>
-      </c>
-      <c r="G33" s="39">
-        <v>16000</v>
-      </c>
-      <c r="H33" s="39">
-        <v>100</v>
-      </c>
-      <c r="I33" s="41"/>
-      <c r="J33" s="34">
+      <c r="F33" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="G33" s="38">
+        <f>G9*110%</f>
+        <v>17600</v>
+      </c>
+      <c r="H33" s="38">
+        <v>150</v>
+      </c>
+      <c r="I33" s="40"/>
+      <c r="J33" s="33">
         <v>2.7</v>
       </c>
-      <c r="K33" s="18">
-        <v>1</v>
-      </c>
-      <c r="L33" s="18">
-        <f t="shared" si="13"/>
+      <c r="K33" s="17">
+        <v>1</v>
+      </c>
+      <c r="L33" s="17">
+        <f t="shared" si="16"/>
         <v>2.7</v>
       </c>
-      <c r="M33" s="18">
+      <c r="M33" s="17">
         <f t="shared" si="1"/>
         <v>891.00000000000011</v>
       </c>
-      <c r="N33" s="41"/>
-      <c r="O33" s="34">
+      <c r="N33" s="40"/>
+      <c r="O33" s="33">
         <v>-0.5</v>
       </c>
-      <c r="P33" s="34">
+      <c r="P33" s="33">
         <f>O33*M33</f>
         <v>-445.50000000000006</v>
       </c>
-      <c r="Q33" s="34">
+      <c r="Q33" s="33">
         <v>1000</v>
       </c>
-      <c r="R33" s="34">
-        <f>P33+Q33</f>
+      <c r="R33" s="33">
+        <f t="shared" ref="R33:R49" si="20">P33+Q33</f>
         <v>554.5</v>
       </c>
-      <c r="S33" s="41"/>
-      <c r="T33" s="42">
+      <c r="S33" s="40"/>
+      <c r="T33" s="41">
         <v>250000</v>
       </c>
-      <c r="U33" s="34"/>
-      <c r="V33" s="18">
-        <v>0</v>
-      </c>
-      <c r="W33" s="45">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X33" s="42">
+      <c r="U33" s="33"/>
+      <c r="V33" s="17">
+        <v>0</v>
+      </c>
+      <c r="W33" s="44">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="41">
         <v>2000</v>
       </c>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="34"/>
-      <c r="AD33" s="34"/>
-    </row>
-    <row r="34" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="33"/>
+      <c r="AD33" s="33"/>
+    </row>
+    <row r="34" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -5272,13 +5330,14 @@
         <v>10</v>
       </c>
       <c r="F34" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G34" s="9">
-        <v>1000</v>
+        <f>G26*1.2</f>
+        <v>1320</v>
       </c>
       <c r="H34" s="9">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J34" s="5">
         <v>2.8</v>
@@ -5305,21 +5364,21 @@
         <v>850</v>
       </c>
       <c r="R34" s="5">
-        <f>P34+Q34</f>
+        <f t="shared" si="20"/>
         <v>7317.9999999999991</v>
       </c>
-      <c r="T34" s="22">
+      <c r="T34" s="21">
         <v>712500</v>
       </c>
       <c r="U34" s="5"/>
       <c r="V34" s="6">
         <v>0.79</v>
       </c>
-      <c r="W34" s="26">
+      <c r="W34" s="25">
         <f>(V34*M34)/(10^3)</f>
         <v>0.72995999999999994</v>
       </c>
-      <c r="X34" s="22">
+      <c r="X34" s="21">
         <v>2000</v>
       </c>
       <c r="Y34" s="5"/>
@@ -5329,8 +5388,8 @@
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -5346,13 +5405,14 @@
         <v>10</v>
       </c>
       <c r="F35" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G35" s="9">
-        <v>1500</v>
+        <f t="shared" ref="G35:G40" si="21">G27*1.2</f>
+        <v>1980.0000000000002</v>
       </c>
       <c r="H35" s="9">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J35" s="5">
         <v>2.7</v>
@@ -5361,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" ref="L35:L41" si="17">J35*K35</f>
+        <f t="shared" ref="L35:L41" si="22">J35*K35</f>
         <v>2.7</v>
       </c>
       <c r="M35" s="6">
@@ -5372,28 +5432,28 @@
         <v>7</v>
       </c>
       <c r="P35" s="5">
-        <f t="shared" ref="P35:P40" si="18">O35*M35</f>
+        <f t="shared" ref="P35:P40" si="23">O35*M35</f>
         <v>6237.0000000000009</v>
       </c>
       <c r="Q35" s="5">
         <v>850</v>
       </c>
       <c r="R35" s="5">
-        <f>P35+Q35</f>
+        <f t="shared" si="20"/>
         <v>7087.0000000000009</v>
       </c>
-      <c r="T35" s="22">
+      <c r="T35" s="21">
         <v>712500</v>
       </c>
       <c r="U35" s="5"/>
       <c r="V35" s="6">
         <v>0.79</v>
       </c>
-      <c r="W35" s="26">
-        <f t="shared" ref="W35:W41" si="19">(V35*M35)/(10^3)</f>
+      <c r="W35" s="25">
+        <f t="shared" ref="W35:W41" si="24">(V35*M35)/(10^3)</f>
         <v>0.70389000000000013</v>
       </c>
-      <c r="X35" s="22">
+      <c r="X35" s="21">
         <v>2000</v>
       </c>
       <c r="Y35" s="5"/>
@@ -5403,8 +5463,8 @@
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -5420,13 +5480,14 @@
         <v>10</v>
       </c>
       <c r="F36" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G36" s="9">
-        <v>1000</v>
+        <f t="shared" si="21"/>
+        <v>1320</v>
       </c>
       <c r="H36" s="9">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J36" s="5">
         <v>2.8</v>
@@ -5435,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>2.8</v>
       </c>
       <c r="M36" s="6">
@@ -5446,28 +5507,28 @@
         <v>25</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>23099.999999999996</v>
       </c>
       <c r="Q36" s="5">
         <v>450</v>
       </c>
       <c r="R36" s="5">
-        <f>P36+Q36</f>
+        <f t="shared" si="20"/>
         <v>23549.999999999996</v>
       </c>
-      <c r="T36" s="22">
+      <c r="T36" s="21">
         <v>712500</v>
       </c>
       <c r="U36" s="5"/>
       <c r="V36" s="6">
         <v>0</v>
       </c>
-      <c r="W36" s="26">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="X36" s="22">
+      <c r="W36" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="21">
         <v>2000</v>
       </c>
       <c r="Y36" s="5"/>
@@ -5477,8 +5538,8 @@
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -5494,13 +5555,14 @@
         <v>10</v>
       </c>
       <c r="F37" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G37" s="9">
-        <v>1500</v>
+        <f t="shared" si="21"/>
+        <v>1980.0000000000002</v>
       </c>
       <c r="H37" s="9">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J37" s="5">
         <v>2.7</v>
@@ -5509,7 +5571,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>2.7</v>
       </c>
       <c r="M37" s="6">
@@ -5520,28 +5582,28 @@
         <v>25</v>
       </c>
       <c r="P37" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>22275.000000000004</v>
       </c>
       <c r="Q37" s="5">
         <v>450</v>
       </c>
       <c r="R37" s="5">
-        <f>P37+Q37</f>
+        <f t="shared" si="20"/>
         <v>22725.000000000004</v>
       </c>
-      <c r="T37" s="22">
+      <c r="T37" s="21">
         <v>712500</v>
       </c>
       <c r="U37" s="5"/>
       <c r="V37" s="6">
         <v>0</v>
       </c>
-      <c r="W37" s="26">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="X37" s="22">
+      <c r="W37" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="21">
         <v>2000</v>
       </c>
       <c r="Y37" s="5"/>
@@ -5551,8 +5613,8 @@
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -5568,13 +5630,14 @@
         <v>10</v>
       </c>
       <c r="F38" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G38" s="9">
-        <v>15000</v>
+        <f t="shared" si="21"/>
+        <v>19800</v>
       </c>
       <c r="H38" s="9">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J38" s="5">
         <v>2.8</v>
@@ -5583,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>2.8</v>
       </c>
       <c r="M38" s="6">
@@ -5594,28 +5657,28 @@
         <v>0</v>
       </c>
       <c r="P38" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q38" s="5">
         <v>850</v>
       </c>
       <c r="R38" s="5">
-        <f>P38+Q38</f>
+        <f t="shared" si="20"/>
         <v>850</v>
       </c>
-      <c r="T38" s="22">
+      <c r="T38" s="21">
         <v>712500</v>
       </c>
       <c r="U38" s="5"/>
       <c r="V38" s="6">
         <v>0</v>
       </c>
-      <c r="W38" s="26">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="X38" s="22">
+      <c r="W38" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="21">
         <v>2000</v>
       </c>
       <c r="Y38" s="5"/>
@@ -5625,8 +5688,8 @@
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -5642,13 +5705,14 @@
         <v>10</v>
       </c>
       <c r="F39" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G39" s="9">
-        <v>16000</v>
+        <f t="shared" si="21"/>
+        <v>21120</v>
       </c>
       <c r="H39" s="9">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J39" s="5">
         <v>2.7</v>
@@ -5657,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>2.7</v>
       </c>
       <c r="M39" s="6">
@@ -5668,28 +5732,28 @@
         <v>0</v>
       </c>
       <c r="P39" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q39" s="5">
         <v>850</v>
       </c>
       <c r="R39" s="5">
-        <f>P39+Q39</f>
+        <f t="shared" si="20"/>
         <v>850</v>
       </c>
-      <c r="T39" s="22">
+      <c r="T39" s="21">
         <v>712500</v>
       </c>
       <c r="U39" s="5"/>
       <c r="V39" s="6">
         <v>0</v>
       </c>
-      <c r="W39" s="26">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="X39" s="22">
+      <c r="W39" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X39" s="21">
         <v>2000</v>
       </c>
       <c r="Y39" s="5"/>
@@ -5699,8 +5763,8 @@
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -5716,13 +5780,14 @@
         <v>10</v>
       </c>
       <c r="F40" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G40" s="9">
-        <v>15000</v>
+        <f t="shared" si="21"/>
+        <v>19800</v>
       </c>
       <c r="H40" s="9">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J40" s="5">
         <v>2.8</v>
@@ -5731,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>2.8</v>
       </c>
       <c r="M40" s="6">
@@ -5742,28 +5807,28 @@
         <v>-0.25</v>
       </c>
       <c r="P40" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-230.99999999999997</v>
       </c>
       <c r="Q40" s="5">
         <v>1250</v>
       </c>
       <c r="R40" s="5">
-        <f>P40+Q40</f>
+        <f t="shared" si="20"/>
         <v>1019</v>
       </c>
-      <c r="T40" s="22">
+      <c r="T40" s="21">
         <v>712500</v>
       </c>
       <c r="U40" s="5"/>
       <c r="V40" s="6">
         <v>0</v>
       </c>
-      <c r="W40" s="26">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="X40" s="22">
+      <c r="W40" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="21">
         <v>2000</v>
       </c>
       <c r="Y40" s="5"/>
@@ -5773,85 +5838,86 @@
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
     </row>
-    <row r="41" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="17">
         <v>10</v>
       </c>
-      <c r="F41" s="38">
-        <v>0.9</v>
-      </c>
-      <c r="G41" s="39">
-        <v>16000</v>
-      </c>
-      <c r="H41" s="39">
-        <v>100</v>
-      </c>
-      <c r="I41" s="41"/>
-      <c r="J41" s="34">
+      <c r="F41" s="37">
+        <v>0.85</v>
+      </c>
+      <c r="G41" s="38">
+        <f>G33*1.2</f>
+        <v>21120</v>
+      </c>
+      <c r="H41" s="38">
+        <v>400</v>
+      </c>
+      <c r="I41" s="40"/>
+      <c r="J41" s="33">
         <v>2.7</v>
       </c>
-      <c r="K41" s="18">
-        <v>1</v>
-      </c>
-      <c r="L41" s="18">
-        <f t="shared" si="17"/>
+      <c r="K41" s="17">
+        <v>1</v>
+      </c>
+      <c r="L41" s="17">
+        <f t="shared" si="22"/>
         <v>2.7</v>
       </c>
-      <c r="M41" s="18">
+      <c r="M41" s="17">
         <f t="shared" si="1"/>
         <v>891.00000000000011</v>
       </c>
-      <c r="N41" s="41"/>
-      <c r="O41" s="34">
+      <c r="N41" s="40"/>
+      <c r="O41" s="33">
         <v>-0.25</v>
       </c>
-      <c r="P41" s="34">
+      <c r="P41" s="33">
         <f>O41*M41</f>
         <v>-222.75000000000003</v>
       </c>
-      <c r="Q41" s="34">
+      <c r="Q41" s="33">
         <v>1250</v>
       </c>
-      <c r="R41" s="34">
-        <f>P41+Q41</f>
+      <c r="R41" s="33">
+        <f t="shared" si="20"/>
         <v>1027.25</v>
       </c>
-      <c r="S41" s="41"/>
-      <c r="T41" s="42">
+      <c r="S41" s="40"/>
+      <c r="T41" s="41">
         <v>712500</v>
       </c>
-      <c r="U41" s="34"/>
-      <c r="V41" s="18">
-        <v>0</v>
-      </c>
-      <c r="W41" s="45">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="X41" s="42">
+      <c r="U41" s="33"/>
+      <c r="V41" s="17">
+        <v>0</v>
+      </c>
+      <c r="W41" s="44">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="41">
         <v>2000</v>
       </c>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="34"/>
-    </row>
-    <row r="42" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="33"/>
+      <c r="AC41" s="33"/>
+      <c r="AD41" s="33"/>
+    </row>
+    <row r="42" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -5870,10 +5936,11 @@
         <v>0.9</v>
       </c>
       <c r="G42" s="9">
-        <v>1000</v>
+        <f>G34*1.2</f>
+        <v>1584</v>
       </c>
       <c r="H42" s="9">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J42" s="5">
         <v>2.8</v>
@@ -5900,21 +5967,21 @@
         <v>1250</v>
       </c>
       <c r="R42" s="5">
-        <f>P42+Q42</f>
+        <f t="shared" si="20"/>
         <v>8642</v>
       </c>
-      <c r="T42" s="22">
+      <c r="T42" s="21">
         <v>1125000</v>
       </c>
       <c r="U42" s="5"/>
       <c r="V42" s="6">
         <v>0.79</v>
       </c>
-      <c r="W42" s="26">
+      <c r="W42" s="25">
         <f>(V42*M42)/(10^3)</f>
         <v>0.72995999999999994</v>
       </c>
-      <c r="X42" s="22">
+      <c r="X42" s="21">
         <v>2000</v>
       </c>
       <c r="Y42" s="5"/>
@@ -5924,8 +5991,8 @@
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -5944,10 +6011,11 @@
         <v>0.9</v>
       </c>
       <c r="G43" s="9">
-        <v>1500</v>
+        <f t="shared" ref="G43:G48" si="25">G35*1.2</f>
+        <v>2376</v>
       </c>
       <c r="H43" s="9">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J43" s="5">
         <v>2.7</v>
@@ -5956,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="6">
-        <f t="shared" ref="L43:L49" si="20">J43*K43</f>
+        <f t="shared" ref="L43:L49" si="26">J43*K43</f>
         <v>2.7</v>
       </c>
       <c r="M43" s="6">
@@ -5967,28 +6035,28 @@
         <v>8</v>
       </c>
       <c r="P43" s="5">
-        <f t="shared" ref="P43:P48" si="21">O43*M43</f>
+        <f t="shared" ref="P43:P48" si="27">O43*M43</f>
         <v>7128.0000000000009</v>
       </c>
       <c r="Q43" s="5">
         <v>1250</v>
       </c>
       <c r="R43" s="5">
-        <f>P43+Q43</f>
+        <f t="shared" si="20"/>
         <v>8378</v>
       </c>
-      <c r="T43" s="22">
+      <c r="T43" s="21">
         <v>1125000</v>
       </c>
       <c r="U43" s="5"/>
       <c r="V43" s="6">
         <v>0.79</v>
       </c>
-      <c r="W43" s="26">
-        <f t="shared" ref="W43:W49" si="22">(V43*M43)/(10^3)</f>
+      <c r="W43" s="25">
+        <f t="shared" ref="W43:W49" si="28">(V43*M43)/(10^3)</f>
         <v>0.70389000000000013</v>
       </c>
-      <c r="X43" s="22">
+      <c r="X43" s="21">
         <v>2000</v>
       </c>
       <c r="Y43" s="5"/>
@@ -5998,8 +6066,8 @@
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -6018,10 +6086,11 @@
         <v>0.9</v>
       </c>
       <c r="G44" s="9">
-        <v>1000</v>
+        <f t="shared" si="25"/>
+        <v>1584</v>
       </c>
       <c r="H44" s="9">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J44" s="5">
         <v>2.8</v>
@@ -6030,7 +6099,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2.8</v>
       </c>
       <c r="M44" s="6">
@@ -6041,28 +6110,28 @@
         <v>50</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>46199.999999999993</v>
       </c>
       <c r="Q44" s="5">
         <v>750</v>
       </c>
       <c r="R44" s="5">
-        <f>P44+Q44</f>
+        <f t="shared" si="20"/>
         <v>46949.999999999993</v>
       </c>
-      <c r="T44" s="22">
+      <c r="T44" s="21">
         <v>1125000</v>
       </c>
       <c r="U44" s="5"/>
       <c r="V44" s="6">
         <v>0</v>
       </c>
-      <c r="W44" s="26">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X44" s="22">
+      <c r="W44" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X44" s="21">
         <v>2000</v>
       </c>
       <c r="Y44" s="5"/>
@@ -6072,8 +6141,8 @@
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -6092,10 +6161,11 @@
         <v>0.9</v>
       </c>
       <c r="G45" s="9">
-        <v>1500</v>
+        <f t="shared" si="25"/>
+        <v>2376</v>
       </c>
       <c r="H45" s="9">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J45" s="5">
         <v>2.7</v>
@@ -6104,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2.7</v>
       </c>
       <c r="M45" s="6">
@@ -6115,28 +6185,28 @@
         <v>50</v>
       </c>
       <c r="P45" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>44550.000000000007</v>
       </c>
       <c r="Q45" s="5">
         <v>750</v>
       </c>
       <c r="R45" s="5">
-        <f>P45+Q45</f>
+        <f t="shared" si="20"/>
         <v>45300.000000000007</v>
       </c>
-      <c r="T45" s="22">
+      <c r="T45" s="21">
         <v>1125000</v>
       </c>
       <c r="U45" s="5"/>
       <c r="V45" s="6">
         <v>0</v>
       </c>
-      <c r="W45" s="26">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X45" s="22">
+      <c r="W45" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="21">
         <v>2000</v>
       </c>
       <c r="Y45" s="5"/>
@@ -6146,8 +6216,8 @@
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -6166,10 +6236,11 @@
         <v>0.9</v>
       </c>
       <c r="G46" s="9">
-        <v>15000</v>
+        <f t="shared" si="25"/>
+        <v>23760</v>
       </c>
       <c r="H46" s="9">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J46" s="5">
         <v>2.8</v>
@@ -6178,7 +6249,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2.8</v>
       </c>
       <c r="M46" s="6">
@@ -6189,28 +6260,28 @@
         <v>0</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q46" s="5">
         <v>1250</v>
       </c>
       <c r="R46" s="5">
-        <f>P46+Q46</f>
+        <f t="shared" si="20"/>
         <v>1250</v>
       </c>
-      <c r="T46" s="22">
+      <c r="T46" s="21">
         <v>1125000</v>
       </c>
       <c r="U46" s="5"/>
       <c r="V46" s="6">
         <v>0</v>
       </c>
-      <c r="W46" s="26">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X46" s="22">
+      <c r="W46" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="21">
         <v>2000</v>
       </c>
       <c r="Y46" s="5"/>
@@ -6220,8 +6291,8 @@
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -6240,10 +6311,11 @@
         <v>0.9</v>
       </c>
       <c r="G47" s="9">
-        <v>16000</v>
+        <f t="shared" si="25"/>
+        <v>25344</v>
       </c>
       <c r="H47" s="9">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J47" s="5">
         <v>2.7</v>
@@ -6252,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2.7</v>
       </c>
       <c r="M47" s="6">
@@ -6263,28 +6335,28 @@
         <v>0</v>
       </c>
       <c r="P47" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q47" s="5">
         <v>1250</v>
       </c>
       <c r="R47" s="5">
-        <f>P47+Q47</f>
+        <f t="shared" si="20"/>
         <v>1250</v>
       </c>
-      <c r="T47" s="22">
+      <c r="T47" s="21">
         <v>1125000</v>
       </c>
       <c r="U47" s="5"/>
       <c r="V47" s="6">
         <v>0</v>
       </c>
-      <c r="W47" s="26">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X47" s="22">
+      <c r="W47" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X47" s="21">
         <v>2000</v>
       </c>
       <c r="Y47" s="5"/>
@@ -6294,8 +6366,8 @@
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -6314,10 +6386,11 @@
         <v>0.9</v>
       </c>
       <c r="G48" s="9">
-        <v>15000</v>
+        <f t="shared" si="25"/>
+        <v>23760</v>
       </c>
       <c r="H48" s="9">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J48" s="5">
         <v>2.8</v>
@@ -6326,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2.8</v>
       </c>
       <c r="M48" s="6">
@@ -6337,28 +6410,28 @@
         <v>-0.1</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>-92.399999999999991</v>
       </c>
       <c r="Q48" s="5">
         <v>1500</v>
       </c>
       <c r="R48" s="5">
-        <f>P48+Q48</f>
+        <f t="shared" si="20"/>
         <v>1407.6</v>
       </c>
-      <c r="T48" s="22">
+      <c r="T48" s="21">
         <v>1125000</v>
       </c>
       <c r="U48" s="5"/>
       <c r="V48" s="6">
         <v>0</v>
       </c>
-      <c r="W48" s="26">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X48" s="22">
+      <c r="W48" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X48" s="21">
         <v>2000</v>
       </c>
       <c r="Y48" s="5"/>
@@ -6368,85 +6441,86 @@
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
     </row>
-    <row r="49" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="17">
         <v>10</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49" s="37">
         <v>0.9</v>
       </c>
-      <c r="G49" s="39">
-        <v>16000</v>
-      </c>
-      <c r="H49" s="39">
-        <v>100</v>
-      </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="34">
+      <c r="G49" s="38">
+        <f>G41*1.2</f>
+        <v>25344</v>
+      </c>
+      <c r="H49" s="38">
+        <v>800</v>
+      </c>
+      <c r="I49" s="40"/>
+      <c r="J49" s="33">
         <v>2.7</v>
       </c>
-      <c r="K49" s="18">
-        <v>1</v>
-      </c>
-      <c r="L49" s="18">
-        <f t="shared" si="20"/>
+      <c r="K49" s="17">
+        <v>1</v>
+      </c>
+      <c r="L49" s="17">
+        <f t="shared" si="26"/>
         <v>2.7</v>
       </c>
-      <c r="M49" s="18">
+      <c r="M49" s="17">
         <f t="shared" si="1"/>
         <v>891.00000000000011</v>
       </c>
-      <c r="N49" s="41"/>
-      <c r="O49" s="34">
+      <c r="N49" s="40"/>
+      <c r="O49" s="33">
         <v>-0.1</v>
       </c>
-      <c r="P49" s="34">
+      <c r="P49" s="33">
         <f>O49*M49</f>
         <v>-89.100000000000023</v>
       </c>
-      <c r="Q49" s="34">
+      <c r="Q49" s="33">
         <v>1500</v>
       </c>
-      <c r="R49" s="34">
-        <f>P49+Q49</f>
+      <c r="R49" s="33">
+        <f t="shared" si="20"/>
         <v>1410.9</v>
       </c>
-      <c r="S49" s="41"/>
-      <c r="T49" s="42">
+      <c r="S49" s="40"/>
+      <c r="T49" s="41">
         <v>1125000</v>
       </c>
-      <c r="U49" s="34"/>
-      <c r="V49" s="18">
-        <v>0</v>
-      </c>
-      <c r="W49" s="45">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X49" s="42">
+      <c r="U49" s="33"/>
+      <c r="V49" s="17">
+        <v>0</v>
+      </c>
+      <c r="W49" s="44">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="41">
         <v>2000</v>
       </c>
-      <c r="Y49" s="34"/>
-      <c r="Z49" s="34"/>
-      <c r="AA49" s="34"/>
-      <c r="AB49" s="34"/>
-      <c r="AC49" s="34"/>
-      <c r="AD49" s="34"/>
-    </row>
-    <row r="50" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="33"/>
+      <c r="AC49" s="33"/>
+      <c r="AD49" s="33"/>
+    </row>
+    <row r="50" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="T55" t="s">
         <v>51</v>
       </c>
@@ -6454,7 +6528,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="U56" t="s">
         <v>53</v>
       </c>
@@ -6468,384 +6542,384 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B775FE-89E7-DE49-9FC4-5A387DAB3702}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19">
         <f>A2+B2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21">
-        <v>1</v>
-      </c>
-      <c r="C3" s="21">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20">
         <f t="shared" ref="C3:C31" si="0">A3+B3</f>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20">
         <v>2</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
-        <v>1</v>
-      </c>
-      <c r="B5" s="21">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>1</v>
+      </c>
+      <c r="B5" s="20">
         <v>3</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <v>1</v>
-      </c>
-      <c r="B6" s="21">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20">
         <v>4</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <v>1</v>
-      </c>
-      <c r="B7" s="19">
+    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18">
         <v>5</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
+    <row r="8" spans="1:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
         <v>2</v>
       </c>
-      <c r="B8" s="17">
-        <v>0</v>
-      </c>
-      <c r="C8" s="17">
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
         <v>2</v>
       </c>
-      <c r="B9" s="17">
-        <v>1</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="B9" s="16">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>2</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
         <v>2</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>3</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
         <v>2</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>4</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+    <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18">
         <v>2</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>5</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
+    <row r="14" spans="1:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
         <v>3</v>
       </c>
-      <c r="B14" s="17">
-        <v>0</v>
-      </c>
-      <c r="C14" s="17">
+      <c r="B14" s="16">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
         <v>3</v>
       </c>
-      <c r="B15" s="17">
-        <v>1</v>
-      </c>
-      <c r="C15" s="17">
+      <c r="B15" s="16">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
         <v>3</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>2</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
         <v>3</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>3</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
         <v>3</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>4</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="18">
         <v>3</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>5</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
+    <row r="20" spans="1:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
         <v>4</v>
       </c>
-      <c r="B20" s="17">
-        <v>0</v>
-      </c>
-      <c r="C20" s="17">
+      <c r="B20" s="16">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="17">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
         <v>4</v>
       </c>
-      <c r="B21" s="17">
-        <v>1</v>
-      </c>
-      <c r="C21" s="17">
+      <c r="B21" s="16">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="17">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
         <v>4</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="16">
         <v>2</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="17">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
         <v>4</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="16">
         <v>3</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="17">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
         <v>4</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>4</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+    <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="18">
         <v>4</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="18">
         <v>5</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17">
+    <row r="26" spans="1:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
         <v>5</v>
       </c>
-      <c r="B26" s="17">
-        <v>0</v>
-      </c>
-      <c r="C26" s="17">
+      <c r="B26" s="16">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="17">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
         <v>5</v>
       </c>
-      <c r="B27" s="17">
-        <v>1</v>
-      </c>
-      <c r="C27" s="17">
+      <c r="B27" s="16">
+        <v>1</v>
+      </c>
+      <c r="C27" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="17">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
         <v>5</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="16">
         <v>2</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="17">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
         <v>5</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="16">
         <v>3</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="17">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
         <v>5</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="16">
         <v>4</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
+    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="18">
         <v>5</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="18">
         <v>5</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cook-fuel-stove.xlsx
+++ b/cook-fuel-stove.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00-Bikash\01-cooking\01-analysis-files\TEA-cook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2E8D4C-D727-4FE8-AC3A-69AFA479D513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC71456B-871A-4FBC-9EFE-36E38B1A6ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7EBAAA4E-59CC-FC40-A9EE-7A0CED89A0F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7EBAAA4E-59CC-FC40-A9EE-7A0CED89A0F9}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,134 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Vasudha</author>
     <author>tc={D6D45B34-63C1-E643-A96F-1EA2F6555628}</author>
     <author>tc={4C8744A5-6485-F34B-B795-D5CA2CF2D9AE}</author>
     <author>tc={A8EC30E5-1FB3-9A45-ADA8-1D01A5459B0F}</author>
   </authors>
   <commentList>
-    <comment ref="V5" authorId="0" shapeId="0" xr:uid="{D6D45B34-63C1-E643-A96F-1EA2F6555628}">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{225CE637-B496-4FA5-8A37-4C950533F964}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- Journal of Exposure Science and Environmental Epidemiology, 2018.  the average PM2.5 concentration level near traditional cookstoves in rural India was found to be as high as 1,230 micrograms per cubic meter (µg/m³) during cooking hours.
+- World Health Organization (WHO) recommends a safe limit of 10 µg/m³ for PM2.5 concentration levels over a 24-hour period.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{B8BE05AD-AC5F-45BB-A165-2BEF7D7AB73C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+units in mg</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{CAA4970C-603B-482C-B511-C709F5B83A7E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0231757</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA3" authorId="0" shapeId="0" xr:uid="{4060FBA1-5224-45E8-851A-F242790E19F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ Environmental Science &amp; Technology in 2018, the average PM2.5 concentration levels near improved cookstoves in rural India ranged from 140 to 680 micrograms per cubic meter (µg/m³) during cooking hours</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA4" authorId="0" shapeId="0" xr:uid="{863E8605-9083-4F04-A73A-18758BA42E81}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+According to a study published in the Journal of Environmental Management in 2020, the average PM2.5 concentration level near improved cookstoves in rural India was found to be around 165 µg/m³ during cooking hours.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V5" authorId="1" shapeId="0" xr:uid="{D6D45B34-63C1-E643-A96F-1EA2F6555628}">
       <text>
         <r>
           <rPr>
@@ -51,7 +173,106 @@
         </r>
       </text>
     </comment>
-    <comment ref="V12" authorId="1" shapeId="0" xr:uid="{4C8744A5-6485-F34B-B795-D5CA2CF2D9AE}">
+    <comment ref="AA5" authorId="0" shapeId="0" xr:uid="{DFAF0260-9C85-4C4D-AC30-38A3FB142144}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+According to a study published in the Journal of Cleaner Production in 2019, the average PM2.5 concentration level near biogas stoves in rural India was found to be around 60 µg/m³ during cooking hours.
+- Biogas stoves use a renewable fuel source that is typically composed of a mixture of methane and carbon dioxide produced from the anaerobic digestion of organic matter such as animal manure, crop residues, and kitchen waste. However, the composition of biogas can vary depending on the feedstock used and the quality of the biogas production process.
+The combustion of biogas can produce pollutants such as carbon monoxide (CO), nitrogen oxides (NOx), and particulate matter (PM), including PM2.5. Biogas stoves may have lower combustion efficiency compared to LPG stoves, which can result in higher emissions of these pollutants.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA6" authorId="0" shapeId="0" xr:uid="{2B7908CB-21BA-4FB2-9796-78B107168662}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+According to a study published in the Journal of Health and Pollution in 2017, the average PM2.5 concentration level near LPG stoves in rural India was found to be around 17 µg/m³ 
+- It is worth noting that the PM2.5 concentration levels can vary depending on various factors such as the type of LPG stove used, the quality of the LPG fuel, the ventilation in the cooking area, and the cooking duration. The specific PM2.5 concentration level near an LPG stove can vary from one location to another and from one household to another.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA7" authorId="0" shapeId="0" xr:uid="{C2B8A243-DAEB-4F2E-9004-0E06F307BBC2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+According to a study published in the journal Atmospheric Pollution Research in 2018, the average PM2.5 concentration level near PNG stoves in urban households in India was found to be around 47 µg/m³ during cooking hours. This value is slightly higher than the average PM2.5 concentration level near LPG stoves in urban households in India, which was reported to be around 36 µg/m³ in a previous study from 2013. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA8" authorId="0" shapeId="0" xr:uid="{D882D192-3078-4525-BD63-C93C7F46EFFA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+According to a study published in the journal Environmental Science and Pollution Research in 2021, the average PM2.5 concentration level near LPG stoves in urban households in India was found to be around 64 µg/m³ during cooking hours. This value is higher than the previously mentioned study from 2013, which reported an average PM2.5 concentration level of around 36 µg/m³</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V12" authorId="2" shapeId="0" xr:uid="{4C8744A5-6485-F34B-B795-D5CA2CF2D9AE}">
       <text>
         <r>
           <rPr>
@@ -68,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V19" authorId="2" shapeId="0" xr:uid="{A8EC30E5-1FB3-9A45-ADA8-1D01A5459B0F}">
+    <comment ref="V19" authorId="3" shapeId="0" xr:uid="{A8EC30E5-1FB3-9A45-ADA8-1D01A5459B0F}">
       <text>
         <r>
           <rPr>
@@ -90,7 +311,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="55">
   <si>
     <t>Biogas</t>
   </si>
@@ -253,6 +474,9 @@
   <si>
     <t>annual saving</t>
   </si>
+  <si>
+    <t>Ophthalmic, respiratory, cardiovascular, dermatological symptoms /conditions and history of adverse obstetric outcomes.</t>
+  </si>
 </sst>
 </file>
 
@@ -263,7 +487,7 @@
     <numFmt numFmtId="165" formatCode="_(&quot;₹&quot;* #,##0_);_(&quot;₹&quot;* \(#,##0\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -315,6 +539,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1003,9 +1240,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA4CFB0-2DDE-054C-A475-43A61531E0CF}">
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1194,9 +1431,17 @@
       <c r="Y2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
+      <c r="AA2" s="5">
+        <f>1230</f>
+        <v>1230</v>
+      </c>
+      <c r="AB2" s="5">
+        <f>(AA2*330)/1000</f>
+        <v>405.9</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="AD2" s="5"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
@@ -1273,8 +1518,14 @@
       <c r="Y3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
+      <c r="AA3" s="5">
+        <f>410</f>
+        <v>410</v>
+      </c>
+      <c r="AB3" s="5">
+        <f t="shared" ref="AB3:AB22" si="6">(AA3*330)/1000</f>
+        <v>135.30000000000001</v>
+      </c>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
     </row>
@@ -1353,8 +1604,14 @@
         <v>39</v>
       </c>
       <c r="Z4" s="10"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
+      <c r="AA4" s="5">
+        <f>165</f>
+        <v>165</v>
+      </c>
+      <c r="AB4" s="5">
+        <f t="shared" si="6"/>
+        <v>54.45</v>
+      </c>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
     </row>
@@ -1433,8 +1690,13 @@
         <v>39</v>
       </c>
       <c r="Z5" s="10"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
+      <c r="AA5" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB5" s="5">
+        <f t="shared" si="6"/>
+        <v>19.8</v>
+      </c>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
     </row>
@@ -1513,8 +1775,13 @@
         <v>39</v>
       </c>
       <c r="Z6" s="10"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
+      <c r="AA6" s="5">
+        <v>17</v>
+      </c>
+      <c r="AB6" s="5">
+        <f t="shared" si="6"/>
+        <v>5.61</v>
+      </c>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
     </row>
@@ -1593,8 +1860,13 @@
         <v>39</v>
       </c>
       <c r="Z7" s="10"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
+      <c r="AA7" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB7" s="5">
+        <f t="shared" si="6"/>
+        <v>15.51</v>
+      </c>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
     </row>
@@ -1632,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="61">
-        <f t="shared" ref="L8" si="6">J8*K8</f>
+        <f t="shared" ref="L8" si="7">J8*K8</f>
         <v>2.7074999999999996</v>
       </c>
       <c r="M8" s="64">
@@ -1644,14 +1916,14 @@
         <v>5.26</v>
       </c>
       <c r="P8" s="41">
-        <f t="shared" ref="P8" si="7">O8*M8</f>
+        <f t="shared" ref="P8" si="8">O8*M8</f>
         <v>4699.6784999999991</v>
       </c>
       <c r="Q8" s="41">
         <v>1000</v>
       </c>
       <c r="R8" s="42">
-        <f t="shared" ref="R8" si="8">P8+Q8</f>
+        <f t="shared" ref="R8" si="9">P8+Q8</f>
         <v>5699.6784999999991</v>
       </c>
       <c r="S8" s="40"/>
@@ -1665,7 +1937,7 @@
         <v>0.23</v>
       </c>
       <c r="W8" s="43">
-        <f t="shared" ref="W8" si="9">(M8*V8)/(10^3)</f>
+        <f t="shared" ref="W8" si="10">(M8*V8)/(10^3)</f>
         <v>0.20549924999999999</v>
       </c>
       <c r="X8" s="41" t="s">
@@ -1674,8 +1946,13 @@
       <c r="Y8" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
+      <c r="AA8" s="5">
+        <v>64</v>
+      </c>
+      <c r="AB8" s="5">
+        <f t="shared" si="6"/>
+        <v>21.12</v>
+      </c>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
     </row>
@@ -1753,8 +2030,13 @@
       <c r="Y9" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
+      <c r="AA9" s="5">
+        <v>1230</v>
+      </c>
+      <c r="AB9" s="5">
+        <f t="shared" si="6"/>
+        <v>405.9</v>
+      </c>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
     </row>
@@ -1785,14 +2067,14 @@
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="62">
-        <f t="shared" ref="J10:J14" si="10">0.95*J17</f>
+        <f t="shared" ref="J10:J14" si="11">0.95*J17</f>
         <v>3.3249999999999997</v>
       </c>
       <c r="K10" s="24">
         <v>1</v>
       </c>
       <c r="L10" s="60">
-        <f t="shared" ref="L10:L15" si="11">J10*K10</f>
+        <f t="shared" ref="L10:L15" si="12">J10*K10</f>
         <v>3.3249999999999997</v>
       </c>
       <c r="M10" s="63">
@@ -1803,14 +2085,14 @@
         <v>1</v>
       </c>
       <c r="P10" s="21">
-        <f t="shared" ref="P10:P15" si="12">O10*M10</f>
+        <f t="shared" ref="P10:P15" si="13">O10*M10</f>
         <v>1097.25</v>
       </c>
       <c r="Q10" s="21">
         <v>1000</v>
       </c>
       <c r="R10" s="22">
-        <f t="shared" ref="R10:R15" si="13">P10+Q10</f>
+        <f t="shared" ref="R10:R15" si="14">P10+Q10</f>
         <v>2097.25</v>
       </c>
       <c r="T10" s="9">
@@ -1823,7 +2105,7 @@
         <v>0.4</v>
       </c>
       <c r="W10" s="24">
-        <f t="shared" ref="W10:W15" si="14">(M10*V10)/(10^3)</f>
+        <f t="shared" ref="W10:W15" si="15">(M10*V10)/(10^3)</f>
         <v>0.43890000000000001</v>
       </c>
       <c r="X10" s="21" t="s">
@@ -1832,8 +2114,13 @@
       <c r="Y10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
+      <c r="AA10" s="5">
+        <v>410</v>
+      </c>
+      <c r="AB10" s="5">
+        <f t="shared" si="6"/>
+        <v>135.30000000000001</v>
+      </c>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
     </row>
@@ -1864,14 +2151,14 @@
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.0874999999999999</v>
       </c>
       <c r="K11" s="24">
         <v>1</v>
       </c>
       <c r="L11" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.0874999999999999</v>
       </c>
       <c r="M11" s="63">
@@ -1882,14 +2169,14 @@
         <v>1</v>
       </c>
       <c r="P11" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1018.875</v>
       </c>
       <c r="Q11" s="21">
         <v>1250</v>
       </c>
       <c r="R11" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2268.875</v>
       </c>
       <c r="T11" s="9">
@@ -1902,7 +2189,7 @@
         <v>0.4</v>
       </c>
       <c r="W11" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.40755000000000002</v>
       </c>
       <c r="X11" s="21" t="s">
@@ -1911,8 +2198,13 @@
       <c r="Y11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
+      <c r="AA11" s="5">
+        <v>165</v>
+      </c>
+      <c r="AB11" s="5">
+        <f t="shared" si="6"/>
+        <v>54.45</v>
+      </c>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
     </row>
@@ -1943,14 +2235,14 @@
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.8499999999999996</v>
       </c>
       <c r="K12" s="24">
         <v>1</v>
       </c>
       <c r="L12" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.8499999999999996</v>
       </c>
       <c r="M12" s="63">
@@ -1961,14 +2253,14 @@
         <v>1.5</v>
       </c>
       <c r="P12" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1410.7499999999998</v>
       </c>
       <c r="Q12" s="21">
         <v>1250</v>
       </c>
       <c r="R12" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2660.75</v>
       </c>
       <c r="T12" s="9">
@@ -1981,7 +2273,7 @@
         <v>0.15</v>
       </c>
       <c r="W12" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.14107499999999998</v>
       </c>
       <c r="X12" s="21" t="s">
@@ -1990,8 +2282,13 @@
       <c r="Y12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
+      <c r="AA12" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB12" s="5">
+        <f t="shared" si="6"/>
+        <v>19.8</v>
+      </c>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
     </row>
@@ -2022,14 +2319,14 @@
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.8499999999999996</v>
       </c>
       <c r="K13" s="24">
         <v>1</v>
       </c>
       <c r="L13" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.8499999999999996</v>
       </c>
       <c r="M13" s="63">
@@ -2040,14 +2337,14 @@
         <v>5.26</v>
       </c>
       <c r="P13" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4947.0299999999988</v>
       </c>
       <c r="Q13" s="21">
         <v>1250</v>
       </c>
       <c r="R13" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6197.0299999999988</v>
       </c>
       <c r="T13" s="9">
@@ -2060,7 +2357,7 @@
         <v>0.23</v>
       </c>
       <c r="W13" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.21631499999999998</v>
       </c>
       <c r="X13" s="21" t="s">
@@ -2069,8 +2366,13 @@
       <c r="Y13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
+      <c r="AA13" s="5">
+        <v>17</v>
+      </c>
+      <c r="AB13" s="5">
+        <f t="shared" si="6"/>
+        <v>5.61</v>
+      </c>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
     </row>
@@ -2101,14 +2403,14 @@
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.8499999999999996</v>
       </c>
       <c r="K14" s="24">
         <v>1</v>
       </c>
       <c r="L14" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.8499999999999996</v>
       </c>
       <c r="M14" s="63">
@@ -2119,14 +2421,14 @@
         <v>5.86</v>
       </c>
       <c r="P14" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5511.33</v>
       </c>
       <c r="Q14" s="21">
         <v>1250</v>
       </c>
       <c r="R14" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6761.33</v>
       </c>
       <c r="T14" s="9">
@@ -2139,7 +2441,7 @@
         <v>0.2</v>
       </c>
       <c r="W14" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.18809999999999999</v>
       </c>
       <c r="X14" s="21" t="s">
@@ -2148,8 +2450,13 @@
       <c r="Y14" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
+      <c r="AA14" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB14" s="5">
+        <f t="shared" si="6"/>
+        <v>15.51</v>
+      </c>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
     </row>
@@ -2187,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.8499999999999996</v>
       </c>
       <c r="M15" s="64">
@@ -2199,14 +2506,14 @@
         <v>5.26</v>
       </c>
       <c r="P15" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4947.0299999999988</v>
       </c>
       <c r="Q15" s="41">
         <v>1250</v>
       </c>
       <c r="R15" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6197.0299999999988</v>
       </c>
       <c r="S15" s="40"/>
@@ -2218,7 +2525,7 @@
         <v>0.23</v>
       </c>
       <c r="W15" s="43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.21631499999999998</v>
       </c>
       <c r="X15" s="41" t="s">
@@ -2227,8 +2534,13 @@
       <c r="Y15" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
+      <c r="AA15" s="5">
+        <v>64</v>
+      </c>
+      <c r="AB15" s="5">
+        <f t="shared" si="6"/>
+        <v>21.12</v>
+      </c>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
     </row>
@@ -2305,8 +2617,13 @@
       <c r="Y16" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
+      <c r="AA16" s="5">
+        <v>1230</v>
+      </c>
+      <c r="AB16" s="5">
+        <f t="shared" si="6"/>
+        <v>405.9</v>
+      </c>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
     </row>
@@ -2343,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="60">
-        <f t="shared" ref="L17:L22" si="15">J17*K17</f>
+        <f t="shared" ref="L17:L22" si="16">J17*K17</f>
         <v>3.5</v>
       </c>
       <c r="M17" s="63">
@@ -2354,14 +2671,14 @@
         <v>1</v>
       </c>
       <c r="P17" s="21">
-        <f t="shared" ref="P17:P22" si="16">O17*M17</f>
+        <f t="shared" ref="P17:P22" si="17">O17*M17</f>
         <v>1155</v>
       </c>
       <c r="Q17" s="21">
         <v>1250</v>
       </c>
       <c r="R17" s="22">
-        <f t="shared" ref="R17:R22" si="17">P17+Q17</f>
+        <f t="shared" ref="R17:R22" si="18">P17+Q17</f>
         <v>2405</v>
       </c>
       <c r="T17" s="9">
@@ -2374,7 +2691,7 @@
         <v>0.4</v>
       </c>
       <c r="W17" s="24">
-        <f t="shared" ref="W17:W22" si="18">(M17*V17)/(10^3)</f>
+        <f t="shared" ref="W17:W22" si="19">(M17*V17)/(10^3)</f>
         <v>0.46200000000000002</v>
       </c>
       <c r="X17" s="21" t="s">
@@ -2383,8 +2700,13 @@
       <c r="Y17" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
+      <c r="AA17" s="5">
+        <v>410</v>
+      </c>
+      <c r="AB17" s="5">
+        <f t="shared" si="6"/>
+        <v>135.30000000000001</v>
+      </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
     </row>
@@ -2421,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.25</v>
       </c>
       <c r="M18" s="63">
@@ -2432,14 +2754,14 @@
         <v>1</v>
       </c>
       <c r="P18" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1072.5</v>
       </c>
       <c r="Q18" s="21">
         <v>1500</v>
       </c>
       <c r="R18" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2572.5</v>
       </c>
       <c r="T18" s="9">
@@ -2452,7 +2774,7 @@
         <v>0.4</v>
       </c>
       <c r="W18" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.42899999999999999</v>
       </c>
       <c r="X18" s="21" t="s">
@@ -2461,8 +2783,13 @@
       <c r="Y18" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
+      <c r="AA18" s="5">
+        <v>165</v>
+      </c>
+      <c r="AB18" s="5">
+        <f t="shared" si="6"/>
+        <v>54.45</v>
+      </c>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
     </row>
@@ -2499,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="M19" s="63">
@@ -2510,14 +2837,14 @@
         <v>1.5</v>
       </c>
       <c r="P19" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1485</v>
       </c>
       <c r="Q19" s="21">
         <v>1500</v>
       </c>
       <c r="R19" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2985</v>
       </c>
       <c r="T19" s="9">
@@ -2530,7 +2857,7 @@
         <v>0.15</v>
       </c>
       <c r="W19" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.14849999999999999</v>
       </c>
       <c r="X19" s="21" t="s">
@@ -2539,8 +2866,13 @@
       <c r="Y19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
+      <c r="AA19" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB19" s="5">
+        <f t="shared" si="6"/>
+        <v>19.8</v>
+      </c>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
     </row>
@@ -2577,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="M20" s="63">
@@ -2588,14 +2920,14 @@
         <v>5.26</v>
       </c>
       <c r="P20" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5207.3999999999996</v>
       </c>
       <c r="Q20" s="21">
         <v>1500</v>
       </c>
       <c r="R20" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6707.4</v>
       </c>
       <c r="T20" s="9">
@@ -2608,7 +2940,7 @@
         <v>0.23</v>
       </c>
       <c r="W20" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.22770000000000001</v>
       </c>
       <c r="X20" s="21" t="s">
@@ -2617,8 +2949,13 @@
       <c r="Y20" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
+      <c r="AA20" s="5">
+        <v>17</v>
+      </c>
+      <c r="AB20" s="5">
+        <f t="shared" si="6"/>
+        <v>5.61</v>
+      </c>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
     </row>
@@ -2655,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="M21" s="63">
@@ -2666,14 +3003,14 @@
         <v>5.86</v>
       </c>
       <c r="P21" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5801.4000000000005</v>
       </c>
       <c r="Q21" s="21">
         <v>1500</v>
       </c>
       <c r="R21" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7301.4000000000005</v>
       </c>
       <c r="T21" s="9">
@@ -2686,7 +3023,7 @@
         <v>0.2</v>
       </c>
       <c r="W21" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.19800000000000001</v>
       </c>
       <c r="X21" s="21" t="s">
@@ -2695,8 +3032,13 @@
       <c r="Y21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
+      <c r="AA21" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB21" s="5">
+        <f t="shared" si="6"/>
+        <v>15.51</v>
+      </c>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
     </row>
@@ -2733,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="M22" s="64">
@@ -2745,14 +3087,14 @@
         <v>5.26</v>
       </c>
       <c r="P22" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5207.3999999999996</v>
       </c>
       <c r="Q22" s="41">
         <v>1500</v>
       </c>
       <c r="R22" s="42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6707.4</v>
       </c>
       <c r="S22" s="40"/>
@@ -2766,7 +3108,7 @@
         <v>0.23</v>
       </c>
       <c r="W22" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.22770000000000001</v>
       </c>
       <c r="X22" s="41" t="s">
@@ -2775,8 +3117,13 @@
       <c r="Y22" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
+      <c r="AA22" s="5">
+        <v>64</v>
+      </c>
+      <c r="AB22" s="5">
+        <f t="shared" si="6"/>
+        <v>21.12</v>
+      </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
     </row>
@@ -2792,9 +3139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79E494E-2633-3B47-AC49-AD95AC048CCB}">
   <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H48" sqref="H48"/>
+      <selection pane="topRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="1" x14ac:dyDescent="0.3"/>

--- a/cook-fuel-stove.xlsx
+++ b/cook-fuel-stove.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00-Bikash\01-cooking\01-analysis-files\TEA-cook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC71456B-871A-4FBC-9EFE-36E38B1A6ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA8E30D-D26E-4B07-9ED4-A79C6FC91977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7EBAAA4E-59CC-FC40-A9EE-7A0CED89A0F9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
     <author>tc={A8EC30E5-1FB3-9A45-ADA8-1D01A5459B0F}</author>
   </authors>
   <commentList>
-    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{225CE637-B496-4FA5-8A37-4C950533F964}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{0B314E21-8617-4735-ABA5-C7A4AB30D29E}">
       <text>
         <r>
           <rPr>
@@ -55,12 +55,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-- Journal of Exposure Science and Environmental Epidemiology, 2018.  the average PM2.5 concentration level near traditional cookstoves in rural India was found to be as high as 1,230 micrograms per cubic meter (µg/m³) during cooking hours.
-- World Health Organization (WHO) recommends a safe limit of 10 µg/m³ for PM2.5 concentration levels over a 24-hour period.</t>
+10% of capex</t>
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{B8BE05AD-AC5F-45BB-A165-2BEF7D7AB73C}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{B58EFF75-9DF7-49BB-933B-1FD5D00B489D}">
       <text>
         <r>
           <rPr>
@@ -80,7 +79,87 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-units in mg</t>
+The thermal efficiency of traditional, natural draft and FD cookstoves
+were in the range of 15-17%, 16-27% and 30-35% respectively for different types of solid biomass fuels.
+Evaluation of the performance of improved biomass cooking stoves
+with different solid biomass fuel types
+R. Suresh a, V.K. Singh b, J.K. Malik a, A. Datta a, *, R.C. Pal c</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{225CE637-B496-4FA5-8A37-4C950533F964}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Journal of Exposure Science and Environmental Epidemiology, 2018.  the average PM2.5 concentration level near traditional cookstoves in rural India was found to be as high as 1,230 micrograms per cubic meter (µg/m³) during cooking hours.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>- World Health Organization (WHO) recommends a safe limit of 10 µg/m³ for PM2.5 concentration levels over a 24-hour period.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{B8BE05AD-AC5F-45BB-A165-2BEF7D7AB73C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>units in mg</t>
         </r>
       </text>
     </comment>
@@ -90,21 +169,30 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Vasudha:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0231757</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0231757</t>
         </r>
       </text>
     </comment>
@@ -114,21 +202,30 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Vasudha:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
- Environmental Science &amp; Technology in 2018, the average PM2.5 concentration levels near improved cookstoves in rural India ranged from 140 to 680 micrograms per cubic meter (µg/m³) during cooking hours</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Environmental Science &amp; Technology in 2018, the average PM2.5 concentration levels near improved cookstoves in rural India ranged from 140 to 680 micrograms per cubic meter (µg/m³) during cooking hours</t>
         </r>
       </text>
     </comment>
@@ -138,25 +235,34 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Vasudha:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-According to a study published in the Journal of Environmental Management in 2020, the average PM2.5 concentration level near improved cookstoves in rural India was found to be around 165 µg/m³ during cooking hours.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>According to a study published in the Journal of Environmental Management in 2020, the average PM2.5 concentration level near improved cookstoves in rural India was found to be around 165 µg/m³ during cooking hours.</t>
         </r>
       </text>
     </comment>
-    <comment ref="V5" authorId="1" shapeId="0" xr:uid="{D6D45B34-63C1-E643-A96F-1EA2F6555628}">
+    <comment ref="V8" authorId="1" shapeId="0" xr:uid="{D6D45B34-63C1-E643-A96F-1EA2F6555628}">
       <text>
         <r>
           <rPr>
@@ -173,106 +279,179 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA5" authorId="0" shapeId="0" xr:uid="{DFAF0260-9C85-4C4D-AC30-38A3FB142144}">
+    <comment ref="AA8" authorId="0" shapeId="0" xr:uid="{DFAF0260-9C85-4C4D-AC30-38A3FB142144}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Vasudha:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-According to a study published in the Journal of Cleaner Production in 2019, the average PM2.5 concentration level near biogas stoves in rural India was found to be around 60 µg/m³ during cooking hours.
-- Biogas stoves use a renewable fuel source that is typically composed of a mixture of methane and carbon dioxide produced from the anaerobic digestion of organic matter such as animal manure, crop residues, and kitchen waste. However, the composition of biogas can vary depending on the feedstock used and the quality of the biogas production process.
-The combustion of biogas can produce pollutants such as carbon monoxide (CO), nitrogen oxides (NOx), and particulate matter (PM), including PM2.5. Biogas stoves may have lower combustion efficiency compared to LPG stoves, which can result in higher emissions of these pollutants.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">According to a study published in the Journal of Cleaner Production in 2019, the average PM2.5 concentration level near biogas stoves in rural India was found to be around 60 µg/m³ during cooking hours.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Biogas stoves use a renewable fuel source that is typically composed of a mixture of methane and carbon dioxide produced from the anaerobic digestion of organic matter such as animal manure, crop residues, and kitchen waste. However, the composition of biogas can vary depending on the feedstock used and the quality of the biogas production process.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The combustion of biogas can produce pollutants such as carbon monoxide (CO), nitrogen oxides (NOx), and particulate matter (PM), including PM2.5. Biogas stoves may have lower combustion efficiency compared to LPG stoves, which can result in higher emissions of these pollutants.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AA6" authorId="0" shapeId="0" xr:uid="{2B7908CB-21BA-4FB2-9796-78B107168662}">
+    <comment ref="AA9" authorId="0" shapeId="0" xr:uid="{2B7908CB-21BA-4FB2-9796-78B107168662}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Vasudha:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-According to a study published in the Journal of Health and Pollution in 2017, the average PM2.5 concentration level near LPG stoves in rural India was found to be around 17 µg/m³ 
-- It is worth noting that the PM2.5 concentration levels can vary depending on various factors such as the type of LPG stove used, the quality of the LPG fuel, the ventilation in the cooking area, and the cooking duration. The specific PM2.5 concentration level near an LPG stove can vary from one location to another and from one household to another.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">According to a study published in the Journal of Health and Pollution in 2017, the average PM2.5 concentration level near LPG stoves in rural India was found to be around 17 µg/m³ 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>- It is worth noting that the PM2.5 concentration levels can vary depending on various factors such as the type of LPG stove used, the quality of the LPG fuel, the ventilation in the cooking area, and the cooking duration. The specific PM2.5 concentration level near an LPG stove can vary from one location to another and from one household to another.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AA7" authorId="0" shapeId="0" xr:uid="{C2B8A243-DAEB-4F2E-9004-0E06F307BBC2}">
+    <comment ref="AA10" authorId="0" shapeId="0" xr:uid="{C2B8A243-DAEB-4F2E-9004-0E06F307BBC2}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Vasudha:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-According to a study published in the journal Atmospheric Pollution Research in 2018, the average PM2.5 concentration level near PNG stoves in urban households in India was found to be around 47 µg/m³ during cooking hours. This value is slightly higher than the average PM2.5 concentration level near LPG stoves in urban households in India, which was reported to be around 36 µg/m³ in a previous study from 2013. </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">According to a study published in the journal Atmospheric Pollution Research in 2018, the average PM2.5 concentration level near PNG stoves in urban households in India was found to be around 47 µg/m³ during cooking hours. This value is slightly higher than the average PM2.5 concentration level near LPG stoves in urban households in India, which was reported to be around 36 µg/m³ in a previous study from 2013. </t>
         </r>
       </text>
     </comment>
-    <comment ref="AA8" authorId="0" shapeId="0" xr:uid="{D882D192-3078-4525-BD63-C93C7F46EFFA}">
+    <comment ref="AA11" authorId="0" shapeId="0" xr:uid="{D882D192-3078-4525-BD63-C93C7F46EFFA}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Vasudha:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-According to a study published in the journal Environmental Science and Pollution Research in 2021, the average PM2.5 concentration level near LPG stoves in urban households in India was found to be around 64 µg/m³ during cooking hours. This value is higher than the previously mentioned study from 2013, which reported an average PM2.5 concentration level of around 36 µg/m³</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>According to a study published in the journal Environmental Science and Pollution Research in 2021, the average PM2.5 concentration level near LPG stoves in urban households in India was found to be around 64 µg/m³ during cooking hours. This value is higher than the previously mentioned study from 2013, which reported an average PM2.5 concentration level of around 36 µg/m³</t>
         </r>
       </text>
     </comment>
-    <comment ref="V12" authorId="2" shapeId="0" xr:uid="{4C8744A5-6485-F34B-B795-D5CA2CF2D9AE}">
+    <comment ref="V18" authorId="2" shapeId="0" xr:uid="{4C8744A5-6485-F34B-B795-D5CA2CF2D9AE}">
       <text>
         <r>
           <rPr>
@@ -289,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V19" authorId="3" shapeId="0" xr:uid="{A8EC30E5-1FB3-9A45-ADA8-1D01A5459B0F}">
+    <comment ref="V28" authorId="3" shapeId="0" xr:uid="{A8EC30E5-1FB3-9A45-ADA8-1D01A5459B0F}">
       <text>
         <r>
           <rPr>
@@ -310,8 +489,601 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Vasudha</author>
+    <author>tc={9E4260F5-A750-E741-BE5E-4E0F804BE29B}</author>
+    <author>tc={B7238FCF-9CCD-FE41-B170-D3AC62818411}</author>
+    <author>tc={F76DD1FA-9EDF-894E-9682-549D84E698C4}</author>
+    <author>tc={025273C9-BFAC-204E-9DF7-C9AE208314AA}</author>
+    <author>tc={8A59512A-E800-F541-B85D-2DB0CC29209A}</author>
+    <author>tc={926A7ED9-B53B-3048-847A-760864FA7126}</author>
+    <author>tc={4A415844-F674-114D-9357-F81950513821}</author>
+  </authors>
+  <commentList>
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{CD450EEC-8514-4086-8328-CD02F5AD7F9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://www.isid.ac.in/~epu/dispapers/dp22_04.pdf
+As per this LPG / induction HHs have almost similar IHAP values. Improvement in IHAP is mainly dependent on exhaust, ventilation and room size of the HH.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA3" authorId="0" shapeId="0" xr:uid="{40759763-0931-4C7D-8E62-241D42790A2B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+assuming IHAP for electric pressure cookers are 25% less compared to induction cooking as cooking is mostly enclosed within the pressure cooker.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA5" authorId="0" shapeId="0" xr:uid="{233462BB-B9A9-4199-ADE4-B80ED2867E9D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+assuming IHAP for electric pressure cookers are 25% less compared to induction cooking as cooking is mostly enclosed within the pressure cooker.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="1" shapeId="0" xr:uid="{9E4260F5-A750-E741-BE5E-4E0F804BE29B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Solar rooftop (capex)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA7" authorId="0" shapeId="0" xr:uid="{970178B8-E3FB-40C5-89AB-396867A567DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+assuming IHAP for electric pressure cookers are 25% less compared to induction cooking as cooking is mostly enclosed within the pressure cooker.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="2" shapeId="0" xr:uid="{B7238FCF-9CCD-FE41-B170-D3AC62818411}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Rural</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA11" authorId="0" shapeId="0" xr:uid="{BE640D62-A8AE-4CC2-A71D-718CFB56A451}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+assuming IHAP for electric pressure cookers are 25% less compared to induction cooking as cooking is mostly enclosed within the pressure cooker.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA13" authorId="0" shapeId="0" xr:uid="{2403A441-D16A-4EFA-BF63-65D170C3EEEB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+assuming IHAP for electric pressure cookers are 25% less compared to induction cooking as cooking is mostly enclosed within the pressure cooker.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="3" shapeId="0" xr:uid="{F76DD1FA-9EDF-894E-9682-549D84E698C4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Solar rooftop (capex)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA15" authorId="0" shapeId="0" xr:uid="{711140D8-E134-47AF-94D3-5B59ABECB7CD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+assuming IHAP for electric pressure cookers are 25% less compared to induction cooking as cooking is mostly enclosed within the pressure cooker.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA19" authorId="0" shapeId="0" xr:uid="{A6196960-083B-436C-835E-B7DF86F2173F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+assuming IHAP for electric pressure cookers are 25% less compared to induction cooking as cooking is mostly enclosed within the pressure cooker.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA21" authorId="0" shapeId="0" xr:uid="{7DA9D3E5-E21A-457C-A396-2F6509B63039}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+assuming IHAP for electric pressure cookers are 25% less compared to induction cooking as cooking is mostly enclosed within the pressure cooker.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="4" shapeId="0" xr:uid="{025273C9-BFAC-204E-9DF7-C9AE208314AA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Solar rooftop (capex)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA23" authorId="0" shapeId="0" xr:uid="{A36B4087-C826-44E9-B903-0FA1F87C544F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+assuming IHAP for electric pressure cookers are 25% less compared to induction cooking as cooking is mostly enclosed within the pressure cooker.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA27" authorId="0" shapeId="0" xr:uid="{F4E058BD-F683-4445-A5CF-D831D70E58CD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+assuming IHAP for electric pressure cookers are 25% less compared to induction cooking as cooking is mostly enclosed within the pressure cooker.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA29" authorId="0" shapeId="0" xr:uid="{7245C851-A1A1-4D66-BAB4-7D3EA7802CEE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+assuming IHAP for electric pressure cookers are 25% less compared to induction cooking as cooking is mostly enclosed within the pressure cooker.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="5" shapeId="0" xr:uid="{8A59512A-E800-F541-B85D-2DB0CC29209A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Solar rooftop (capex)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA31" authorId="0" shapeId="0" xr:uid="{434F9074-2D9A-4499-B8FF-84B37681F9A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+assuming IHAP for electric pressure cookers are 25% less compared to induction cooking as cooking is mostly enclosed within the pressure cooker.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA35" authorId="0" shapeId="0" xr:uid="{2C70E28F-2C3A-4145-8326-E771F4F26C9D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+assuming IHAP for electric pressure cookers are 25% less compared to induction cooking as cooking is mostly enclosed within the pressure cooker.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA37" authorId="0" shapeId="0" xr:uid="{931767FB-F481-43E9-A980-0AA1F3FBE4F7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+assuming IHAP for electric pressure cookers are 25% less compared to induction cooking as cooking is mostly enclosed within the pressure cooker.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="6" shapeId="0" xr:uid="{926A7ED9-B53B-3048-847A-760864FA7126}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Solar rooftop (capex)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA39" authorId="0" shapeId="0" xr:uid="{6BBBADC2-93CA-476C-B608-6FA3A6E25388}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+assuming IHAP for electric pressure cookers are 25% less compared to induction cooking as cooking is mostly enclosed within the pressure cooker.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA43" authorId="0" shapeId="0" xr:uid="{14E0F0E5-194D-4705-8B63-0CAB5E70FEA7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+assuming IHAP for electric pressure cookers are 25% less compared to induction cooking as cooking is mostly enclosed within the pressure cooker.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA45" authorId="0" shapeId="0" xr:uid="{697554CE-031A-4556-B654-4B3DC17F1A8B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+assuming IHAP for electric pressure cookers are 25% less compared to induction cooking as cooking is mostly enclosed within the pressure cooker.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B46" authorId="7" shapeId="0" xr:uid="{4A415844-F674-114D-9357-F81950513821}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Solar rooftop (capex)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA47" authorId="0" shapeId="0" xr:uid="{EADC0662-88D1-47A8-9B0E-9AE85867D11C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+assuming IHAP for electric pressure cookers are 25% less compared to induction cooking as cooking is mostly enclosed within the pressure cooker.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="56">
   <si>
     <t>Biogas</t>
   </si>
@@ -326,9 +1098,6 @@
   </si>
   <si>
     <t>PNG</t>
-  </si>
-  <si>
-    <t>Solar rooftop (capex)</t>
   </si>
   <si>
     <t>LPG (2 burner)</t>
@@ -477,6 +1246,12 @@
   <si>
     <t>Ophthalmic, respiratory, cardiovascular, dermatological symptoms /conditions and history of adverse obstetric outcomes.</t>
   </si>
+  <si>
+    <t>Livestock Waste</t>
+  </si>
+  <si>
+    <t>Solar rooftop</t>
+  </si>
 </sst>
 </file>
 
@@ -487,7 +1262,7 @@
     <numFmt numFmtId="165" formatCode="_(&quot;₹&quot;* #,##0_);_(&quot;₹&quot;* \(#,##0\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -539,6 +1314,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1224,25 +2012,51 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="V5" dT="2023-01-01T12:10:18.29" personId="{45F6BE05-09F7-D041-8E94-19D75841EDA4}" id="{D6D45B34-63C1-E643-A96F-1EA2F6555628}">
+  <threadedComment ref="V8" dT="2023-01-01T12:10:18.29" personId="{45F6BE05-09F7-D041-8E94-19D75841EDA4}" id="{D6D45B34-63C1-E643-A96F-1EA2F6555628}">
     <text>Check the emission factor</text>
   </threadedComment>
-  <threadedComment ref="V12" dT="2023-01-01T12:10:18.29" personId="{45F6BE05-09F7-D041-8E94-19D75841EDA4}" id="{4C8744A5-6485-F34B-B795-D5CA2CF2D9AE}">
+  <threadedComment ref="V18" dT="2023-01-01T12:10:18.29" personId="{45F6BE05-09F7-D041-8E94-19D75841EDA4}" id="{4C8744A5-6485-F34B-B795-D5CA2CF2D9AE}">
     <text>Check the emission factor</text>
   </threadedComment>
-  <threadedComment ref="V19" dT="2023-01-01T12:10:18.29" personId="{45F6BE05-09F7-D041-8E94-19D75841EDA4}" id="{A8EC30E5-1FB3-9A45-ADA8-1D01A5459B0F}">
+  <threadedComment ref="V28" dT="2023-01-01T12:10:18.29" personId="{45F6BE05-09F7-D041-8E94-19D75841EDA4}" id="{A8EC30E5-1FB3-9A45-ADA8-1D01A5459B0F}">
     <text>Check the emission factor</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B6" dT="2023-03-28T02:28:30.36" personId="{45F6BE05-09F7-D041-8E94-19D75841EDA4}" id="{9E4260F5-A750-E741-BE5E-4E0F804BE29B}">
+    <text>Solar rooftop (capex)</text>
+  </threadedComment>
+  <threadedComment ref="A8" dT="2023-03-28T02:28:08.69" personId="{45F6BE05-09F7-D041-8E94-19D75841EDA4}" id="{B7238FCF-9CCD-FE41-B170-D3AC62818411}">
+    <text>Rural</text>
+  </threadedComment>
+  <threadedComment ref="B14" dT="2023-03-28T02:28:30.36" personId="{45F6BE05-09F7-D041-8E94-19D75841EDA4}" id="{F76DD1FA-9EDF-894E-9682-549D84E698C4}">
+    <text>Solar rooftop (capex)</text>
+  </threadedComment>
+  <threadedComment ref="B22" dT="2023-03-28T02:28:30.36" personId="{45F6BE05-09F7-D041-8E94-19D75841EDA4}" id="{025273C9-BFAC-204E-9DF7-C9AE208314AA}">
+    <text>Solar rooftop (capex)</text>
+  </threadedComment>
+  <threadedComment ref="B30" dT="2023-03-28T02:28:30.36" personId="{45F6BE05-09F7-D041-8E94-19D75841EDA4}" id="{8A59512A-E800-F541-B85D-2DB0CC29209A}">
+    <text>Solar rooftop (capex)</text>
+  </threadedComment>
+  <threadedComment ref="B38" dT="2023-03-28T02:28:30.36" personId="{45F6BE05-09F7-D041-8E94-19D75841EDA4}" id="{926A7ED9-B53B-3048-847A-760864FA7126}">
+    <text>Solar rooftop (capex)</text>
+  </threadedComment>
+  <threadedComment ref="B46" dT="2023-03-28T02:28:30.36" personId="{45F6BE05-09F7-D041-8E94-19D75841EDA4}" id="{4A415844-F674-114D-9357-F81950513821}">
+    <text>Solar rooftop (capex)</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA4CFB0-2DDE-054C-A475-43A61531E0CF}">
-  <dimension ref="A1:AD23"/>
+  <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC6" sqref="AC6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1253,7 +2067,7 @@
     <col min="5" max="5" width="10.796875" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="15.69921875" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="11.5" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.8984375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.796875" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="2.69921875" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="17" customWidth="1" outlineLevel="1"/>
@@ -1276,115 +2090,116 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="Q1" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S1" s="10"/>
       <c r="T1" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="13" t="s">
-        <v>31</v>
-      </c>
       <c r="AA1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="AD1" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
       </c>
       <c r="F2" s="8">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G2" s="9">
         <v>500</v>
       </c>
       <c r="H2" s="9">
+        <f>G2*0.1</f>
         <v>50</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="59">
-        <f>J9*0.95</f>
+        <f>J12*0.95</f>
         <v>3.61</v>
       </c>
       <c r="K2" s="24">
@@ -1416,7 +2231,7 @@
         <v>200000</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V2" s="5">
         <v>0.4</v>
@@ -1426,10 +2241,10 @@
         <v>0.47652</v>
       </c>
       <c r="X2" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y2" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA2" s="5">
         <f>1230</f>
@@ -1440,90 +2255,91 @@
         <v>405.9</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD2" s="5"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="6">
         <v>3</v>
       </c>
       <c r="F3" s="8">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="G3" s="9">
         <v>750</v>
       </c>
       <c r="H3" s="9">
-        <v>100</v>
+        <f t="shared" ref="H3:H10" si="0">G3*0.1</f>
+        <v>75</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="59">
-        <f t="shared" ref="J3:J7" si="0">J10*0.95</f>
+        <f>J13*0.95</f>
         <v>3.1587499999999995</v>
       </c>
       <c r="K3" s="24">
         <v>1</v>
       </c>
       <c r="L3" s="60">
-        <f t="shared" ref="L3:L7" si="1">J3*K3</f>
+        <f t="shared" ref="L3:L10" si="1">J3*K3</f>
         <v>3.1587499999999995</v>
       </c>
       <c r="M3" s="63">
-        <f t="shared" ref="M3:M22" si="2">L3*330</f>
+        <f t="shared" ref="M3:M31" si="2">L3*330</f>
         <v>1042.3874999999998</v>
       </c>
       <c r="O3" s="5">
         <v>1</v>
       </c>
       <c r="P3" s="21">
-        <f t="shared" ref="P3:P7" si="3">O3*M3</f>
+        <f t="shared" ref="P3:P10" si="3">O3*M3</f>
         <v>1042.3874999999998</v>
       </c>
       <c r="Q3" s="21">
         <v>750</v>
       </c>
       <c r="R3" s="22">
-        <f t="shared" ref="R3:R7" si="4">P3+Q3</f>
+        <f t="shared" ref="R3:R10" si="4">P3+Q3</f>
         <v>1792.3874999999998</v>
       </c>
       <c r="T3" s="9">
         <v>200000</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V3" s="5">
         <v>0.4</v>
       </c>
       <c r="W3" s="24">
-        <f t="shared" ref="W3:W7" si="5">(M3*V3)/(10^3)</f>
+        <f t="shared" ref="W3:W10" si="5">(M3*V3)/(10^3)</f>
         <v>0.41695499999999991</v>
       </c>
       <c r="X3" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y3" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA3" s="5">
         <f>410</f>
         <v>410</v>
       </c>
       <c r="AB3" s="5">
-        <f t="shared" ref="AB3:AB22" si="6">(AA3*330)/1000</f>
+        <f t="shared" ref="AB3:AB31" si="6">(AA3*330)/1000</f>
         <v>135.30000000000001</v>
       </c>
       <c r="AC3" s="5"/>
@@ -1531,32 +2347,33 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
       </c>
       <c r="F4" s="8">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
       <c r="G4" s="9">
         <v>1000</v>
       </c>
       <c r="H4" s="9">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="59">
-        <f t="shared" si="0"/>
+        <f>J14*0.95</f>
         <v>2.933125</v>
       </c>
       <c r="K4" s="24">
@@ -1588,7 +2405,7 @@
         <v>200000</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V4" s="5">
         <v>0.4</v>
@@ -1598,10 +2415,10 @@
         <v>0.38717250000000003</v>
       </c>
       <c r="X4" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y4" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z4" s="10"/>
       <c r="AA4" s="5">
@@ -1617,425 +2434,373 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="7">
-        <v>10</v>
+        <v>43</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
       </c>
       <c r="F5" s="8">
-        <v>0.7</v>
+        <v>0.15</v>
       </c>
       <c r="G5" s="9">
-        <v>40000</v>
+        <v>500</v>
       </c>
       <c r="H5" s="9">
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="59">
+        <v>3.61</v>
+      </c>
+      <c r="K5" s="24">
+        <v>1</v>
+      </c>
+      <c r="L5" s="60">
+        <v>3.61</v>
+      </c>
+      <c r="M5" s="63">
+        <v>1191.3</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="22"/>
+      <c r="T5" s="9">
+        <v>200000</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="W5" s="24">
+        <v>0.47652</v>
+      </c>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="5">
+        <v>1230</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>405.9</v>
+      </c>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="G6" s="9">
+        <v>750</v>
+      </c>
+      <c r="H6" s="9">
         <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="59">
+        <v>3.1587499999999995</v>
+      </c>
+      <c r="K6" s="24">
+        <v>1</v>
+      </c>
+      <c r="L6" s="60">
+        <v>3.1587499999999995</v>
+      </c>
+      <c r="M6" s="63">
+        <v>1042.3874999999998</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="22"/>
+      <c r="T6" s="9">
+        <v>200000</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="W6" s="24">
+        <v>0.41695499999999991</v>
+      </c>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="5">
+        <v>410</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="59">
+        <v>2.933125</v>
+      </c>
+      <c r="K7" s="24">
+        <v>1</v>
+      </c>
+      <c r="L7" s="60">
+        <v>2.933125</v>
+      </c>
+      <c r="M7" s="63">
+        <v>967.93124999999998</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="22"/>
+      <c r="T7" s="9">
+        <v>200000</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="W7" s="24">
+        <v>0.38717250000000003</v>
+      </c>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="5">
+        <v>165</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>54.45</v>
+      </c>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="7">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G8" s="9">
+        <v>40000</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="59">
+        <f t="shared" ref="J8:J10" si="7">J18*0.95</f>
         <v>2.7074999999999996</v>
       </c>
-      <c r="K5" s="24">
-        <v>1</v>
-      </c>
-      <c r="L5" s="60">
+      <c r="K8" s="24">
+        <v>1</v>
+      </c>
+      <c r="L8" s="60">
         <f t="shared" si="1"/>
         <v>2.7074999999999996</v>
       </c>
-      <c r="M5" s="63">
+      <c r="M8" s="63">
         <f t="shared" si="2"/>
         <v>893.47499999999991</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O8" s="5">
         <v>1.5</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P8" s="21">
         <f t="shared" si="3"/>
         <v>1340.2124999999999</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q8" s="21">
         <v>1000</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R8" s="22">
         <f t="shared" si="4"/>
         <v>2340.2124999999996</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T8" s="9">
         <v>200000</v>
       </c>
-      <c r="U5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V5" s="23">
+      <c r="U8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V8" s="23">
         <v>0.15</v>
       </c>
-      <c r="W5" s="24">
+      <c r="W8" s="24">
         <f t="shared" si="5"/>
         <v>0.13402124999999998</v>
       </c>
-      <c r="X5" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y5" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="5">
+      <c r="X8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="5">
         <v>60</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB8" s="5">
         <f t="shared" si="6"/>
         <v>19.8</v>
       </c>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="7">
         <v>10</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F9" s="8">
         <v>0.7</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G9" s="9">
         <v>1000</v>
       </c>
-      <c r="H6" s="9">
-        <v>250</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="59">
+      <c r="H9" s="9">
         <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="59">
+        <f t="shared" si="7"/>
         <v>2.7074999999999996</v>
       </c>
-      <c r="K6" s="24">
-        <v>1</v>
-      </c>
-      <c r="L6" s="60">
+      <c r="K9" s="24">
+        <v>1</v>
+      </c>
+      <c r="L9" s="60">
         <f t="shared" si="1"/>
         <v>2.7074999999999996</v>
       </c>
-      <c r="M6" s="63">
+      <c r="M9" s="63">
         <f t="shared" si="2"/>
         <v>893.47499999999991</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O9" s="5">
         <v>5.26</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P9" s="21">
         <f t="shared" si="3"/>
         <v>4699.6784999999991</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q9" s="21">
         <v>1000</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R9" s="22">
         <f t="shared" si="4"/>
         <v>5699.6784999999991</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T9" s="9">
         <v>200000</v>
       </c>
-      <c r="U6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V6" s="5">
+      <c r="U9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" s="5">
         <v>0.23</v>
       </c>
-      <c r="W6" s="24">
+      <c r="W9" s="24">
         <f t="shared" si="5"/>
         <v>0.20549924999999999</v>
       </c>
-      <c r="X6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="5">
-        <v>17</v>
-      </c>
-      <c r="AB6" s="5">
-        <f t="shared" si="6"/>
-        <v>5.61</v>
-      </c>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="7">
-        <v>10</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1100</v>
-      </c>
-      <c r="H7" s="9">
-        <v>250</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="59">
-        <f t="shared" si="0"/>
-        <v>2.7074999999999996</v>
-      </c>
-      <c r="K7" s="24">
-        <v>1</v>
-      </c>
-      <c r="L7" s="60">
-        <f t="shared" si="1"/>
-        <v>2.7074999999999996</v>
-      </c>
-      <c r="M7" s="63">
-        <f t="shared" si="2"/>
-        <v>893.47499999999991</v>
-      </c>
-      <c r="O7" s="5">
-        <v>5.86</v>
-      </c>
-      <c r="P7" s="21">
-        <f t="shared" si="3"/>
-        <v>5235.7635</v>
-      </c>
-      <c r="Q7" s="21">
-        <v>1000</v>
-      </c>
-      <c r="R7" s="22">
-        <f t="shared" si="4"/>
-        <v>6235.7635</v>
-      </c>
-      <c r="T7" s="9">
-        <v>250000</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V7" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="W7" s="24">
-        <f t="shared" si="5"/>
-        <v>0.17869499999999999</v>
-      </c>
-      <c r="X7" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y7" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="5">
-        <v>47</v>
-      </c>
-      <c r="AB7" s="5">
-        <f t="shared" si="6"/>
-        <v>15.51</v>
-      </c>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-    </row>
-    <row r="8" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="36">
-        <v>10</v>
-      </c>
-      <c r="F8" s="37">
-        <v>0.7</v>
-      </c>
-      <c r="G8" s="38">
-        <v>1000</v>
-      </c>
-      <c r="H8" s="38">
-        <v>250</v>
-      </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="61">
-        <f>0.95*J15</f>
-        <v>2.7074999999999996</v>
-      </c>
-      <c r="K8" s="43">
-        <v>1</v>
-      </c>
-      <c r="L8" s="61">
-        <f t="shared" ref="L8" si="7">J8*K8</f>
-        <v>2.7074999999999996</v>
-      </c>
-      <c r="M8" s="64">
-        <f t="shared" si="2"/>
-        <v>893.47499999999991</v>
-      </c>
-      <c r="N8" s="40"/>
-      <c r="O8" s="33">
-        <v>5.26</v>
-      </c>
-      <c r="P8" s="41">
-        <f t="shared" ref="P8" si="8">O8*M8</f>
-        <v>4699.6784999999991</v>
-      </c>
-      <c r="Q8" s="41">
-        <v>1000</v>
-      </c>
-      <c r="R8" s="42">
-        <f t="shared" ref="R8" si="9">P8+Q8</f>
-        <v>5699.6784999999991</v>
-      </c>
-      <c r="S8" s="40"/>
-      <c r="T8" s="38">
-        <v>250000</v>
-      </c>
-      <c r="U8" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="V8" s="33">
-        <v>0.23</v>
-      </c>
-      <c r="W8" s="43">
-        <f t="shared" ref="W8" si="10">(M8*V8)/(10^3)</f>
-        <v>0.20549924999999999</v>
-      </c>
-      <c r="X8" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y8" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA8" s="5">
+      <c r="X9" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y9" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="5">
         <v>64</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AB9" s="5">
         <f t="shared" si="6"/>
         <v>21.12</v>
-      </c>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-    </row>
-    <row r="9" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="27">
-        <v>1</v>
-      </c>
-      <c r="F9" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="29">
-        <v>600</v>
-      </c>
-      <c r="H9" s="29">
-        <v>100</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="62">
-        <f>0.95*J16</f>
-        <v>3.8</v>
-      </c>
-      <c r="K9" s="32">
-        <v>1</v>
-      </c>
-      <c r="L9" s="66">
-        <f>J9*K9</f>
-        <v>3.8</v>
-      </c>
-      <c r="M9" s="65">
-        <f>L9*330</f>
-        <v>1254</v>
-      </c>
-      <c r="O9" s="26">
-        <v>1</v>
-      </c>
-      <c r="P9" s="30">
-        <f>O9*M9</f>
-        <v>1254</v>
-      </c>
-      <c r="Q9" s="30">
-        <v>750</v>
-      </c>
-      <c r="R9" s="31">
-        <f>P9+Q9</f>
-        <v>2004</v>
-      </c>
-      <c r="T9" s="29">
-        <v>570000</v>
-      </c>
-      <c r="U9" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="V9" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="W9" s="32">
-        <f>(M9*V9)/(10^3)</f>
-        <v>0.50160000000000005</v>
-      </c>
-      <c r="X9" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y9" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA9" s="5">
-        <v>1230</v>
-      </c>
-      <c r="AB9" s="5">
-        <f t="shared" si="6"/>
-        <v>405.9</v>
       </c>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
@@ -2044,834 +2809,799 @@
       <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="6">
-        <v>3</v>
+        <v>43</v>
+      </c>
+      <c r="E10" s="7">
+        <v>10</v>
       </c>
       <c r="F10" s="8">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="G10" s="9">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="H10" s="9">
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>110</v>
       </c>
       <c r="I10" s="11"/>
-      <c r="J10" s="62">
-        <f t="shared" ref="J10:J14" si="11">0.95*J17</f>
-        <v>3.3249999999999997</v>
+      <c r="J10" s="59">
+        <f t="shared" si="7"/>
+        <v>2.7074999999999996</v>
       </c>
       <c r="K10" s="24">
         <v>1</v>
       </c>
       <c r="L10" s="60">
-        <f t="shared" ref="L10:L15" si="12">J10*K10</f>
-        <v>3.3249999999999997</v>
+        <f t="shared" si="1"/>
+        <v>2.7074999999999996</v>
       </c>
       <c r="M10" s="63">
         <f t="shared" si="2"/>
-        <v>1097.25</v>
+        <v>893.47499999999991</v>
       </c>
       <c r="O10" s="5">
-        <v>1</v>
+        <v>5.86</v>
       </c>
       <c r="P10" s="21">
-        <f t="shared" ref="P10:P15" si="13">O10*M10</f>
-        <v>1097.25</v>
+        <f t="shared" si="3"/>
+        <v>5235.7635</v>
       </c>
       <c r="Q10" s="21">
         <v>1000</v>
       </c>
       <c r="R10" s="22">
-        <f t="shared" ref="R10:R15" si="14">P10+Q10</f>
-        <v>2097.25</v>
+        <f t="shared" si="4"/>
+        <v>6235.7635</v>
       </c>
       <c r="T10" s="9">
-        <v>570000</v>
+        <v>250000</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V10" s="5">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="W10" s="24">
-        <f t="shared" ref="W10:W15" si="15">(M10*V10)/(10^3)</f>
-        <v>0.43890000000000001</v>
+        <f t="shared" si="5"/>
+        <v>0.17869499999999999</v>
       </c>
       <c r="X10" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y10" s="21" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="Z10" s="10"/>
       <c r="AA10" s="5">
-        <v>410</v>
+        <f>47</f>
+        <v>47</v>
       </c>
       <c r="AB10" s="5">
         <f t="shared" si="6"/>
-        <v>135.30000000000001</v>
+        <v>15.51</v>
       </c>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="36">
+        <v>10</v>
+      </c>
+      <c r="F11" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="G11" s="38">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="38">
+        <f>G11*0.1</f>
+        <v>100</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="61">
+        <f>0.95*J21</f>
+        <v>2.7074999999999996</v>
+      </c>
+      <c r="K11" s="43">
+        <v>1</v>
+      </c>
+      <c r="L11" s="61">
+        <f t="shared" ref="L11" si="8">J11*K11</f>
+        <v>2.7074999999999996</v>
+      </c>
+      <c r="M11" s="64">
+        <f t="shared" si="2"/>
+        <v>893.47499999999991</v>
+      </c>
+      <c r="N11" s="40"/>
+      <c r="O11" s="33">
+        <v>5.26</v>
+      </c>
+      <c r="P11" s="41">
+        <f t="shared" ref="P11" si="9">O11*M11</f>
+        <v>4699.6784999999991</v>
+      </c>
+      <c r="Q11" s="41">
+        <v>1000</v>
+      </c>
+      <c r="R11" s="42">
+        <f t="shared" ref="R11" si="10">P11+Q11</f>
+        <v>5699.6784999999991</v>
+      </c>
+      <c r="S11" s="40"/>
+      <c r="T11" s="38">
+        <v>250000</v>
+      </c>
+      <c r="U11" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" s="33">
+        <v>0.23</v>
+      </c>
+      <c r="W11" s="43">
+        <f t="shared" ref="W11" si="11">(M11*V11)/(10^3)</f>
+        <v>0.20549924999999999</v>
+      </c>
+      <c r="X11" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y11" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA11" s="5">
+        <f>64</f>
+        <v>64</v>
+      </c>
+      <c r="AB11" s="5">
+        <f t="shared" si="6"/>
+        <v>21.12</v>
+      </c>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+    </row>
+    <row r="12" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D12" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="27">
+        <v>1</v>
+      </c>
+      <c r="F12" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="G12" s="29">
+        <v>600</v>
+      </c>
+      <c r="H12" s="29">
+        <f>G12*0.1</f>
+        <v>60</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="62">
+        <f>0.95*J22</f>
+        <v>3.8</v>
+      </c>
+      <c r="K12" s="32">
+        <v>1</v>
+      </c>
+      <c r="L12" s="66">
+        <f>J12*K12</f>
+        <v>3.8</v>
+      </c>
+      <c r="M12" s="65">
+        <f>L12*330</f>
+        <v>1254</v>
+      </c>
+      <c r="O12" s="26">
+        <v>1</v>
+      </c>
+      <c r="P12" s="30">
+        <f>O12*M12</f>
+        <v>1254</v>
+      </c>
+      <c r="Q12" s="30">
+        <v>750</v>
+      </c>
+      <c r="R12" s="31">
+        <f>P12+Q12</f>
+        <v>2004</v>
+      </c>
+      <c r="T12" s="29">
+        <v>570000</v>
+      </c>
+      <c r="U12" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="V12" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="W12" s="32">
+        <f>(M12*V12)/(10^3)</f>
+        <v>0.50160000000000005</v>
+      </c>
+      <c r="X12" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y12" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>1230</v>
+      </c>
+      <c r="AB12" s="5">
+        <f t="shared" si="6"/>
+        <v>405.9</v>
+      </c>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="6">
         <v>3</v>
       </c>
-      <c r="F11" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="F13" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="9">
+        <v>800</v>
+      </c>
+      <c r="H13" s="9">
+        <f>G13*0.1</f>
+        <v>80</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="62">
+        <f>0.95*J23</f>
+        <v>3.3249999999999997</v>
+      </c>
+      <c r="K13" s="24">
+        <v>1</v>
+      </c>
+      <c r="L13" s="60">
+        <f t="shared" ref="L13:L21" si="12">J13*K13</f>
+        <v>3.3249999999999997</v>
+      </c>
+      <c r="M13" s="63">
+        <f t="shared" si="2"/>
+        <v>1097.25</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1</v>
+      </c>
+      <c r="P13" s="21">
+        <f t="shared" ref="P13:P21" si="13">O13*M13</f>
+        <v>1097.25</v>
+      </c>
+      <c r="Q13" s="21">
         <v>1000</v>
       </c>
-      <c r="H11" s="9">
-        <v>200</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="62">
-        <f t="shared" si="11"/>
+      <c r="R13" s="22">
+        <f t="shared" ref="R13:R21" si="14">P13+Q13</f>
+        <v>2097.25</v>
+      </c>
+      <c r="T13" s="9">
+        <v>570000</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="W13" s="24">
+        <f t="shared" ref="W13:W21" si="15">(M13*V13)/(10^3)</f>
+        <v>0.43890000000000001</v>
+      </c>
+      <c r="X13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>410</v>
+      </c>
+      <c r="AB13" s="5">
+        <f t="shared" si="6"/>
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" ref="H14:H20" si="16">G14*0.1</f>
+        <v>100</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="62">
+        <f>0.95*J24</f>
         <v>3.0874999999999999</v>
       </c>
-      <c r="K11" s="24">
-        <v>1</v>
-      </c>
-      <c r="L11" s="60">
+      <c r="K14" s="24">
+        <v>1</v>
+      </c>
+      <c r="L14" s="60">
         <f t="shared" si="12"/>
         <v>3.0874999999999999</v>
       </c>
-      <c r="M11" s="63">
+      <c r="M14" s="63">
         <f t="shared" si="2"/>
         <v>1018.875</v>
       </c>
-      <c r="O11" s="5">
-        <v>1</v>
-      </c>
-      <c r="P11" s="21">
+      <c r="O14" s="5">
+        <v>1</v>
+      </c>
+      <c r="P14" s="21">
         <f t="shared" si="13"/>
         <v>1018.875</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q14" s="21">
         <v>1250</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R14" s="22">
         <f t="shared" si="14"/>
         <v>2268.875</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T14" s="9">
         <v>570000</v>
       </c>
-      <c r="U11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V11" s="5">
+      <c r="U14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" s="5">
         <v>0.4</v>
       </c>
-      <c r="W11" s="24">
+      <c r="W14" s="24">
         <f t="shared" si="15"/>
         <v>0.40755000000000002</v>
       </c>
-      <c r="X11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA11" s="5">
+      <c r="X14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA14" s="5">
         <v>165</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AB14" s="5">
         <f t="shared" si="6"/>
         <v>54.45</v>
       </c>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="G15" s="9">
+        <v>600</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="16"/>
+        <v>60</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="62">
+        <v>3.8</v>
+      </c>
+      <c r="K15" s="24">
+        <v>1</v>
+      </c>
+      <c r="L15" s="60">
+        <v>3.8</v>
+      </c>
+      <c r="M15" s="63">
+        <v>1254</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="22"/>
+      <c r="T15" s="9">
+        <v>570000</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V15" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="W15" s="24">
+        <v>0.50160000000000005</v>
+      </c>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="AA15" s="5">
+        <v>1230</v>
+      </c>
+      <c r="AB15" s="5">
+        <f t="shared" ref="AB15:AB17" si="17">(AA15*330)/1000</f>
+        <v>405.9</v>
+      </c>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="9">
+        <v>800</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="62">
+        <v>3.3249999999999997</v>
+      </c>
+      <c r="K16" s="24">
+        <v>1</v>
+      </c>
+      <c r="L16" s="60">
+        <v>3.3249999999999997</v>
+      </c>
+      <c r="M16" s="63">
+        <v>1097.25</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="22"/>
+      <c r="T16" s="9">
+        <v>570000</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V16" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="W16" s="24">
+        <v>0.43890000000000001</v>
+      </c>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="AA16" s="5">
+        <v>410</v>
+      </c>
+      <c r="AB16" s="5">
+        <f t="shared" si="17"/>
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="62">
+        <v>3.0874999999999999</v>
+      </c>
+      <c r="K17" s="24">
+        <v>1</v>
+      </c>
+      <c r="L17" s="60">
+        <v>3.0874999999999999</v>
+      </c>
+      <c r="M17" s="63">
+        <v>1018.875</v>
+      </c>
+      <c r="O17" s="5"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="22"/>
+      <c r="T17" s="9">
+        <v>570000</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V17" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="W17" s="24">
+        <v>0.40755000000000002</v>
+      </c>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="AA17" s="5">
+        <v>165</v>
+      </c>
+      <c r="AB17" s="5">
+        <f t="shared" si="17"/>
+        <v>54.45</v>
+      </c>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="7">
         <v>10</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F18" s="8">
         <v>0.7</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G18" s="9">
         <v>50000</v>
       </c>
-      <c r="H12" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="62">
-        <f t="shared" si="11"/>
+      <c r="H18" s="9">
+        <f t="shared" si="16"/>
+        <v>5000</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="62">
+        <f t="shared" ref="J18:J20" si="18">0.95*J28</f>
         <v>2.8499999999999996</v>
       </c>
-      <c r="K12" s="24">
-        <v>1</v>
-      </c>
-      <c r="L12" s="60">
+      <c r="K18" s="24">
+        <v>1</v>
+      </c>
+      <c r="L18" s="60">
         <f t="shared" si="12"/>
         <v>2.8499999999999996</v>
       </c>
-      <c r="M12" s="63">
+      <c r="M18" s="63">
         <f t="shared" si="2"/>
         <v>940.49999999999989</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O18" s="5">
         <v>1.5</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P18" s="21">
         <f t="shared" si="13"/>
         <v>1410.7499999999998</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q18" s="21">
         <v>1250</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R18" s="22">
         <f t="shared" si="14"/>
         <v>2660.75</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T18" s="9">
         <v>570000</v>
       </c>
-      <c r="U12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V12" s="23">
+      <c r="U18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V18" s="23">
         <v>0.15</v>
       </c>
-      <c r="W12" s="24">
+      <c r="W18" s="24">
         <f t="shared" si="15"/>
         <v>0.14107499999999998</v>
       </c>
-      <c r="X12" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y12" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA12" s="5">
+      <c r="X18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA18" s="5">
         <v>60</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AB18" s="5">
         <f t="shared" si="6"/>
         <v>19.8</v>
       </c>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="7">
         <v>10</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F19" s="8">
         <v>0.75</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G19" s="9">
         <v>1250</v>
       </c>
-      <c r="H13" s="9">
-        <v>500</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="62">
-        <f t="shared" si="11"/>
+      <c r="H19" s="9">
+        <f t="shared" si="16"/>
+        <v>125</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="62">
+        <f t="shared" si="18"/>
         <v>2.8499999999999996</v>
       </c>
-      <c r="K13" s="24">
-        <v>1</v>
-      </c>
-      <c r="L13" s="60">
+      <c r="K19" s="24">
+        <v>1</v>
+      </c>
+      <c r="L19" s="60">
         <f t="shared" si="12"/>
         <v>2.8499999999999996</v>
       </c>
-      <c r="M13" s="63">
+      <c r="M19" s="63">
         <f t="shared" si="2"/>
         <v>940.49999999999989</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O19" s="5">
         <v>5.26</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P19" s="21">
         <f t="shared" si="13"/>
         <v>4947.0299999999988</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q19" s="21">
         <v>1250</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R19" s="22">
         <f t="shared" si="14"/>
         <v>6197.0299999999988</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T19" s="9">
         <v>570000</v>
       </c>
-      <c r="U13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V13" s="5">
+      <c r="U19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V19" s="5">
         <v>0.23</v>
       </c>
-      <c r="W13" s="24">
+      <c r="W19" s="24">
         <f t="shared" si="15"/>
         <v>0.21631499999999998</v>
       </c>
-      <c r="X13" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y13" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA13" s="5">
-        <v>17</v>
-      </c>
-      <c r="AB13" s="5">
-        <f t="shared" si="6"/>
-        <v>5.61</v>
-      </c>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="7">
-        <v>10</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1300</v>
-      </c>
-      <c r="H14" s="9">
-        <v>500</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="62">
-        <f t="shared" si="11"/>
-        <v>2.8499999999999996</v>
-      </c>
-      <c r="K14" s="24">
-        <v>1</v>
-      </c>
-      <c r="L14" s="60">
-        <f t="shared" si="12"/>
-        <v>2.8499999999999996</v>
-      </c>
-      <c r="M14" s="63">
-        <f t="shared" si="2"/>
-        <v>940.49999999999989</v>
-      </c>
-      <c r="O14" s="5">
-        <v>5.86</v>
-      </c>
-      <c r="P14" s="21">
-        <f t="shared" si="13"/>
-        <v>5511.33</v>
-      </c>
-      <c r="Q14" s="21">
-        <v>1250</v>
-      </c>
-      <c r="R14" s="22">
-        <f t="shared" si="14"/>
-        <v>6761.33</v>
-      </c>
-      <c r="T14" s="9">
-        <v>712500</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V14" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="W14" s="24">
-        <f t="shared" si="15"/>
-        <v>0.18809999999999999</v>
-      </c>
-      <c r="X14" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y14" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA14" s="5">
-        <v>47</v>
-      </c>
-      <c r="AB14" s="5">
-        <f t="shared" si="6"/>
-        <v>15.51</v>
-      </c>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-    </row>
-    <row r="15" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="36">
-        <v>10</v>
-      </c>
-      <c r="F15" s="37">
-        <v>0.75</v>
-      </c>
-      <c r="G15" s="38">
-        <v>1300</v>
-      </c>
-      <c r="H15" s="38">
-        <v>500</v>
-      </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="61">
-        <f>0.95*J22</f>
-        <v>2.8499999999999996</v>
-      </c>
-      <c r="K15" s="43">
-        <v>1</v>
-      </c>
-      <c r="L15" s="61">
-        <f t="shared" si="12"/>
-        <v>2.8499999999999996</v>
-      </c>
-      <c r="M15" s="64">
-        <f t="shared" si="2"/>
-        <v>940.49999999999989</v>
-      </c>
-      <c r="N15" s="40"/>
-      <c r="O15" s="33">
-        <v>5.26</v>
-      </c>
-      <c r="P15" s="41">
-        <f t="shared" si="13"/>
-        <v>4947.0299999999988</v>
-      </c>
-      <c r="Q15" s="41">
-        <v>1250</v>
-      </c>
-      <c r="R15" s="42">
-        <f t="shared" si="14"/>
-        <v>6197.0299999999988</v>
-      </c>
-      <c r="S15" s="40"/>
-      <c r="T15" s="38">
-        <v>712500</v>
-      </c>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33">
-        <v>0.23</v>
-      </c>
-      <c r="W15" s="43">
-        <f t="shared" si="15"/>
-        <v>0.21631499999999998</v>
-      </c>
-      <c r="X15" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y15" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA15" s="5">
+      <c r="X19" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y19" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA19" s="5">
         <v>64</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AB19" s="5">
         <f t="shared" si="6"/>
         <v>21.12</v>
-      </c>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-    </row>
-    <row r="16" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="27">
-        <v>1</v>
-      </c>
-      <c r="F16" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="G16" s="29">
-        <v>700</v>
-      </c>
-      <c r="H16" s="29">
-        <v>200</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="62">
-        <v>4</v>
-      </c>
-      <c r="K16" s="32">
-        <v>1</v>
-      </c>
-      <c r="L16" s="66">
-        <f>J16*K16</f>
-        <v>4</v>
-      </c>
-      <c r="M16" s="65">
-        <f>L16*330</f>
-        <v>1320</v>
-      </c>
-      <c r="O16" s="26">
-        <v>1</v>
-      </c>
-      <c r="P16" s="30">
-        <f>O16*M16</f>
-        <v>1320</v>
-      </c>
-      <c r="Q16" s="30">
-        <v>1000</v>
-      </c>
-      <c r="R16" s="31">
-        <f>P16+Q16</f>
-        <v>2320</v>
-      </c>
-      <c r="T16" s="29">
-        <v>900000</v>
-      </c>
-      <c r="U16" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="V16" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="W16" s="32">
-        <f>(M16*V16)/(10^3)</f>
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="X16" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y16" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA16" s="5">
-        <v>1230</v>
-      </c>
-      <c r="AB16" s="5">
-        <f t="shared" si="6"/>
-        <v>405.9</v>
-      </c>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="6">
-        <v>3</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="G17" s="9">
-        <v>900</v>
-      </c>
-      <c r="H17" s="9">
-        <v>400</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="59">
-        <v>3.5</v>
-      </c>
-      <c r="K17" s="24">
-        <v>1</v>
-      </c>
-      <c r="L17" s="60">
-        <f t="shared" ref="L17:L22" si="16">J17*K17</f>
-        <v>3.5</v>
-      </c>
-      <c r="M17" s="63">
-        <f t="shared" si="2"/>
-        <v>1155</v>
-      </c>
-      <c r="O17" s="5">
-        <v>1</v>
-      </c>
-      <c r="P17" s="21">
-        <f t="shared" ref="P17:P22" si="17">O17*M17</f>
-        <v>1155</v>
-      </c>
-      <c r="Q17" s="21">
-        <v>1250</v>
-      </c>
-      <c r="R17" s="22">
-        <f t="shared" ref="R17:R22" si="18">P17+Q17</f>
-        <v>2405</v>
-      </c>
-      <c r="T17" s="9">
-        <v>900000</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V17" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="W17" s="24">
-        <f t="shared" ref="W17:W22" si="19">(M17*V17)/(10^3)</f>
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="X17" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y17" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA17" s="5">
-        <v>410</v>
-      </c>
-      <c r="AB17" s="5">
-        <f t="shared" si="6"/>
-        <v>135.30000000000001</v>
-      </c>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="6">
-        <v>3</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1000</v>
-      </c>
-      <c r="H18" s="9">
-        <v>400</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="59">
-        <v>3.25</v>
-      </c>
-      <c r="K18" s="24">
-        <v>1</v>
-      </c>
-      <c r="L18" s="60">
-        <f t="shared" si="16"/>
-        <v>3.25</v>
-      </c>
-      <c r="M18" s="63">
-        <f t="shared" si="2"/>
-        <v>1072.5</v>
-      </c>
-      <c r="O18" s="5">
-        <v>1</v>
-      </c>
-      <c r="P18" s="21">
-        <f t="shared" si="17"/>
-        <v>1072.5</v>
-      </c>
-      <c r="Q18" s="21">
-        <v>1500</v>
-      </c>
-      <c r="R18" s="22">
-        <f t="shared" si="18"/>
-        <v>2572.5</v>
-      </c>
-      <c r="T18" s="9">
-        <v>900000</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V18" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="W18" s="24">
-        <f t="shared" si="19"/>
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="X18" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y18" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA18" s="5">
-        <v>165</v>
-      </c>
-      <c r="AB18" s="5">
-        <f t="shared" si="6"/>
-        <v>54.45</v>
-      </c>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="7">
-        <v>10</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="G19" s="9">
-        <v>60000</v>
-      </c>
-      <c r="H19" s="9">
-        <v>1750</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="60">
-        <v>3</v>
-      </c>
-      <c r="K19" s="24">
-        <v>1</v>
-      </c>
-      <c r="L19" s="60">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="M19" s="63">
-        <f t="shared" si="2"/>
-        <v>990</v>
-      </c>
-      <c r="O19" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="P19" s="21">
-        <f t="shared" si="17"/>
-        <v>1485</v>
-      </c>
-      <c r="Q19" s="21">
-        <v>1500</v>
-      </c>
-      <c r="R19" s="22">
-        <f t="shared" si="18"/>
-        <v>2985</v>
-      </c>
-      <c r="T19" s="9">
-        <v>900000</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="W19" s="24">
-        <f t="shared" si="19"/>
-        <v>0.14849999999999999</v>
-      </c>
-      <c r="X19" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y19" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA19" s="5">
-        <v>60</v>
-      </c>
-      <c r="AB19" s="5">
-        <f t="shared" si="6"/>
-        <v>19.8</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
@@ -2881,253 +3611,963 @@
         <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E20" s="7">
         <v>10</v>
       </c>
       <c r="F20" s="8">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="G20" s="9">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="H20" s="9">
-        <v>750</v>
+        <f t="shared" si="16"/>
+        <v>130</v>
       </c>
       <c r="I20" s="11"/>
-      <c r="J20" s="60">
-        <v>3</v>
+      <c r="J20" s="62">
+        <f t="shared" si="18"/>
+        <v>2.8499999999999996</v>
       </c>
       <c r="K20" s="24">
         <v>1</v>
       </c>
       <c r="L20" s="60">
-        <f t="shared" si="16"/>
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>2.8499999999999996</v>
       </c>
       <c r="M20" s="63">
         <f t="shared" si="2"/>
-        <v>990</v>
+        <v>940.49999999999989</v>
       </c>
       <c r="O20" s="5">
-        <v>5.26</v>
+        <v>5.86</v>
       </c>
       <c r="P20" s="21">
-        <f t="shared" si="17"/>
-        <v>5207.3999999999996</v>
+        <f t="shared" si="13"/>
+        <v>5511.33</v>
       </c>
       <c r="Q20" s="21">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="R20" s="22">
-        <f t="shared" si="18"/>
-        <v>6707.4</v>
+        <f t="shared" si="14"/>
+        <v>6761.33</v>
       </c>
       <c r="T20" s="9">
-        <v>900000</v>
+        <v>712500</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V20" s="5">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="W20" s="24">
-        <f t="shared" si="19"/>
-        <v>0.22770000000000001</v>
+        <f t="shared" si="15"/>
+        <v>0.18809999999999999</v>
       </c>
       <c r="X20" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y20" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA20" s="5">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="AB20" s="5">
         <f t="shared" si="6"/>
-        <v>5.61</v>
+        <v>15.51</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="36">
+        <v>10</v>
+      </c>
+      <c r="F21" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="G21" s="38">
+        <v>1300</v>
+      </c>
+      <c r="H21" s="38">
+        <f>G21*0.1</f>
+        <v>130</v>
+      </c>
+      <c r="I21" s="39"/>
+      <c r="J21" s="61">
+        <f>0.95*J31</f>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="K21" s="43">
+        <v>1</v>
+      </c>
+      <c r="L21" s="61">
+        <f t="shared" si="12"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="M21" s="64">
+        <f t="shared" si="2"/>
+        <v>940.49999999999989</v>
+      </c>
+      <c r="N21" s="40"/>
+      <c r="O21" s="33">
+        <v>5.26</v>
+      </c>
+      <c r="P21" s="41">
+        <f t="shared" si="13"/>
+        <v>4947.0299999999988</v>
+      </c>
+      <c r="Q21" s="41">
+        <v>1250</v>
+      </c>
+      <c r="R21" s="42">
+        <f t="shared" si="14"/>
+        <v>6197.0299999999988</v>
+      </c>
+      <c r="S21" s="40"/>
+      <c r="T21" s="38">
+        <v>712500</v>
+      </c>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33">
+        <v>0.23</v>
+      </c>
+      <c r="W21" s="43">
+        <f t="shared" si="15"/>
+        <v>0.21631499999999998</v>
+      </c>
+      <c r="X21" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y21" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>64</v>
+      </c>
+      <c r="AB21" s="5">
+        <f t="shared" si="6"/>
+        <v>21.12</v>
+      </c>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+    </row>
+    <row r="22" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="27">
+        <v>1</v>
+      </c>
+      <c r="F22" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="G22" s="29">
+        <v>700</v>
+      </c>
+      <c r="H22" s="29">
+        <f>G22*0.1</f>
+        <v>70</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="62">
         <v>4</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="K22" s="32">
+        <v>1</v>
+      </c>
+      <c r="L22" s="66">
+        <f>J22*K22</f>
+        <v>4</v>
+      </c>
+      <c r="M22" s="65">
+        <f>L22*330</f>
+        <v>1320</v>
+      </c>
+      <c r="O22" s="26">
+        <v>1</v>
+      </c>
+      <c r="P22" s="30">
+        <f>O22*M22</f>
+        <v>1320</v>
+      </c>
+      <c r="Q22" s="30">
+        <v>1000</v>
+      </c>
+      <c r="R22" s="31">
+        <f>P22+Q22</f>
+        <v>2320</v>
+      </c>
+      <c r="T22" s="29">
+        <v>900000</v>
+      </c>
+      <c r="U22" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="V22" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="W22" s="32">
+        <f>(M22*V22)/(10^3)</f>
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="X22" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y22" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>1230</v>
+      </c>
+      <c r="AB22" s="5">
+        <f t="shared" si="6"/>
+        <v>405.9</v>
+      </c>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G21" s="9">
-        <v>2500</v>
-      </c>
-      <c r="H21" s="9">
-        <v>750</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="60">
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="6">
         <v>3</v>
       </c>
-      <c r="K21" s="24">
-        <v>1</v>
-      </c>
-      <c r="L21" s="60">
-        <f t="shared" si="16"/>
+      <c r="F23" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="G23" s="9">
+        <v>900</v>
+      </c>
+      <c r="H23" s="9">
+        <f>G23*0.1</f>
+        <v>90</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="59">
+        <v>3.5</v>
+      </c>
+      <c r="K23" s="24">
+        <v>1</v>
+      </c>
+      <c r="L23" s="60">
+        <f t="shared" ref="L23:L31" si="19">J23*K23</f>
+        <v>3.5</v>
+      </c>
+      <c r="M23" s="63">
+        <f t="shared" si="2"/>
+        <v>1155</v>
+      </c>
+      <c r="O23" s="5">
+        <v>1</v>
+      </c>
+      <c r="P23" s="21">
+        <f t="shared" ref="P23:P31" si="20">O23*M23</f>
+        <v>1155</v>
+      </c>
+      <c r="Q23" s="21">
+        <v>1250</v>
+      </c>
+      <c r="R23" s="22">
+        <f t="shared" ref="R23:R31" si="21">P23+Q23</f>
+        <v>2405</v>
+      </c>
+      <c r="T23" s="9">
+        <v>900000</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V23" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="W23" s="24">
+        <f t="shared" ref="W23:W31" si="22">(M23*V23)/(10^3)</f>
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="X23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>410</v>
+      </c>
+      <c r="AB23" s="5">
+        <f t="shared" si="6"/>
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="6">
         <v>3</v>
       </c>
-      <c r="M21" s="63">
+      <c r="F24" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" ref="H24:H30" si="23">G24*0.1</f>
+        <v>100</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="59">
+        <v>3.25</v>
+      </c>
+      <c r="K24" s="24">
+        <v>1</v>
+      </c>
+      <c r="L24" s="60">
+        <f t="shared" si="19"/>
+        <v>3.25</v>
+      </c>
+      <c r="M24" s="63">
+        <f t="shared" si="2"/>
+        <v>1072.5</v>
+      </c>
+      <c r="O24" s="5">
+        <v>1</v>
+      </c>
+      <c r="P24" s="21">
+        <f t="shared" si="20"/>
+        <v>1072.5</v>
+      </c>
+      <c r="Q24" s="21">
+        <v>1500</v>
+      </c>
+      <c r="R24" s="22">
+        <f t="shared" si="21"/>
+        <v>2572.5</v>
+      </c>
+      <c r="T24" s="9">
+        <v>900000</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V24" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="W24" s="24">
+        <f t="shared" si="22"/>
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="X24" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y24" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>165</v>
+      </c>
+      <c r="AB24" s="5">
+        <f t="shared" si="6"/>
+        <v>54.45</v>
+      </c>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="G25" s="9">
+        <v>700</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="23"/>
+        <v>70</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="59">
+        <v>4</v>
+      </c>
+      <c r="K25" s="24">
+        <v>1</v>
+      </c>
+      <c r="L25" s="60">
+        <v>4</v>
+      </c>
+      <c r="M25" s="63">
+        <v>1320</v>
+      </c>
+      <c r="O25" s="5"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="22"/>
+      <c r="T25" s="9">
+        <v>900000</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V25" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="W25" s="24">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="AA25" s="5">
+        <v>1230</v>
+      </c>
+      <c r="AB25" s="5">
+        <f t="shared" ref="AB25:AB27" si="24">(AA25*330)/1000</f>
+        <v>405.9</v>
+      </c>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="6">
+        <v>3</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="G26" s="9">
+        <v>900</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="23"/>
+        <v>90</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="59">
+        <v>3.5</v>
+      </c>
+      <c r="K26" s="24">
+        <v>1</v>
+      </c>
+      <c r="L26" s="60">
+        <v>3.5</v>
+      </c>
+      <c r="M26" s="63">
+        <v>1155</v>
+      </c>
+      <c r="O26" s="5"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="22"/>
+      <c r="T26" s="9">
+        <v>900000</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V26" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="W26" s="24">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="AA26" s="5">
+        <v>410</v>
+      </c>
+      <c r="AB26" s="5">
+        <f t="shared" si="24"/>
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="23"/>
+        <v>100</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="59">
+        <v>3.25</v>
+      </c>
+      <c r="K27" s="24">
+        <v>1</v>
+      </c>
+      <c r="L27" s="60">
+        <v>3.25</v>
+      </c>
+      <c r="M27" s="63">
+        <v>1072.5</v>
+      </c>
+      <c r="O27" s="5"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="22"/>
+      <c r="T27" s="9">
+        <v>900000</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V27" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="W27" s="24">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="AA27" s="5">
+        <v>165</v>
+      </c>
+      <c r="AB27" s="5">
+        <f t="shared" si="24"/>
+        <v>54.45</v>
+      </c>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="7">
+        <v>10</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G28" s="9">
+        <v>60000</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="23"/>
+        <v>6000</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="60">
+        <v>3</v>
+      </c>
+      <c r="K28" s="24">
+        <v>1</v>
+      </c>
+      <c r="L28" s="60">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="M28" s="63">
         <f t="shared" si="2"/>
         <v>990</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O28" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="P28" s="21">
+        <f t="shared" si="20"/>
+        <v>1485</v>
+      </c>
+      <c r="Q28" s="21">
+        <v>1500</v>
+      </c>
+      <c r="R28" s="22">
+        <f t="shared" si="21"/>
+        <v>2985</v>
+      </c>
+      <c r="T28" s="9">
+        <v>900000</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V28" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="W28" s="24">
+        <f t="shared" si="22"/>
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="X28" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y28" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB28" s="5">
+        <f t="shared" si="6"/>
+        <v>19.8</v>
+      </c>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="7">
+        <v>10</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G29" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="23"/>
+        <v>200</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="60">
+        <v>3</v>
+      </c>
+      <c r="K29" s="24">
+        <v>1</v>
+      </c>
+      <c r="L29" s="60">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="M29" s="63">
+        <f t="shared" si="2"/>
+        <v>990</v>
+      </c>
+      <c r="O29" s="5">
+        <v>5.26</v>
+      </c>
+      <c r="P29" s="21">
+        <f t="shared" si="20"/>
+        <v>5207.3999999999996</v>
+      </c>
+      <c r="Q29" s="21">
+        <v>1500</v>
+      </c>
+      <c r="R29" s="22">
+        <f t="shared" si="21"/>
+        <v>6707.4</v>
+      </c>
+      <c r="T29" s="9">
+        <v>900000</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V29" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="W29" s="24">
+        <f t="shared" si="22"/>
+        <v>0.22770000000000001</v>
+      </c>
+      <c r="X29" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y29" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>64</v>
+      </c>
+      <c r="AB29" s="5">
+        <f t="shared" si="6"/>
+        <v>21.12</v>
+      </c>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="7">
+        <v>10</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G30" s="9">
+        <v>2500</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="23"/>
+        <v>250</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="60">
+        <v>3</v>
+      </c>
+      <c r="K30" s="24">
+        <v>1</v>
+      </c>
+      <c r="L30" s="60">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="M30" s="63">
+        <f t="shared" si="2"/>
+        <v>990</v>
+      </c>
+      <c r="O30" s="5">
         <v>5.86</v>
       </c>
-      <c r="P21" s="21">
-        <f t="shared" si="17"/>
+      <c r="P30" s="21">
+        <f t="shared" si="20"/>
         <v>5801.4000000000005</v>
       </c>
-      <c r="Q21" s="21">
+      <c r="Q30" s="21">
         <v>1500</v>
       </c>
-      <c r="R21" s="22">
-        <f t="shared" si="18"/>
+      <c r="R30" s="22">
+        <f t="shared" si="21"/>
         <v>7301.4000000000005</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T30" s="9">
         <v>1125000</v>
       </c>
-      <c r="U21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V21" s="5">
+      <c r="U30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V30" s="5">
         <v>0.2</v>
       </c>
-      <c r="W21" s="24">
-        <f t="shared" si="19"/>
+      <c r="W30" s="24">
+        <f t="shared" si="22"/>
         <v>0.19800000000000001</v>
       </c>
-      <c r="X21" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y21" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA21" s="5">
+      <c r="X30" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y30" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA30" s="5">
         <v>47</v>
       </c>
-      <c r="AB21" s="5">
+      <c r="AB30" s="5">
         <f t="shared" si="6"/>
         <v>15.51</v>
       </c>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-    </row>
-    <row r="22" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="34" t="s">
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+    </row>
+    <row r="31" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="36">
+      <c r="C31" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="36">
         <v>10</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F31" s="37">
         <v>0.8</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G31" s="38">
         <v>2000</v>
       </c>
-      <c r="H22" s="38">
-        <v>750</v>
-      </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="61">
+      <c r="H31" s="38">
+        <f>G31*0.1</f>
+        <v>200</v>
+      </c>
+      <c r="I31" s="39"/>
+      <c r="J31" s="61">
         <v>3</v>
       </c>
-      <c r="K22" s="43">
-        <v>1</v>
-      </c>
-      <c r="L22" s="61">
-        <f t="shared" si="16"/>
+      <c r="K31" s="43">
+        <v>1</v>
+      </c>
+      <c r="L31" s="61">
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="M22" s="64">
+      <c r="M31" s="64">
         <f t="shared" si="2"/>
         <v>990</v>
       </c>
-      <c r="N22" s="40"/>
-      <c r="O22" s="33">
+      <c r="N31" s="40"/>
+      <c r="O31" s="33">
         <v>5.26</v>
       </c>
-      <c r="P22" s="41">
-        <f t="shared" si="17"/>
+      <c r="P31" s="41">
+        <f t="shared" si="20"/>
         <v>5207.3999999999996</v>
       </c>
-      <c r="Q22" s="41">
+      <c r="Q31" s="41">
         <v>1500</v>
       </c>
-      <c r="R22" s="42">
-        <f t="shared" si="18"/>
+      <c r="R31" s="42">
+        <f t="shared" si="21"/>
         <v>6707.4</v>
       </c>
-      <c r="S22" s="40"/>
-      <c r="T22" s="38">
+      <c r="S31" s="40"/>
+      <c r="T31" s="38">
         <v>1125000</v>
       </c>
-      <c r="U22" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="V22" s="33">
+      <c r="U31" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="V31" s="33">
         <v>0.23</v>
       </c>
-      <c r="W22" s="43">
-        <f t="shared" si="19"/>
+      <c r="W31" s="43">
+        <f t="shared" si="22"/>
         <v>0.22770000000000001</v>
       </c>
-      <c r="X22" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y22" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA22" s="5">
+      <c r="X31" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y31" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA31" s="5">
         <v>64</v>
       </c>
-      <c r="AB22" s="5">
+      <c r="AB31" s="5">
         <f t="shared" si="6"/>
         <v>21.12</v>
       </c>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-    </row>
-    <row r="23" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+    </row>
+    <row r="32" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3136,12 +4576,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79E494E-2633-3B47-AC49-AD95AC048CCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79E494E-2633-3B47-AC49-AD95AC048CCB}">
   <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J27" sqref="J27"/>
+      <selection pane="topRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3176,98 +4616,98 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="Q1" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S1" s="10"/>
       <c r="T1" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="14" t="s">
-        <v>31</v>
-      </c>
       <c r="AA1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="AD1" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="6">
         <v>10</v>
@@ -3325,23 +4765,28 @@
       </c>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
+      <c r="AA2" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="5">
+        <f>(AA2*330)/(10^3)</f>
+        <v>15.51</v>
+      </c>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="6">
         <v>10</v>
@@ -3350,7 +4795,7 @@
         <v>0.8</v>
       </c>
       <c r="G3" s="9">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="H3" s="9">
         <v>100</v>
@@ -3399,23 +4844,29 @@
       </c>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
+      <c r="AA3" s="5">
+        <f>ROUND(AA2*0.75,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AB3" s="5">
+        <f t="shared" ref="AB3:AB8" si="5">(AA3*330)/(10^3)</f>
+        <v>11.55</v>
+      </c>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="6">
         <v>10</v>
@@ -3473,23 +4924,28 @@
       </c>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
+      <c r="AA4" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="5">
+        <f t="shared" si="5"/>
+        <v>15.51</v>
+      </c>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="6">
         <v>10</v>
@@ -3498,7 +4954,7 @@
         <v>0.8</v>
       </c>
       <c r="G5" s="9">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="H5" s="9">
         <v>100</v>
@@ -3547,23 +5003,29 @@
       </c>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
+      <c r="AA5" s="5">
+        <f>ROUND(AA4*0.75,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AB5" s="5">
+        <f t="shared" si="5"/>
+        <v>11.55</v>
+      </c>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="6">
         <v>10</v>
@@ -3621,23 +5083,28 @@
       </c>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
+      <c r="AA6" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB6" s="5">
+        <f t="shared" si="5"/>
+        <v>15.51</v>
+      </c>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="6">
         <v>10</v>
@@ -3646,7 +5113,7 @@
         <v>0.8</v>
       </c>
       <c r="G7" s="9">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="H7" s="9">
         <v>100</v>
@@ -3695,23 +5162,27 @@
       </c>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
+      <c r="AA7" s="5">
+        <f>ROUND(AA6*0.75,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AB7" s="5">
+        <f t="shared" si="5"/>
+        <v>11.55</v>
+      </c>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="6">
         <v>10</v>
@@ -3769,23 +5240,26 @@
       </c>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
+      <c r="AA8" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB8" s="5">
+        <f t="shared" si="5"/>
+        <v>15.51</v>
+      </c>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
     </row>
     <row r="9" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="A9" s="5"/>
       <c r="B9" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="17">
         <v>10</v>
@@ -3794,7 +5268,7 @@
         <v>0.8</v>
       </c>
       <c r="G9" s="38">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="H9" s="38">
         <v>100</v>
@@ -3846,23 +5320,28 @@
       </c>
       <c r="Y9" s="33"/>
       <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
+      <c r="AA9" s="33">
+        <v>35</v>
+      </c>
+      <c r="AB9" s="33">
+        <f>(AA9*330)/(10^3)</f>
+        <v>11.55</v>
+      </c>
       <c r="AC9" s="33"/>
       <c r="AD9" s="33"/>
     </row>
     <row r="10" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="6">
         <v>10</v>
@@ -3871,8 +5350,7 @@
         <v>0.85</v>
       </c>
       <c r="G10" s="9">
-        <f>G2*1.2</f>
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="H10" s="9">
         <v>250</v>
@@ -3921,23 +5399,28 @@
       </c>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
+      <c r="AA10" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB10" s="5">
+        <f>(AA10*330)/(10^3)</f>
+        <v>15.51</v>
+      </c>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="6">
         <v>10</v>
@@ -3946,8 +5429,8 @@
         <v>0.85</v>
       </c>
       <c r="G11" s="9">
-        <f>G3*1.2</f>
-        <v>1800</v>
+        <f>G3*1.5</f>
+        <v>7500</v>
       </c>
       <c r="H11" s="9">
         <v>250</v>
@@ -3959,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" ref="L11:L17" si="5">J11*K11</f>
+        <f t="shared" ref="L11:L17" si="6">J11*K11</f>
         <v>2.7</v>
       </c>
       <c r="M11" s="6">
@@ -3970,14 +5453,14 @@
         <v>6</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" ref="P11:P16" si="6">O11*M11</f>
+        <f t="shared" ref="P11:P16" si="7">O11*M11</f>
         <v>5346.0000000000009</v>
       </c>
       <c r="Q11" s="5">
         <v>750</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" ref="R11:R16" si="7">P11+Q11</f>
+        <f t="shared" ref="R11:R16" si="8">P11+Q11</f>
         <v>6096.0000000000009</v>
       </c>
       <c r="T11" s="21">
@@ -3988,7 +5471,7 @@
         <v>0.79</v>
       </c>
       <c r="W11" s="25">
-        <f t="shared" ref="W11:W17" si="8">(V11*M11)/(10^3)</f>
+        <f t="shared" ref="W11:W17" si="9">(V11*M11)/(10^3)</f>
         <v>0.70389000000000013</v>
       </c>
       <c r="X11" s="21">
@@ -3996,23 +5479,29 @@
       </c>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
+      <c r="AA11" s="5">
+        <f>ROUND(AA10*0.75,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AB11" s="5">
+        <f>(AA11*330)/(10^3)</f>
+        <v>11.55</v>
+      </c>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="6">
         <v>10</v>
@@ -4021,8 +5510,7 @@
         <v>0.85</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" ref="G12:G16" si="9">G4*1.2</f>
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="H12" s="9">
         <v>250</v>
@@ -4034,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8</v>
       </c>
       <c r="M12" s="6">
@@ -4045,14 +5533,14 @@
         <v>25</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23099.999999999996</v>
       </c>
       <c r="Q12" s="5">
         <v>350</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23449.999999999996</v>
       </c>
       <c r="T12" s="21">
@@ -4063,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X12" s="21">
@@ -4071,23 +5559,28 @@
       </c>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
+      <c r="AA12" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB12" s="5">
+        <f t="shared" ref="AB12:AB16" si="10">(AA12*330)/(10^3)</f>
+        <v>15.51</v>
+      </c>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="6">
         <v>10</v>
@@ -4096,8 +5589,8 @@
         <v>0.85</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" si="9"/>
-        <v>1800</v>
+        <f>G5*1.5</f>
+        <v>7500</v>
       </c>
       <c r="H13" s="9">
         <v>250</v>
@@ -4109,7 +5602,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7</v>
       </c>
       <c r="M13" s="6">
@@ -4120,14 +5613,14 @@
         <v>25</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22275.000000000004</v>
       </c>
       <c r="Q13" s="5">
         <v>350</v>
       </c>
       <c r="R13" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22625.000000000004</v>
       </c>
       <c r="T13" s="21">
@@ -4138,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X13" s="21">
@@ -4146,23 +5639,29 @@
       </c>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
+      <c r="AA13" s="5">
+        <f>ROUND(AA12*0.75,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AB13" s="5">
+        <f t="shared" si="10"/>
+        <v>11.55</v>
+      </c>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="6">
         <v>10</v>
@@ -4171,7 +5670,7 @@
         <v>0.85</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="G12:G16" si="11">G6*1.2</f>
         <v>18000</v>
       </c>
       <c r="H14" s="9">
@@ -4184,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8</v>
       </c>
       <c r="M14" s="6">
@@ -4195,14 +5694,14 @@
         <v>0</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q14" s="5">
         <v>750</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>750</v>
       </c>
       <c r="T14" s="21">
@@ -4213,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X14" s="21">
@@ -4221,23 +5720,28 @@
       </c>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
+      <c r="AA14" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB14" s="5">
+        <f t="shared" si="10"/>
+        <v>15.51</v>
+      </c>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="6">
         <v>10</v>
@@ -4246,8 +5750,8 @@
         <v>0.85</v>
       </c>
       <c r="G15" s="9">
-        <f t="shared" si="9"/>
-        <v>19200</v>
+        <f t="shared" si="11"/>
+        <v>24000</v>
       </c>
       <c r="H15" s="9">
         <v>250</v>
@@ -4259,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7</v>
       </c>
       <c r="M15" s="6">
@@ -4270,14 +5774,14 @@
         <v>0</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q15" s="5">
         <v>750</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>750</v>
       </c>
       <c r="T15" s="21">
@@ -4288,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X15" s="21">
@@ -4296,23 +5800,27 @@
       </c>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
+      <c r="AA15" s="5">
+        <f>ROUND(AA14*0.75,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AB15" s="5">
+        <f t="shared" si="10"/>
+        <v>11.55</v>
+      </c>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="6">
         <v>10</v>
@@ -4321,7 +5829,7 @@
         <v>0.85</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>18000</v>
       </c>
       <c r="H16" s="9">
@@ -4334,7 +5842,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8</v>
       </c>
       <c r="M16" s="6">
@@ -4345,14 +5853,14 @@
         <v>-0.25</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-230.99999999999997</v>
       </c>
       <c r="Q16" s="5">
         <v>1000</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>769</v>
       </c>
       <c r="T16" s="21">
@@ -4363,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X16" s="21">
@@ -4371,23 +5879,26 @@
       </c>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
+      <c r="AA16" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB16" s="5">
+        <f t="shared" si="10"/>
+        <v>15.51</v>
+      </c>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
     </row>
     <row r="17" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="A17" s="5"/>
       <c r="B17" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="17">
         <v>10</v>
@@ -4397,7 +5908,7 @@
       </c>
       <c r="G17" s="38">
         <f>G9*1.2</f>
-        <v>19200</v>
+        <v>24000</v>
       </c>
       <c r="H17" s="38">
         <v>250</v>
@@ -4410,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7</v>
       </c>
       <c r="M17" s="17">
@@ -4441,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X17" s="41">
@@ -4449,23 +5960,28 @@
       </c>
       <c r="Y17" s="33"/>
       <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
+      <c r="AA17" s="33">
+        <v>35</v>
+      </c>
+      <c r="AB17" s="33">
+        <f>(AA17*330)/(10^3)</f>
+        <v>11.55</v>
+      </c>
       <c r="AC17" s="33"/>
       <c r="AD17" s="33"/>
     </row>
     <row r="18" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="6">
         <v>10</v>
@@ -4474,8 +5990,7 @@
         <v>0.9</v>
       </c>
       <c r="G18" s="9">
-        <f>G10*1.2</f>
-        <v>1440</v>
+        <v>2900</v>
       </c>
       <c r="H18" s="9">
         <v>500</v>
@@ -4524,23 +6039,28 @@
       </c>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
+      <c r="AA18" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB18" s="5">
+        <f>(AA18*330)/(10^3)</f>
+        <v>15.51</v>
+      </c>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="6">
         <v>10</v>
@@ -4549,8 +6069,8 @@
         <v>0.9</v>
       </c>
       <c r="G19" s="9">
-        <f>G11*1.2</f>
-        <v>2160</v>
+        <f>ROUND(G11*1.34,0)</f>
+        <v>10050</v>
       </c>
       <c r="H19" s="9">
         <v>500</v>
@@ -4562,7 +6082,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" ref="L19:L25" si="10">J19*K19</f>
+        <f t="shared" ref="L19:L25" si="12">J19*K19</f>
         <v>2.7</v>
       </c>
       <c r="M19" s="6">
@@ -4573,7 +6093,7 @@
         <v>7</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" ref="P19:P24" si="11">O19*M19</f>
+        <f t="shared" ref="P19:P24" si="13">O19*M19</f>
         <v>6237.0000000000009</v>
       </c>
       <c r="Q19" s="5">
@@ -4591,7 +6111,7 @@
         <v>0.79</v>
       </c>
       <c r="W19" s="25">
-        <f t="shared" ref="W19:W25" si="12">(V19*M19)/(10^3)</f>
+        <f t="shared" ref="W19:W25" si="14">(V19*M19)/(10^3)</f>
         <v>0.70389000000000013</v>
       </c>
       <c r="X19" s="21">
@@ -4599,23 +6119,29 @@
       </c>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
+      <c r="AA19" s="5">
+        <f>ROUND(AA18*0.75,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AB19" s="5">
+        <f>(AA19*330)/(10^3)</f>
+        <v>11.55</v>
+      </c>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="6">
         <v>10</v>
@@ -4624,8 +6150,7 @@
         <v>0.9</v>
       </c>
       <c r="G20" s="9">
-        <f t="shared" ref="G20:G24" si="13">G12*1.2</f>
-        <v>1440</v>
+        <v>2900</v>
       </c>
       <c r="H20" s="9">
         <v>500</v>
@@ -4637,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.8</v>
       </c>
       <c r="M20" s="6">
@@ -4648,14 +6173,14 @@
         <v>30</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>27719.999999999996</v>
       </c>
       <c r="Q20" s="5">
         <v>500</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" ref="R20:R24" si="14">P20+Q20</f>
+        <f t="shared" ref="R20:R24" si="15">P20+Q20</f>
         <v>28219.999999999996</v>
       </c>
       <c r="T20" s="21">
@@ -4666,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X20" s="21">
@@ -4674,23 +6199,28 @@
       </c>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
+      <c r="AA20" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB20" s="5">
+        <f t="shared" ref="AB20:AB24" si="16">(AA20*330)/(10^3)</f>
+        <v>15.51</v>
+      </c>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="6">
         <v>10</v>
@@ -4699,8 +6229,8 @@
         <v>0.9</v>
       </c>
       <c r="G21" s="9">
-        <f t="shared" si="13"/>
-        <v>2160</v>
+        <f>G13*1.34</f>
+        <v>10050</v>
       </c>
       <c r="H21" s="9">
         <v>500</v>
@@ -4712,7 +6242,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.7</v>
       </c>
       <c r="M21" s="6">
@@ -4723,14 +6253,14 @@
         <v>30</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>26730.000000000004</v>
       </c>
       <c r="Q21" s="5">
         <v>500</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>27230.000000000004</v>
       </c>
       <c r="T21" s="21">
@@ -4741,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X21" s="21">
@@ -4749,23 +6279,29 @@
       </c>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
+      <c r="AA21" s="5">
+        <f>ROUND(AA20*0.75,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AB21" s="5">
+        <f t="shared" si="16"/>
+        <v>11.55</v>
+      </c>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="6">
         <v>10</v>
@@ -4774,7 +6310,7 @@
         <v>0.9</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="G20:G24" si="17">G14*1.2</f>
         <v>21600</v>
       </c>
       <c r="H22" s="9">
@@ -4787,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.8</v>
       </c>
       <c r="M22" s="6">
@@ -4798,14 +6334,14 @@
         <v>0</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q22" s="5">
         <v>1000</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="T22" s="21">
@@ -4816,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X22" s="21">
@@ -4824,23 +6360,28 @@
       </c>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
+      <c r="AA22" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB22" s="5">
+        <f t="shared" si="16"/>
+        <v>15.51</v>
+      </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" s="6">
         <v>10</v>
@@ -4849,8 +6390,8 @@
         <v>0.9</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" si="13"/>
-        <v>23040</v>
+        <f t="shared" si="17"/>
+        <v>28800</v>
       </c>
       <c r="H23" s="9">
         <v>500</v>
@@ -4862,7 +6403,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.7</v>
       </c>
       <c r="M23" s="6">
@@ -4873,14 +6414,14 @@
         <v>0</v>
       </c>
       <c r="P23" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q23" s="5">
         <v>1000</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="T23" s="21">
@@ -4891,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X23" s="21">
@@ -4899,23 +6440,27 @@
       </c>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
+      <c r="AA23" s="5">
+        <f>ROUND(AA22*0.75,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AB23" s="5">
+        <f t="shared" si="16"/>
+        <v>11.55</v>
+      </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="6">
         <v>10</v>
@@ -4924,7 +6469,7 @@
         <v>0.9</v>
       </c>
       <c r="G24" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>21600</v>
       </c>
       <c r="H24" s="9">
@@ -4937,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.8</v>
       </c>
       <c r="M24" s="6">
@@ -4948,14 +6493,14 @@
         <v>-0.1</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-92.399999999999991</v>
       </c>
       <c r="Q24" s="5">
         <v>1500</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1407.6</v>
       </c>
       <c r="T24" s="21">
@@ -4966,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X24" s="21">
@@ -4974,23 +6519,26 @@
       </c>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
+      <c r="AA24" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB24" s="5">
+        <f t="shared" si="16"/>
+        <v>15.51</v>
+      </c>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
     </row>
     <row r="25" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="48" t="s">
-        <v>41</v>
-      </c>
+      <c r="A25" s="48"/>
       <c r="B25" s="48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="49" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" s="50">
         <v>10</v>
@@ -5000,7 +6548,7 @@
       </c>
       <c r="G25" s="52">
         <f>G17*1.2</f>
-        <v>23040</v>
+        <v>28800</v>
       </c>
       <c r="H25" s="52">
         <v>500</v>
@@ -5013,7 +6561,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.7</v>
       </c>
       <c r="M25" s="50">
@@ -5044,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X25" s="57">
@@ -5052,23 +6600,28 @@
       </c>
       <c r="Y25" s="54"/>
       <c r="Z25" s="54"/>
-      <c r="AA25" s="54"/>
-      <c r="AB25" s="54"/>
+      <c r="AA25" s="54">
+        <v>35</v>
+      </c>
+      <c r="AB25" s="54">
+        <f>(AA25*330)/(10^3)</f>
+        <v>11.55</v>
+      </c>
       <c r="AC25" s="54"/>
       <c r="AD25" s="54"/>
     </row>
     <row r="26" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="47" t="s">
-        <v>16</v>
-      </c>
       <c r="D26" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="27">
         <v>10</v>
@@ -5127,23 +6680,28 @@
       </c>
       <c r="Y26" s="26"/>
       <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
+      <c r="AA26" s="26">
+        <v>47</v>
+      </c>
+      <c r="AB26" s="26">
+        <f>(AA26*330)/(10^3)</f>
+        <v>15.51</v>
+      </c>
       <c r="AC26" s="26"/>
       <c r="AD26" s="26"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="6">
         <v>10</v>
@@ -5152,8 +6710,8 @@
         <v>0.8</v>
       </c>
       <c r="G27" s="29">
-        <f t="shared" ref="G27:G32" si="15">G3*110%</f>
-        <v>1650.0000000000002</v>
+        <f t="shared" ref="G27:G32" si="18">G3*110%</f>
+        <v>5500</v>
       </c>
       <c r="H27" s="9">
         <v>150</v>
@@ -5165,7 +6723,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" ref="L27:L33" si="16">J27*K27</f>
+        <f t="shared" ref="L27:L33" si="19">J27*K27</f>
         <v>2.7</v>
       </c>
       <c r="M27" s="6">
@@ -5176,7 +6734,7 @@
         <v>6</v>
       </c>
       <c r="P27" s="26">
-        <f t="shared" ref="P27:P32" si="17">M27*O27</f>
+        <f t="shared" ref="P27:P32" si="20">M27*O27</f>
         <v>5346.0000000000009</v>
       </c>
       <c r="Q27" s="5">
@@ -5194,7 +6752,7 @@
         <v>0.79</v>
       </c>
       <c r="W27" s="25">
-        <f t="shared" ref="W27:W33" si="18">(V27*M27)/(10^3)</f>
+        <f t="shared" ref="W27:W33" si="21">(V27*M27)/(10^3)</f>
         <v>0.70389000000000013</v>
       </c>
       <c r="X27" s="21">
@@ -5202,23 +6760,29 @@
       </c>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
+      <c r="AA27" s="5">
+        <f>ROUND(AA26*0.75,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AB27" s="5">
+        <f>(AA27*330)/(10^3)</f>
+        <v>11.55</v>
+      </c>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="6">
         <v>10</v>
@@ -5227,7 +6791,7 @@
         <v>0.8</v>
       </c>
       <c r="G28" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1100</v>
       </c>
       <c r="H28" s="9">
@@ -5240,7 +6804,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.8</v>
       </c>
       <c r="M28" s="6">
@@ -5251,7 +6815,7 @@
         <v>20</v>
       </c>
       <c r="P28" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>18479.999999999996</v>
       </c>
       <c r="Q28" s="5">
@@ -5269,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X28" s="21">
@@ -5277,23 +6841,28 @@
       </c>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
+      <c r="AA28" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB28" s="5">
+        <f t="shared" ref="AB28:AB32" si="22">(AA28*330)/(10^3)</f>
+        <v>15.51</v>
+      </c>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" s="6">
         <v>10</v>
@@ -5302,8 +6871,8 @@
         <v>0.8</v>
       </c>
       <c r="G29" s="29">
-        <f t="shared" si="15"/>
-        <v>1650.0000000000002</v>
+        <f t="shared" si="18"/>
+        <v>5500</v>
       </c>
       <c r="H29" s="9">
         <v>150</v>
@@ -5315,7 +6884,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.7</v>
       </c>
       <c r="M29" s="6">
@@ -5326,7 +6895,7 @@
         <v>20</v>
       </c>
       <c r="P29" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>17820.000000000004</v>
       </c>
       <c r="Q29" s="5">
@@ -5344,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X29" s="21">
@@ -5352,23 +6921,29 @@
       </c>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
+      <c r="AA29" s="5">
+        <f>ROUND(AA28*0.75,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AB29" s="5">
+        <f t="shared" si="22"/>
+        <v>11.55</v>
+      </c>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="6">
         <v>10</v>
@@ -5377,7 +6952,7 @@
         <v>0.8</v>
       </c>
       <c r="G30" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>16500</v>
       </c>
       <c r="H30" s="9">
@@ -5390,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.8</v>
       </c>
       <c r="M30" s="6">
@@ -5401,14 +6976,14 @@
         <v>0</v>
       </c>
       <c r="P30" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q30" s="5">
         <v>600</v>
       </c>
       <c r="R30" s="5">
-        <f t="shared" ref="R30:R32" si="19">P30+Q30</f>
+        <f t="shared" ref="R30:R32" si="23">P30+Q30</f>
         <v>600</v>
       </c>
       <c r="T30" s="21">
@@ -5419,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X30" s="21">
@@ -5427,23 +7002,28 @@
       </c>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
+      <c r="AA30" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB30" s="5">
+        <f t="shared" si="22"/>
+        <v>15.51</v>
+      </c>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" s="6">
         <v>10</v>
@@ -5452,8 +7032,8 @@
         <v>0.8</v>
       </c>
       <c r="G31" s="29">
-        <f t="shared" si="15"/>
-        <v>17600</v>
+        <f t="shared" si="18"/>
+        <v>22000</v>
       </c>
       <c r="H31" s="9">
         <v>150</v>
@@ -5465,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.7</v>
       </c>
       <c r="M31" s="6">
@@ -5476,14 +7056,14 @@
         <v>0</v>
       </c>
       <c r="P31" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q31" s="5">
         <v>600</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>600</v>
       </c>
       <c r="T31" s="21">
@@ -5494,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X31" s="21">
@@ -5502,23 +7082,27 @@
       </c>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
+      <c r="AA31" s="5">
+        <f>ROUND(AA30*0.75,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AB31" s="5">
+        <f t="shared" si="22"/>
+        <v>11.55</v>
+      </c>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32" s="6">
         <v>10</v>
@@ -5527,7 +7111,7 @@
         <v>0.8</v>
       </c>
       <c r="G32" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>16500</v>
       </c>
       <c r="H32" s="9">
@@ -5540,7 +7124,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.8</v>
       </c>
       <c r="M32" s="6">
@@ -5551,14 +7135,14 @@
         <v>-0.5</v>
       </c>
       <c r="P32" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-461.99999999999994</v>
       </c>
       <c r="Q32" s="5">
         <v>1000</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>538</v>
       </c>
       <c r="T32" s="21">
@@ -5569,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X32" s="21">
@@ -5577,23 +7161,26 @@
       </c>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
+      <c r="AA32" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB32" s="5">
+        <f t="shared" si="22"/>
+        <v>15.51</v>
+      </c>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
     </row>
     <row r="33" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A33" s="5"/>
       <c r="B33" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" s="17">
         <v>10</v>
@@ -5603,7 +7190,7 @@
       </c>
       <c r="G33" s="38">
         <f>G9*110%</f>
-        <v>17600</v>
+        <v>22000</v>
       </c>
       <c r="H33" s="38">
         <v>150</v>
@@ -5616,7 +7203,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.7</v>
       </c>
       <c r="M33" s="17">
@@ -5635,7 +7222,7 @@
         <v>1000</v>
       </c>
       <c r="R33" s="33">
-        <f t="shared" ref="R33:R49" si="20">P33+Q33</f>
+        <f t="shared" ref="R33:R49" si="24">P33+Q33</f>
         <v>554.5</v>
       </c>
       <c r="S33" s="40"/>
@@ -5647,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X33" s="41">
@@ -5655,23 +7242,28 @@
       </c>
       <c r="Y33" s="33"/>
       <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="33"/>
+      <c r="AA33" s="33">
+        <v>35</v>
+      </c>
+      <c r="AB33" s="33">
+        <f>(AA33*330)/(10^3)</f>
+        <v>11.55</v>
+      </c>
       <c r="AC33" s="33"/>
       <c r="AD33" s="33"/>
     </row>
     <row r="34" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" s="6">
         <v>10</v>
@@ -5680,8 +7272,7 @@
         <v>0.85</v>
       </c>
       <c r="G34" s="9">
-        <f>G26*1.2</f>
-        <v>1320</v>
+        <v>1700</v>
       </c>
       <c r="H34" s="9">
         <v>400</v>
@@ -5711,7 +7302,7 @@
         <v>850</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>7317.9999999999991</v>
       </c>
       <c r="T34" s="21">
@@ -5730,23 +7321,28 @@
       </c>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
+      <c r="AA34" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB34" s="5">
+        <f>(AA34*330)/(10^3)</f>
+        <v>15.51</v>
+      </c>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="6">
         <v>10</v>
@@ -5755,8 +7351,7 @@
         <v>0.85</v>
       </c>
       <c r="G35" s="9">
-        <f t="shared" ref="G35:G40" si="21">G27*1.2</f>
-        <v>1980.0000000000002</v>
+        <v>7500</v>
       </c>
       <c r="H35" s="9">
         <v>400</v>
@@ -5768,7 +7363,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" ref="L35:L41" si="22">J35*K35</f>
+        <f t="shared" ref="L35:L41" si="25">J35*K35</f>
         <v>2.7</v>
       </c>
       <c r="M35" s="6">
@@ -5779,14 +7374,14 @@
         <v>7</v>
       </c>
       <c r="P35" s="5">
-        <f t="shared" ref="P35:P40" si="23">O35*M35</f>
+        <f t="shared" ref="P35:P40" si="26">O35*M35</f>
         <v>6237.0000000000009</v>
       </c>
       <c r="Q35" s="5">
         <v>850</v>
       </c>
       <c r="R35" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>7087.0000000000009</v>
       </c>
       <c r="T35" s="21">
@@ -5797,7 +7392,7 @@
         <v>0.79</v>
       </c>
       <c r="W35" s="25">
-        <f t="shared" ref="W35:W41" si="24">(V35*M35)/(10^3)</f>
+        <f t="shared" ref="W35:W41" si="27">(V35*M35)/(10^3)</f>
         <v>0.70389000000000013</v>
       </c>
       <c r="X35" s="21">
@@ -5805,23 +7400,29 @@
       </c>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
+      <c r="AA35" s="5">
+        <f>ROUND(AA34*0.75,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AB35" s="5">
+        <f>(AA35*330)/(10^3)</f>
+        <v>11.55</v>
+      </c>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" s="6">
         <v>10</v>
@@ -5830,8 +7431,7 @@
         <v>0.85</v>
       </c>
       <c r="G36" s="9">
-        <f t="shared" si="21"/>
-        <v>1320</v>
+        <v>1700</v>
       </c>
       <c r="H36" s="9">
         <v>400</v>
@@ -5843,7 +7443,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2.8</v>
       </c>
       <c r="M36" s="6">
@@ -5854,14 +7454,14 @@
         <v>25</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>23099.999999999996</v>
       </c>
       <c r="Q36" s="5">
         <v>450</v>
       </c>
       <c r="R36" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>23549.999999999996</v>
       </c>
       <c r="T36" s="21">
@@ -5872,7 +7472,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X36" s="21">
@@ -5880,23 +7480,28 @@
       </c>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
+      <c r="AA36" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB36" s="5">
+        <f t="shared" ref="AB36:AB40" si="28">(AA36*330)/(10^3)</f>
+        <v>15.51</v>
+      </c>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37" s="6">
         <v>10</v>
@@ -5905,8 +7510,7 @@
         <v>0.85</v>
       </c>
       <c r="G37" s="9">
-        <f t="shared" si="21"/>
-        <v>1980.0000000000002</v>
+        <v>7500</v>
       </c>
       <c r="H37" s="9">
         <v>400</v>
@@ -5918,7 +7522,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2.7</v>
       </c>
       <c r="M37" s="6">
@@ -5929,14 +7533,14 @@
         <v>25</v>
       </c>
       <c r="P37" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>22275.000000000004</v>
       </c>
       <c r="Q37" s="5">
         <v>450</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>22725.000000000004</v>
       </c>
       <c r="T37" s="21">
@@ -5947,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X37" s="21">
@@ -5955,23 +7559,29 @@
       </c>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
+      <c r="AA37" s="5">
+        <f>ROUND(AA36*0.75,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AB37" s="5">
+        <f t="shared" si="28"/>
+        <v>11.55</v>
+      </c>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E38" s="6">
         <v>10</v>
@@ -5980,7 +7590,7 @@
         <v>0.85</v>
       </c>
       <c r="G38" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="G35:G40" si="29">G30*1.2</f>
         <v>19800</v>
       </c>
       <c r="H38" s="9">
@@ -5993,7 +7603,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2.8</v>
       </c>
       <c r="M38" s="6">
@@ -6004,14 +7614,14 @@
         <v>0</v>
       </c>
       <c r="P38" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q38" s="5">
         <v>850</v>
       </c>
       <c r="R38" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>850</v>
       </c>
       <c r="T38" s="21">
@@ -6022,7 +7632,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X38" s="21">
@@ -6030,23 +7640,28 @@
       </c>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
+      <c r="AA38" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB38" s="5">
+        <f t="shared" si="28"/>
+        <v>15.51</v>
+      </c>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E39" s="6">
         <v>10</v>
@@ -6055,8 +7670,8 @@
         <v>0.85</v>
       </c>
       <c r="G39" s="9">
-        <f t="shared" si="21"/>
-        <v>21120</v>
+        <f t="shared" si="29"/>
+        <v>26400</v>
       </c>
       <c r="H39" s="9">
         <v>400</v>
@@ -6068,7 +7683,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2.7</v>
       </c>
       <c r="M39" s="6">
@@ -6079,14 +7694,14 @@
         <v>0</v>
       </c>
       <c r="P39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q39" s="5">
         <v>850</v>
       </c>
       <c r="R39" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>850</v>
       </c>
       <c r="T39" s="21">
@@ -6097,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X39" s="21">
@@ -6105,23 +7720,27 @@
       </c>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
+      <c r="AA39" s="5">
+        <f>ROUND(AA38*0.75,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AB39" s="5">
+        <f t="shared" si="28"/>
+        <v>11.55</v>
+      </c>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40" s="6">
         <v>10</v>
@@ -6130,7 +7749,7 @@
         <v>0.85</v>
       </c>
       <c r="G40" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>19800</v>
       </c>
       <c r="H40" s="9">
@@ -6143,7 +7762,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2.8</v>
       </c>
       <c r="M40" s="6">
@@ -6154,14 +7773,14 @@
         <v>-0.25</v>
       </c>
       <c r="P40" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-230.99999999999997</v>
       </c>
       <c r="Q40" s="5">
         <v>1250</v>
       </c>
       <c r="R40" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1019</v>
       </c>
       <c r="T40" s="21">
@@ -6172,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X40" s="21">
@@ -6180,23 +7799,26 @@
       </c>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
+      <c r="AA40" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB40" s="5">
+        <f t="shared" si="28"/>
+        <v>15.51</v>
+      </c>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
     </row>
     <row r="41" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A41" s="5"/>
       <c r="B41" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E41" s="17">
         <v>10</v>
@@ -6206,7 +7828,7 @@
       </c>
       <c r="G41" s="38">
         <f>G33*1.2</f>
-        <v>21120</v>
+        <v>26400</v>
       </c>
       <c r="H41" s="38">
         <v>400</v>
@@ -6219,7 +7841,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2.7</v>
       </c>
       <c r="M41" s="17">
@@ -6238,7 +7860,7 @@
         <v>1250</v>
       </c>
       <c r="R41" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1027.25</v>
       </c>
       <c r="S41" s="40"/>
@@ -6250,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X41" s="41">
@@ -6258,23 +7880,28 @@
       </c>
       <c r="Y41" s="33"/>
       <c r="Z41" s="33"/>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="33"/>
+      <c r="AA41" s="33">
+        <v>35</v>
+      </c>
+      <c r="AB41" s="33">
+        <f>(AA41*330)/(10^3)</f>
+        <v>11.55</v>
+      </c>
       <c r="AC41" s="33"/>
       <c r="AD41" s="33"/>
     </row>
     <row r="42" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D42" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E42" s="6">
         <v>10</v>
@@ -6283,8 +7910,7 @@
         <v>0.9</v>
       </c>
       <c r="G42" s="9">
-        <f>G34*1.2</f>
-        <v>1584</v>
+        <v>2900</v>
       </c>
       <c r="H42" s="9">
         <v>800</v>
@@ -6314,7 +7940,7 @@
         <v>1250</v>
       </c>
       <c r="R42" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>8642</v>
       </c>
       <c r="T42" s="21">
@@ -6333,23 +7959,28 @@
       </c>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5"/>
+      <c r="AA42" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB42" s="5">
+        <f>(AA42*330)/(10^3)</f>
+        <v>15.51</v>
+      </c>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E43" s="6">
         <v>10</v>
@@ -6358,8 +7989,7 @@
         <v>0.9</v>
       </c>
       <c r="G43" s="9">
-        <f t="shared" ref="G43:G48" si="25">G35*1.2</f>
-        <v>2376</v>
+        <v>10000</v>
       </c>
       <c r="H43" s="9">
         <v>800</v>
@@ -6371,7 +8001,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="6">
-        <f t="shared" ref="L43:L49" si="26">J43*K43</f>
+        <f t="shared" ref="L43:L49" si="30">J43*K43</f>
         <v>2.7</v>
       </c>
       <c r="M43" s="6">
@@ -6382,14 +8012,14 @@
         <v>8</v>
       </c>
       <c r="P43" s="5">
-        <f t="shared" ref="P43:P48" si="27">O43*M43</f>
+        <f t="shared" ref="P43:P48" si="31">O43*M43</f>
         <v>7128.0000000000009</v>
       </c>
       <c r="Q43" s="5">
         <v>1250</v>
       </c>
       <c r="R43" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>8378</v>
       </c>
       <c r="T43" s="21">
@@ -6400,7 +8030,7 @@
         <v>0.79</v>
       </c>
       <c r="W43" s="25">
-        <f t="shared" ref="W43:W49" si="28">(V43*M43)/(10^3)</f>
+        <f t="shared" ref="W43:W49" si="32">(V43*M43)/(10^3)</f>
         <v>0.70389000000000013</v>
       </c>
       <c r="X43" s="21">
@@ -6408,23 +8038,29 @@
       </c>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
+      <c r="AA43" s="5">
+        <f>ROUND(AA42*0.75,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AB43" s="5">
+        <f>(AA43*330)/(10^3)</f>
+        <v>11.55</v>
+      </c>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E44" s="6">
         <v>10</v>
@@ -6433,8 +8069,7 @@
         <v>0.9</v>
       </c>
       <c r="G44" s="9">
-        <f t="shared" si="25"/>
-        <v>1584</v>
+        <v>2900</v>
       </c>
       <c r="H44" s="9">
         <v>800</v>
@@ -6446,7 +8081,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2.8</v>
       </c>
       <c r="M44" s="6">
@@ -6457,14 +8092,14 @@
         <v>50</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>46199.999999999993</v>
       </c>
       <c r="Q44" s="5">
         <v>750</v>
       </c>
       <c r="R44" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>46949.999999999993</v>
       </c>
       <c r="T44" s="21">
@@ -6475,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="X44" s="21">
@@ -6483,23 +8118,28 @@
       </c>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
+      <c r="AA44" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB44" s="5">
+        <f t="shared" ref="AB44:AB48" si="33">(AA44*330)/(10^3)</f>
+        <v>15.51</v>
+      </c>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E45" s="6">
         <v>10</v>
@@ -6508,8 +8148,7 @@
         <v>0.9</v>
       </c>
       <c r="G45" s="9">
-        <f t="shared" si="25"/>
-        <v>2376</v>
+        <v>10000</v>
       </c>
       <c r="H45" s="9">
         <v>800</v>
@@ -6521,7 +8160,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2.7</v>
       </c>
       <c r="M45" s="6">
@@ -6532,14 +8171,14 @@
         <v>50</v>
       </c>
       <c r="P45" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>44550.000000000007</v>
       </c>
       <c r="Q45" s="5">
         <v>750</v>
       </c>
       <c r="R45" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>45300.000000000007</v>
       </c>
       <c r="T45" s="21">
@@ -6550,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="X45" s="21">
@@ -6558,23 +8197,29 @@
       </c>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
+      <c r="AA45" s="5">
+        <f>ROUND(AA44*0.75,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AB45" s="5">
+        <f t="shared" si="33"/>
+        <v>11.55</v>
+      </c>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E46" s="6">
         <v>10</v>
@@ -6583,7 +8228,7 @@
         <v>0.9</v>
       </c>
       <c r="G46" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="G43:G48" si="34">G38*1.2</f>
         <v>23760</v>
       </c>
       <c r="H46" s="9">
@@ -6596,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2.8</v>
       </c>
       <c r="M46" s="6">
@@ -6607,14 +8252,14 @@
         <v>0</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q46" s="5">
         <v>1250</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1250</v>
       </c>
       <c r="T46" s="21">
@@ -6625,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="X46" s="21">
@@ -6633,23 +8278,28 @@
       </c>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5"/>
+      <c r="AA46" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB46" s="5">
+        <f t="shared" si="33"/>
+        <v>15.51</v>
+      </c>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E47" s="6">
         <v>10</v>
@@ -6658,8 +8308,8 @@
         <v>0.9</v>
       </c>
       <c r="G47" s="9">
-        <f t="shared" si="25"/>
-        <v>25344</v>
+        <f t="shared" si="34"/>
+        <v>31680</v>
       </c>
       <c r="H47" s="9">
         <v>800</v>
@@ -6671,7 +8321,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2.7</v>
       </c>
       <c r="M47" s="6">
@@ -6682,14 +8332,14 @@
         <v>0</v>
       </c>
       <c r="P47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q47" s="5">
         <v>1250</v>
       </c>
       <c r="R47" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1250</v>
       </c>
       <c r="T47" s="21">
@@ -6700,7 +8350,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="X47" s="21">
@@ -6708,23 +8358,27 @@
       </c>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
+      <c r="AA47" s="5">
+        <f>ROUND(AA46*0.75,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AB47" s="5">
+        <f t="shared" si="33"/>
+        <v>11.55</v>
+      </c>
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A48" s="5"/>
       <c r="B48" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E48" s="6">
         <v>10</v>
@@ -6733,7 +8387,7 @@
         <v>0.9</v>
       </c>
       <c r="G48" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>23760</v>
       </c>
       <c r="H48" s="9">
@@ -6746,7 +8400,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2.8</v>
       </c>
       <c r="M48" s="6">
@@ -6757,14 +8411,14 @@
         <v>-0.1</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-92.399999999999991</v>
       </c>
       <c r="Q48" s="5">
         <v>1500</v>
       </c>
       <c r="R48" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1407.6</v>
       </c>
       <c r="T48" s="21">
@@ -6775,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="X48" s="21">
@@ -6783,23 +8437,26 @@
       </c>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="5"/>
+      <c r="AA48" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB48" s="5">
+        <f t="shared" si="33"/>
+        <v>15.51</v>
+      </c>
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
     </row>
     <row r="49" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A49" s="5"/>
       <c r="B49" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E49" s="17">
         <v>10</v>
@@ -6809,7 +8466,7 @@
       </c>
       <c r="G49" s="38">
         <f>G41*1.2</f>
-        <v>25344</v>
+        <v>31680</v>
       </c>
       <c r="H49" s="38">
         <v>800</v>
@@ -6822,7 +8479,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2.7</v>
       </c>
       <c r="M49" s="17">
@@ -6841,7 +8498,7 @@
         <v>1500</v>
       </c>
       <c r="R49" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1410.9</v>
       </c>
       <c r="S49" s="40"/>
@@ -6853,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="X49" s="41">
@@ -6861,27 +8518,33 @@
       </c>
       <c r="Y49" s="33"/>
       <c r="Z49" s="33"/>
-      <c r="AA49" s="33"/>
-      <c r="AB49" s="33"/>
+      <c r="AA49" s="33">
+        <v>35</v>
+      </c>
+      <c r="AB49" s="33">
+        <f>(AA49*330)/(10^3)</f>
+        <v>11.55</v>
+      </c>
       <c r="AC49" s="33"/>
       <c r="AD49" s="33"/>
     </row>
     <row r="50" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="T55" t="s">
+        <v>50</v>
+      </c>
+      <c r="U55" t="s">
         <v>51</v>
-      </c>
-      <c r="U55" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="U56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6897,13 +8560,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">

--- a/cook-fuel-stove.xlsx
+++ b/cook-fuel-stove.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00-Bikash\01-cooking\01-analysis-files\TEA-cook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bikash/My Drive (bikash@vasudhaindia.org)/01-cooking/01-analysis-files/TEA-cook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621015F6-31A0-4645-B0FC-B81F2A4EED09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E545A2-1A7F-9144-812B-80E45B975897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7EBAAA4E-59CC-FC40-A9EE-7A0CED89A0F9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{7EBAAA4E-59CC-FC40-A9EE-7A0CED89A0F9}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
-    <sheet name="e-cooking" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="hh-profile" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="annexures" sheetId="6" r:id="rId2"/>
+    <sheet name="e-cooking" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="hh-profile" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -67,7 +79,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -76,16 +88,71 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-The thermal efficiency of traditional, natural draft and FD cookstoves
-were in the range of 15-17%, 16-27% and 30-35% respectively for different types of solid biomass fuels.
-Evaluation of the performance of improved biomass cooking stoves
-with different solid biomass fuel types
-R. Suresh a, V.K. Singh b, J.K. Malik a, A. Datta a, *, R.C. Pal c</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The thermal efficiency of traditional, natural draft and FD cookstoves
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">were in the range of 15-17%, 16-27% and 30-35% respectively for different types of solid biomass fuels.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Evaluation of the performance of improved biomass cooking stoves
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">with different solid biomass fuel types
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>R. Suresh a, V.K. Singh b, J.K. Malik a, A. Datta a, *, R.C. Pal c</t>
         </r>
       </text>
     </comment>
@@ -266,19 +333,10 @@
     </comment>
     <comment ref="V8" authorId="1" shapeId="0" xr:uid="{D6D45B34-63C1-E643-A96F-1EA2F6555628}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Check the emission factor</t>
-        </r>
       </text>
     </comment>
     <comment ref="AA8" authorId="0" shapeId="0" xr:uid="{DFAF0260-9C85-4C4D-AC30-38A3FB142144}">
@@ -455,36 +513,18 @@
     </comment>
     <comment ref="V18" authorId="2" shapeId="0" xr:uid="{4C8744A5-6485-F34B-B795-D5CA2CF2D9AE}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Check the emission factor</t>
-        </r>
       </text>
     </comment>
     <comment ref="V28" authorId="3" shapeId="0" xr:uid="{A8EC30E5-1FB3-9A45-ADA8-1D01A5459B0F}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Check the emission factor</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -634,36 +674,18 @@
     </comment>
     <comment ref="B8" authorId="1" shapeId="0" xr:uid="{9E4260F5-A750-E741-BE5E-4E0F804BE29B}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Solar rooftop (capex)</t>
-        </r>
       </text>
     </comment>
     <comment ref="B9" authorId="2" shapeId="0" xr:uid="{F4213234-2F6A-2E4F-84FA-AE5471F61469}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Solar rooftop (capex)</t>
-        </r>
       </text>
     </comment>
     <comment ref="AA10" authorId="0" shapeId="0" xr:uid="{970178B8-E3FB-40C5-89AB-396867A567DD}">
@@ -692,19 +714,10 @@
     </comment>
     <comment ref="A11" authorId="3" shapeId="0" xr:uid="{B7238FCF-9CCD-FE41-B170-D3AC62818411}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Rural</t>
-        </r>
       </text>
     </comment>
     <comment ref="AA15" authorId="0" shapeId="0" xr:uid="{BE640D62-A8AE-4CC2-A71D-718CFB56A451}">
@@ -757,36 +770,18 @@
     </comment>
     <comment ref="B19" authorId="4" shapeId="0" xr:uid="{F76DD1FA-9EDF-894E-9682-549D84E698C4}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Solar rooftop (capex)</t>
-        </r>
       </text>
     </comment>
     <comment ref="B20" authorId="5" shapeId="0" xr:uid="{EEF9017A-5A15-7C4D-BD32-322887C94870}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Solar rooftop (capex)</t>
-        </r>
       </text>
     </comment>
     <comment ref="AA21" authorId="0" shapeId="0" xr:uid="{711140D8-E134-47AF-94D3-5B59ABECB7CD}">
@@ -863,36 +858,18 @@
     </comment>
     <comment ref="B30" authorId="6" shapeId="0" xr:uid="{025273C9-BFAC-204E-9DF7-C9AE208314AA}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Solar rooftop (capex)</t>
-        </r>
       </text>
     </comment>
     <comment ref="B31" authorId="7" shapeId="0" xr:uid="{B26A7EB4-4871-E945-AC62-51E6768D0688}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Solar rooftop (capex)</t>
-        </r>
       </text>
     </comment>
     <comment ref="AA32" authorId="0" shapeId="0" xr:uid="{A36B4087-C826-44E9-B903-0FA1F87C544F}">
@@ -969,36 +946,18 @@
     </comment>
     <comment ref="B41" authorId="8" shapeId="0" xr:uid="{8A59512A-E800-F541-B85D-2DB0CC29209A}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Solar rooftop (capex)</t>
-        </r>
       </text>
     </comment>
     <comment ref="B42" authorId="9" shapeId="0" xr:uid="{91DF629E-F382-A34D-A377-EB3ACF8C8448}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Solar rooftop (capex)</t>
-        </r>
       </text>
     </comment>
     <comment ref="AA43" authorId="0" shapeId="0" xr:uid="{434F9074-2D9A-4499-B8FF-84B37681F9A8}">
@@ -1075,36 +1034,18 @@
     </comment>
     <comment ref="B52" authorId="10" shapeId="0" xr:uid="{926A7ED9-B53B-3048-847A-760864FA7126}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Solar rooftop (capex)</t>
-        </r>
       </text>
     </comment>
     <comment ref="B53" authorId="11" shapeId="0" xr:uid="{9006F089-4225-E544-A101-0262BB2BC064}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Solar rooftop (capex)</t>
-        </r>
       </text>
     </comment>
     <comment ref="AA54" authorId="0" shapeId="0" xr:uid="{6BBBADC2-93CA-476C-B608-6FA3A6E25388}">
@@ -1181,36 +1122,18 @@
     </comment>
     <comment ref="B63" authorId="12" shapeId="0" xr:uid="{4A415844-F674-114D-9357-F81950513821}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Solar rooftop (capex)</t>
-        </r>
       </text>
     </comment>
     <comment ref="B64" authorId="13" shapeId="0" xr:uid="{8BF39043-A68B-704A-98A0-EEBCA07B36DB}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Solar rooftop (capex)</t>
-        </r>
       </text>
     </comment>
     <comment ref="AA65" authorId="0" shapeId="0" xr:uid="{EADC0662-88D1-47A8-9B0E-9AE85867D11C}">
@@ -1659,7 +1582,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="210">
   <si>
     <t>Biogas</t>
   </si>
@@ -2635,17 +2558,113 @@
 3) Chemical leaching
 4) Electrical hazards</t>
   </si>
+  <si>
+    <t>Stove Type</t>
+  </si>
+  <si>
+    <t>Life (years)</t>
+  </si>
+  <si>
+    <t>70% to 80%</t>
+  </si>
+  <si>
+    <t>80% to 90%</t>
+  </si>
+  <si>
+    <t>Thermal Efficiency (%)</t>
+  </si>
+  <si>
+    <t>Capex (INR)</t>
+  </si>
+  <si>
+    <t>INR 40,000 to INR 60,000</t>
+  </si>
+  <si>
+    <t>INR 1,100 to INR 2,500</t>
+  </si>
+  <si>
+    <t>INR 1,000 to INR 2,000</t>
+  </si>
+  <si>
+    <t>INR 1,000 to INR 2,900</t>
+  </si>
+  <si>
+    <t>INR 2,000 to INR 5,800</t>
+  </si>
+  <si>
+    <t>INR 5,000 to INR 10,000</t>
+  </si>
+  <si>
+    <t>INR 1000</t>
+  </si>
+  <si>
+    <t>INR 750 to INR 900</t>
+  </si>
+  <si>
+    <t>Annual Income (INR)</t>
+  </si>
+  <si>
+    <t>Socio-economic status</t>
+  </si>
+  <si>
+    <t>Area Type</t>
+  </si>
+  <si>
+    <t>Daily IHAP - PM 2.5 (μg/m3)</t>
+  </si>
+  <si>
+    <t>Daily Cooking Duration (hours)</t>
+  </si>
+  <si>
+    <t>3.6 to 4</t>
+  </si>
+  <si>
+    <t>3.2 to 3.5</t>
+  </si>
+  <si>
+    <t>2.9 to 3.3</t>
+  </si>
+  <si>
+    <t>2.7 to 3</t>
+  </si>
+  <si>
+    <t>3.9 to 4.1</t>
+  </si>
+  <si>
+    <t>2.6 to 2.8</t>
+  </si>
+  <si>
+    <t>Fuel Type</t>
+  </si>
+  <si>
+    <t>Unit Carbon Emission (MtCO2eq./kWh)</t>
+  </si>
+  <si>
+    <t>Unit Cost (INR/kWh)</t>
+  </si>
+  <si>
+    <t>Solar PV rooftop</t>
+  </si>
+  <si>
+    <t>1.27 to 1.41</t>
+  </si>
+  <si>
+    <t>1.21 to 1.35</t>
+  </si>
+  <si>
+    <t>1 to 7.24</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;₹&quot;* #,##0_);_(&quot;₹&quot;* \(#,##0\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;₹&quot;* #,##0_);_(&quot;₹&quot;* \(#,##0\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2785,6 +2804,12 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3008,12 +3033,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3037,11 +3063,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3067,8 +3093,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3081,11 +3107,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3100,15 +3126,15 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3132,7 +3158,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -3143,24 +3169,21 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3173,11 +3196,27 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{837ACBA2-2396-441B-8BC4-B097FC454B13}"/>
+    <cellStyle name="Per cent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -3558,39 +3597,39 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC22" sqref="AC22:AC31"/>
+      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V8" sqref="V8:V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="30.796875" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="15.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="11.5" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.796875" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="2.69921875" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="17" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="15.5" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="17.296875" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="3.19921875" customWidth="1"/>
-    <col min="15" max="18" width="10.796875" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="18.796875" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="13.69921875" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="18.69921875" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="27.796875" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="3.1640625" customWidth="1"/>
+    <col min="15" max="18" width="10.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="18.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="18.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="27.83203125" customWidth="1" outlineLevel="1"/>
     <col min="24" max="24" width="26" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="22.5" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="17.19921875" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="17.1640625" customWidth="1" outlineLevel="1"/>
     <col min="28" max="28" width="18.5" customWidth="1" outlineLevel="1"/>
     <col min="29" max="29" width="13" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="17.19921875" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="17.1640625" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>38</v>
       </c>
@@ -3673,7 +3712,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
@@ -3764,7 +3803,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -3853,7 +3892,7 @@
       </c>
       <c r="AD3" s="5"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
@@ -3943,7 +3982,7 @@
       </c>
       <c r="AD4" s="5"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
@@ -3986,9 +4025,17 @@
       <c r="O5" s="5">
         <v>1.35</v>
       </c>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="22"/>
+      <c r="P5" s="21">
+        <f t="shared" si="3"/>
+        <v>1608.2550000000001</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>500</v>
+      </c>
+      <c r="R5" s="22">
+        <f>P5+Q5</f>
+        <v>2108.2550000000001</v>
+      </c>
       <c r="T5" s="9">
         <v>200000</v>
       </c>
@@ -4015,7 +4062,7 @@
       </c>
       <c r="AD5" s="5"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -4058,9 +4105,17 @@
       <c r="O6" s="5">
         <v>1.28</v>
       </c>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="22"/>
+      <c r="P6" s="21">
+        <f t="shared" si="3"/>
+        <v>1334.2559999999999</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>750</v>
+      </c>
+      <c r="R6" s="22">
+        <f t="shared" ref="R6:R7" si="7">P6+Q6</f>
+        <v>2084.2559999999999</v>
+      </c>
       <c r="T6" s="9">
         <v>200000</v>
       </c>
@@ -4087,7 +4142,7 @@
       </c>
       <c r="AD6" s="5"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
@@ -4130,9 +4185,17 @@
       <c r="O7" s="5">
         <v>1.21</v>
       </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="22"/>
+      <c r="P7" s="21">
+        <f t="shared" si="3"/>
+        <v>1171.1968124999999</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>1000</v>
+      </c>
+      <c r="R7" s="22">
+        <f t="shared" si="7"/>
+        <v>2171.1968124999999</v>
+      </c>
       <c r="T7" s="9">
         <v>200000</v>
       </c>
@@ -4159,7 +4222,7 @@
       </c>
       <c r="AD7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
@@ -4187,7 +4250,7 @@
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="59">
-        <f t="shared" ref="J8:J10" si="7">J18*0.95</f>
+        <f t="shared" ref="J8:J10" si="8">J18*0.95</f>
         <v>2.7074999999999996</v>
       </c>
       <c r="K8" s="24">
@@ -4248,7 +4311,7 @@
       </c>
       <c r="AD8" s="5"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
@@ -4276,7 +4339,7 @@
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.7074999999999996</v>
       </c>
       <c r="K9" s="24">
@@ -4336,7 +4399,7 @@
       </c>
       <c r="AD9" s="5"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -4364,7 +4427,7 @@
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.7074999999999996</v>
       </c>
       <c r="K10" s="24">
@@ -4425,7 +4488,7 @@
       </c>
       <c r="AD10" s="5"/>
     </row>
-    <row r="11" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>40</v>
       </c>
@@ -4460,7 +4523,7 @@
         <v>2</v>
       </c>
       <c r="L11" s="61">
-        <f t="shared" ref="L11" si="8">J11*K11</f>
+        <f t="shared" ref="L11" si="9">J11*K11</f>
         <v>5.4149999999999991</v>
       </c>
       <c r="M11" s="64">
@@ -4472,14 +4535,14 @@
         <v>6.38</v>
       </c>
       <c r="P11" s="41">
-        <f t="shared" ref="P11" si="9">O11*M11</f>
+        <f t="shared" ref="P11" si="10">O11*M11</f>
         <v>11400.740999999998</v>
       </c>
       <c r="Q11" s="41">
         <v>1000</v>
       </c>
       <c r="R11" s="42">
-        <f t="shared" ref="R11" si="10">P11+Q11</f>
+        <f t="shared" ref="R11" si="11">P11+Q11</f>
         <v>12400.740999999998</v>
       </c>
       <c r="S11" s="40"/>
@@ -4493,7 +4556,7 @@
         <v>0.23</v>
       </c>
       <c r="W11" s="43">
-        <f t="shared" ref="W11" si="11">(M11*V11)/(10^3)</f>
+        <f t="shared" ref="W11" si="12">(M11*V11)/(10^3)</f>
         <v>0.41099849999999999</v>
       </c>
       <c r="X11" s="41" t="s">
@@ -4515,7 +4578,7 @@
       </c>
       <c r="AD11" s="5"/>
     </row>
-    <row r="12" spans="1:32" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>39</v>
       </c>
@@ -4602,7 +4665,7 @@
       </c>
       <c r="AD12" s="5"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
@@ -4637,7 +4700,7 @@
         <v>4.2084999999999999</v>
       </c>
       <c r="L13" s="60">
-        <f t="shared" ref="L13:L21" si="12">J13*K13</f>
+        <f t="shared" ref="L13:L21" si="13">J13*K13</f>
         <v>13.993262499999998</v>
       </c>
       <c r="M13" s="63">
@@ -4648,14 +4711,14 @@
         <v>1.34</v>
       </c>
       <c r="P13" s="21">
-        <f t="shared" ref="P13:P21" si="13">O13*M13</f>
+        <f t="shared" ref="P13:P21" si="14">O13*M13</f>
         <v>6187.8206774999999</v>
       </c>
       <c r="Q13" s="21">
         <v>1000</v>
       </c>
       <c r="R13" s="22">
-        <f t="shared" ref="R13:R21" si="14">P13+Q13</f>
+        <f t="shared" ref="R13:R21" si="15">P13+Q13</f>
         <v>7187.8206774999999</v>
       </c>
       <c r="T13" s="9">
@@ -4668,7 +4731,7 @@
         <v>0.4</v>
       </c>
       <c r="W13" s="24">
-        <f t="shared" ref="W13:W21" si="15">(M13*V13)/(10^3)</f>
+        <f t="shared" ref="W13:W21" si="16">(M13*V13)/(10^3)</f>
         <v>1.8471106499999999</v>
       </c>
       <c r="X13" s="21" t="s">
@@ -4689,7 +4752,7 @@
       </c>
       <c r="AD13" s="5"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
@@ -4712,7 +4775,7 @@
         <v>1000</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" ref="H14:H20" si="16">G14*0.1</f>
+        <f t="shared" ref="H14:H20" si="17">G14*0.1</f>
         <v>100</v>
       </c>
       <c r="I14" s="11"/>
@@ -4724,7 +4787,7 @@
         <v>3.9869999999999997</v>
       </c>
       <c r="L14" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12.309862499999998</v>
       </c>
       <c r="M14" s="63">
@@ -4735,14 +4798,14 @@
         <v>1.27</v>
       </c>
       <c r="P14" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5159.0633737499993</v>
       </c>
       <c r="Q14" s="21">
         <v>1250</v>
       </c>
       <c r="R14" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6409.0633737499993</v>
       </c>
       <c r="T14" s="9">
@@ -4755,7 +4818,7 @@
         <v>0.4</v>
       </c>
       <c r="W14" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.6249018499999996</v>
       </c>
       <c r="X14" s="21" t="s">
@@ -4776,7 +4839,7 @@
       </c>
       <c r="AD14" s="5"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
@@ -4799,7 +4862,7 @@
         <v>600</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="I15" s="11"/>
@@ -4818,9 +4881,17 @@
       <c r="O15" s="5">
         <v>1.35</v>
       </c>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="22"/>
+      <c r="P15" s="21">
+        <f t="shared" si="14"/>
+        <v>1692.9</v>
+      </c>
+      <c r="Q15" s="30">
+        <v>750</v>
+      </c>
+      <c r="R15" s="22">
+        <f>P15+Q15</f>
+        <v>2442.9</v>
+      </c>
       <c r="T15" s="9">
         <v>570000</v>
       </c>
@@ -4839,7 +4910,7 @@
         <v>1230</v>
       </c>
       <c r="AB15" s="5">
-        <f t="shared" ref="AB15:AB17" si="17">(AA15*330)/1000</f>
+        <f t="shared" ref="AB15:AB17" si="18">(AA15*330)/1000</f>
         <v>405.9</v>
       </c>
       <c r="AC15" s="5" t="s">
@@ -4847,7 +4918,7 @@
       </c>
       <c r="AD15" s="5"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
@@ -4870,7 +4941,7 @@
         <v>800</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>80</v>
       </c>
       <c r="I16" s="11"/>
@@ -4889,9 +4960,17 @@
       <c r="O16" s="5">
         <v>1.28</v>
       </c>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="22"/>
+      <c r="P16" s="21">
+        <f t="shared" si="14"/>
+        <v>1404.48</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>1000</v>
+      </c>
+      <c r="R16" s="22">
+        <f t="shared" ref="R16:R17" si="19">P16+Q16</f>
+        <v>2404.48</v>
+      </c>
       <c r="T16" s="9">
         <v>570000</v>
       </c>
@@ -4910,7 +4989,7 @@
         <v>410</v>
       </c>
       <c r="AB16" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>135.30000000000001</v>
       </c>
       <c r="AC16" s="5" t="s">
@@ -4918,7 +4997,7 @@
       </c>
       <c r="AD16" s="5"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -4941,7 +5020,7 @@
         <v>1000</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="I17" s="11"/>
@@ -4960,9 +5039,17 @@
       <c r="O17" s="5">
         <v>1.21</v>
       </c>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="22"/>
+      <c r="P17" s="21">
+        <f t="shared" si="14"/>
+        <v>1232.8387499999999</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>1250</v>
+      </c>
+      <c r="R17" s="22">
+        <f t="shared" si="19"/>
+        <v>2482.8387499999999</v>
+      </c>
       <c r="T17" s="9">
         <v>570000</v>
       </c>
@@ -4981,7 +5068,7 @@
         <v>165</v>
       </c>
       <c r="AB17" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>54.45</v>
       </c>
       <c r="AC17" s="5" t="s">
@@ -4989,7 +5076,7 @@
       </c>
       <c r="AD17" s="5"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>39</v>
       </c>
@@ -5012,19 +5099,19 @@
         <v>50000</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="62">
-        <f t="shared" ref="J18:J20" si="18">0.95*J28</f>
+        <f t="shared" ref="J18:J20" si="20">0.95*J28</f>
         <v>2.8499999999999996</v>
       </c>
       <c r="K18" s="24">
         <v>2.2000000000000002</v>
       </c>
       <c r="L18" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.27</v>
       </c>
       <c r="M18" s="63">
@@ -5035,14 +5122,14 @@
         <v>1.5</v>
       </c>
       <c r="P18" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3103.6499999999996</v>
       </c>
       <c r="Q18" s="21">
         <v>1250</v>
       </c>
       <c r="R18" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4353.6499999999996</v>
       </c>
       <c r="T18" s="9">
@@ -5055,7 +5142,7 @@
         <v>0.15</v>
       </c>
       <c r="W18" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.31036499999999995</v>
       </c>
       <c r="X18" s="21" t="s">
@@ -5076,7 +5163,7 @@
       </c>
       <c r="AD18" s="5"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
@@ -5099,19 +5186,19 @@
         <v>1250</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>125</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.8499999999999996</v>
       </c>
       <c r="K19" s="24">
         <v>2</v>
       </c>
       <c r="L19" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.6999999999999993</v>
       </c>
       <c r="M19" s="63">
@@ -5122,14 +5209,14 @@
         <v>6.38</v>
       </c>
       <c r="P19" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12000.779999999999</v>
       </c>
       <c r="Q19" s="21">
         <v>1250</v>
       </c>
       <c r="R19" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13250.779999999999</v>
       </c>
       <c r="T19" s="9">
@@ -5142,7 +5229,7 @@
         <v>0.23</v>
       </c>
       <c r="W19" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.43262999999999996</v>
       </c>
       <c r="X19" s="21" t="s">
@@ -5163,7 +5250,7 @@
       </c>
       <c r="AD19" s="5"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
@@ -5186,19 +5273,19 @@
         <v>1300</v>
       </c>
       <c r="H20" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>130</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.8499999999999996</v>
       </c>
       <c r="K20" s="24">
         <v>2</v>
       </c>
       <c r="L20" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.6999999999999993</v>
       </c>
       <c r="M20" s="63">
@@ -5209,14 +5296,14 @@
         <v>5.86</v>
       </c>
       <c r="P20" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11022.66</v>
       </c>
       <c r="Q20" s="21">
         <v>1250</v>
       </c>
       <c r="R20" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12272.66</v>
       </c>
       <c r="T20" s="9">
@@ -5229,7 +5316,7 @@
         <v>0.2</v>
       </c>
       <c r="W20" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.37619999999999998</v>
       </c>
       <c r="X20" s="21" t="s">
@@ -5250,7 +5337,7 @@
       </c>
       <c r="AD20" s="5"/>
     </row>
-    <row r="21" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>40</v>
       </c>
@@ -5285,7 +5372,7 @@
         <v>2</v>
       </c>
       <c r="L21" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.6999999999999993</v>
       </c>
       <c r="M21" s="64">
@@ -5297,14 +5384,14 @@
         <v>6.38</v>
       </c>
       <c r="P21" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12000.779999999999</v>
       </c>
       <c r="Q21" s="41">
         <v>1250</v>
       </c>
       <c r="R21" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13250.779999999999</v>
       </c>
       <c r="S21" s="40"/>
@@ -5316,7 +5403,7 @@
         <v>0.23</v>
       </c>
       <c r="W21" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.43262999999999996</v>
       </c>
       <c r="X21" s="41" t="s">
@@ -5337,7 +5424,7 @@
       </c>
       <c r="AD21" s="5"/>
     </row>
-    <row r="22" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>39</v>
       </c>
@@ -5423,7 +5510,7 @@
       </c>
       <c r="AD22" s="5"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>39</v>
       </c>
@@ -5457,7 +5544,7 @@
         <v>4.2084999999999999</v>
       </c>
       <c r="L23" s="60">
-        <f t="shared" ref="L23:L31" si="19">J23*K23</f>
+        <f t="shared" ref="L23:L31" si="21">J23*K23</f>
         <v>14.729749999999999</v>
       </c>
       <c r="M23" s="63">
@@ -5468,14 +5555,14 @@
         <v>1.34</v>
       </c>
       <c r="P23" s="21">
-        <f t="shared" ref="P23:P31" si="20">O23*M23</f>
+        <f t="shared" ref="P23:P31" si="22">O23*M23</f>
         <v>6513.4954500000003</v>
       </c>
       <c r="Q23" s="21">
         <v>1250</v>
       </c>
       <c r="R23" s="22">
-        <f t="shared" ref="R23:R31" si="21">P23+Q23</f>
+        <f t="shared" ref="R23:R31" si="23">P23+Q23</f>
         <v>7763.4954500000003</v>
       </c>
       <c r="T23" s="9">
@@ -5488,7 +5575,7 @@
         <v>0.4</v>
       </c>
       <c r="W23" s="24">
-        <f t="shared" ref="W23:W31" si="22">(M23*V23)/(10^3)</f>
+        <f t="shared" ref="W23:W31" si="24">(M23*V23)/(10^3)</f>
         <v>1.9443270000000001</v>
       </c>
       <c r="X23" s="21" t="s">
@@ -5509,7 +5596,7 @@
       </c>
       <c r="AD23" s="5"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>39</v>
       </c>
@@ -5532,7 +5619,7 @@
         <v>1000</v>
       </c>
       <c r="H24" s="9">
-        <f t="shared" ref="H24:H30" si="23">G24*0.1</f>
+        <f t="shared" ref="H24:H30" si="25">G24*0.1</f>
         <v>100</v>
       </c>
       <c r="I24" s="11"/>
@@ -5543,7 +5630,7 @@
         <v>3.9869999999999997</v>
       </c>
       <c r="L24" s="60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>12.957749999999999</v>
       </c>
       <c r="M24" s="63">
@@ -5554,14 +5641,14 @@
         <v>1.27</v>
       </c>
       <c r="P24" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5430.5930250000001</v>
       </c>
       <c r="Q24" s="21">
         <v>1500</v>
       </c>
       <c r="R24" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6930.5930250000001</v>
       </c>
       <c r="T24" s="9">
@@ -5574,7 +5661,7 @@
         <v>0.4</v>
       </c>
       <c r="W24" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.710423</v>
       </c>
       <c r="X24" s="21" t="s">
@@ -5595,7 +5682,7 @@
       </c>
       <c r="AD24" s="5"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>39</v>
       </c>
@@ -5618,7 +5705,7 @@
         <v>700</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>70</v>
       </c>
       <c r="I25" s="11"/>
@@ -5637,9 +5724,17 @@
       <c r="O25" s="5">
         <v>1.35</v>
       </c>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="22"/>
+      <c r="P25" s="21">
+        <f t="shared" si="22"/>
+        <v>1782.0000000000002</v>
+      </c>
+      <c r="Q25" s="30">
+        <v>1000</v>
+      </c>
+      <c r="R25" s="22">
+        <f>P25+Q25</f>
+        <v>2782</v>
+      </c>
       <c r="T25" s="9">
         <v>900000</v>
       </c>
@@ -5658,7 +5753,7 @@
         <v>1230</v>
       </c>
       <c r="AB25" s="5">
-        <f t="shared" ref="AB25:AB27" si="24">(AA25*330)/1000</f>
+        <f t="shared" ref="AB25:AB27" si="26">(AA25*330)/1000</f>
         <v>405.9</v>
       </c>
       <c r="AC25" s="5" t="s">
@@ -5666,7 +5761,7 @@
       </c>
       <c r="AD25" s="5"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
@@ -5689,7 +5784,7 @@
         <v>900</v>
       </c>
       <c r="H26" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>90</v>
       </c>
       <c r="I26" s="11"/>
@@ -5708,9 +5803,17 @@
       <c r="O26" s="5">
         <v>1.28</v>
       </c>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="22"/>
+      <c r="P26" s="21">
+        <f t="shared" si="22"/>
+        <v>1478.4</v>
+      </c>
+      <c r="Q26" s="21">
+        <v>1250</v>
+      </c>
+      <c r="R26" s="22">
+        <f t="shared" ref="R26:R27" si="27">P26+Q26</f>
+        <v>2728.4</v>
+      </c>
       <c r="T26" s="9">
         <v>900000</v>
       </c>
@@ -5729,7 +5832,7 @@
         <v>410</v>
       </c>
       <c r="AB26" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>135.30000000000001</v>
       </c>
       <c r="AC26" s="5" t="s">
@@ -5737,7 +5840,7 @@
       </c>
       <c r="AD26" s="5"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>39</v>
       </c>
@@ -5760,7 +5863,7 @@
         <v>1000</v>
       </c>
       <c r="H27" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="I27" s="11"/>
@@ -5779,9 +5882,17 @@
       <c r="O27" s="5">
         <v>1.21</v>
       </c>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="22"/>
+      <c r="P27" s="21">
+        <f t="shared" si="22"/>
+        <v>1297.7249999999999</v>
+      </c>
+      <c r="Q27" s="21">
+        <v>1500</v>
+      </c>
+      <c r="R27" s="22">
+        <f t="shared" si="27"/>
+        <v>2797.7249999999999</v>
+      </c>
       <c r="T27" s="9">
         <v>900000</v>
       </c>
@@ -5800,7 +5911,7 @@
         <v>165</v>
       </c>
       <c r="AB27" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>54.45</v>
       </c>
       <c r="AC27" s="5" t="s">
@@ -5808,7 +5919,7 @@
       </c>
       <c r="AD27" s="5"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
@@ -5831,7 +5942,7 @@
         <v>60000</v>
       </c>
       <c r="H28" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6000</v>
       </c>
       <c r="I28" s="11"/>
@@ -5842,7 +5953,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="L28" s="60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="M28" s="63">
@@ -5853,14 +5964,14 @@
         <v>1.5</v>
       </c>
       <c r="P28" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3267</v>
       </c>
       <c r="Q28" s="21">
         <v>1500</v>
       </c>
       <c r="R28" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4767</v>
       </c>
       <c r="T28" s="9">
@@ -5873,7 +5984,7 @@
         <v>0.15</v>
       </c>
       <c r="W28" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.32669999999999999</v>
       </c>
       <c r="X28" s="21" t="s">
@@ -5894,7 +6005,7 @@
       </c>
       <c r="AD28" s="5"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>39</v>
       </c>
@@ -5917,7 +6028,7 @@
         <v>2000</v>
       </c>
       <c r="H29" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>200</v>
       </c>
       <c r="I29" s="11"/>
@@ -5928,7 +6039,7 @@
         <v>2</v>
       </c>
       <c r="L29" s="60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="M29" s="63">
@@ -5939,14 +6050,14 @@
         <v>6.38</v>
       </c>
       <c r="P29" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>12632.4</v>
       </c>
       <c r="Q29" s="21">
         <v>1500</v>
       </c>
       <c r="R29" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>14132.4</v>
       </c>
       <c r="T29" s="9">
@@ -5959,7 +6070,7 @@
         <v>0.23</v>
       </c>
       <c r="W29" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.45540000000000003</v>
       </c>
       <c r="X29" s="21" t="s">
@@ -5980,7 +6091,7 @@
       </c>
       <c r="AD29" s="5"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>40</v>
       </c>
@@ -6003,7 +6114,7 @@
         <v>2500</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>250</v>
       </c>
       <c r="I30" s="11"/>
@@ -6014,7 +6125,7 @@
         <v>2</v>
       </c>
       <c r="L30" s="60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="M30" s="63">
@@ -6025,14 +6136,14 @@
         <v>5.86</v>
       </c>
       <c r="P30" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>11602.800000000001</v>
       </c>
       <c r="Q30" s="21">
         <v>1500</v>
       </c>
       <c r="R30" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>13102.800000000001</v>
       </c>
       <c r="T30" s="9">
@@ -6045,7 +6156,7 @@
         <v>0.2</v>
       </c>
       <c r="W30" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.39600000000000002</v>
       </c>
       <c r="X30" s="21" t="s">
@@ -6066,7 +6177,7 @@
       </c>
       <c r="AD30" s="5"/>
     </row>
-    <row r="31" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>40</v>
       </c>
@@ -6100,7 +6211,7 @@
         <v>2</v>
       </c>
       <c r="L31" s="61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="M31" s="64">
@@ -6112,14 +6223,14 @@
         <v>6.38</v>
       </c>
       <c r="P31" s="41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>12632.4</v>
       </c>
       <c r="Q31" s="41">
         <v>1500</v>
       </c>
       <c r="R31" s="42">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>14132.4</v>
       </c>
       <c r="S31" s="40"/>
@@ -6133,7 +6244,7 @@
         <v>0.23</v>
       </c>
       <c r="W31" s="43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.45540000000000003</v>
       </c>
       <c r="X31" s="41" t="s">
@@ -6154,7 +6265,7 @@
       </c>
       <c r="AD31" s="5"/>
     </row>
-    <row r="32" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6163,45 +6274,549 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD77EF6-099E-DB49-A98E-3D98FEFDCA5C}">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1" s="67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="77">
+        <v>0.15</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="9">
+        <v>200000</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="80">
+        <v>0.4</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" s="77">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="9">
+        <v>570000</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="80">
+        <v>0.4</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="77">
+        <v>0.35</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="9">
+        <v>900000</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="80">
+        <v>0.15</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="9">
+        <v>250000</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="80">
+        <v>0.23</v>
+      </c>
+      <c r="L5" s="6">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="9">
+        <v>712500</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="80">
+        <v>0.2</v>
+      </c>
+      <c r="L6" s="6">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1125000</v>
+      </c>
+      <c r="J7" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="6">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="6">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="67" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>21.02</v>
+      </c>
+      <c r="J35">
+        <v>15.44</v>
+      </c>
+      <c r="L35">
+        <v>1230</v>
+      </c>
+      <c r="M35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <f>J35-I35</f>
+        <v>-5.58</v>
+      </c>
+      <c r="M37">
+        <f>M35-L35</f>
+        <v>-1183</v>
+      </c>
+    </row>
+    <row r="38" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="J38" s="76">
+        <f>J37/I35</f>
+        <v>-0.26546146527117032</v>
+      </c>
+      <c r="M38" s="76">
+        <f>M37/L35</f>
+        <v>-0.96178861788617886</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79E494E-2633-3B47-AC49-AD95AC048CCB}">
   <dimension ref="A1:AD74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G65" sqref="G65:H65"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.19921875" customWidth="1"/>
-    <col min="4" max="4" width="18.69921875" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="15.19921875" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="11.5" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.296875" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="5.296875" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="5.33203125" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="17" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="15.5" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="17.296875" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="3.19921875" customWidth="1"/>
-    <col min="15" max="18" width="10.796875" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="2.69921875" customWidth="1"/>
-    <col min="20" max="20" width="18.796875" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="13.69921875" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="18.69921875" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="27.796875" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="3.1640625" customWidth="1"/>
+    <col min="15" max="18" width="10.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="2.6640625" customWidth="1"/>
+    <col min="20" max="20" width="18.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="18.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="27.83203125" customWidth="1" outlineLevel="1"/>
     <col min="24" max="24" width="26" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="22.5" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="3.5" customWidth="1"/>
-    <col min="27" max="27" width="17.19921875" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="17.1640625" customWidth="1" outlineLevel="1"/>
     <col min="28" max="28" width="18.5" customWidth="1" outlineLevel="1"/>
     <col min="29" max="29" width="13" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="17.19921875" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="17.1640625" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
         <v>38</v>
       </c>
@@ -6283,7 +6898,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
@@ -6365,7 +6980,7 @@
       </c>
       <c r="AD2" s="5"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -6449,7 +7064,7 @@
       </c>
       <c r="AD3" s="5"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
@@ -6531,7 +7146,7 @@
       </c>
       <c r="AD4" s="5"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
@@ -6612,7 +7227,7 @@
       </c>
       <c r="AD5" s="5"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -6695,7 +7310,7 @@
       </c>
       <c r="AD6" s="5"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
@@ -6777,7 +7392,7 @@
       </c>
       <c r="AD7" s="5"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
@@ -6858,7 +7473,7 @@
       </c>
       <c r="AD8" s="5"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
@@ -6939,7 +7554,7 @@
       </c>
       <c r="AD9" s="5"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -7021,7 +7636,7 @@
       </c>
       <c r="AD10" s="5"/>
     </row>
-    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
         <v>6</v>
@@ -7098,7 +7713,7 @@
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
     </row>
-    <row r="12" spans="1:30" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="34" t="s">
         <v>6</v>
@@ -7178,7 +7793,7 @@
       <c r="AC12" s="33"/>
       <c r="AD12" s="33"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
@@ -7259,7 +7874,7 @@
       </c>
       <c r="AD13" s="5"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
@@ -7342,7 +7957,7 @@
       </c>
       <c r="AD14" s="5"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
@@ -7425,7 +8040,7 @@
       </c>
       <c r="AD15" s="5"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
@@ -7506,7 +8121,7 @@
       </c>
       <c r="AD16" s="5"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -7589,7 +8204,7 @@
       </c>
       <c r="AD17" s="5"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>39</v>
       </c>
@@ -7672,7 +8287,7 @@
       </c>
       <c r="AD18" s="5"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
@@ -7754,7 +8369,7 @@
       </c>
       <c r="AD19" s="5"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
@@ -7836,7 +8451,7 @@
       </c>
       <c r="AD20" s="5"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>39</v>
       </c>
@@ -7919,7 +8534,7 @@
       </c>
       <c r="AD21" s="5"/>
     </row>
-    <row r="22" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
         <v>6</v>
@@ -7997,7 +8612,7 @@
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
     </row>
-    <row r="23" spans="1:30" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="34" t="s">
         <v>6</v>
@@ -8078,7 +8693,7 @@
       <c r="AC23" s="33"/>
       <c r="AD23" s="33"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>39</v>
       </c>
@@ -8159,7 +8774,7 @@
       </c>
       <c r="AD24" s="5"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>39</v>
       </c>
@@ -8242,7 +8857,7 @@
       </c>
       <c r="AD25" s="5"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
@@ -8325,7 +8940,7 @@
       </c>
       <c r="AD26" s="5"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>39</v>
       </c>
@@ -8406,7 +9021,7 @@
       </c>
       <c r="AD27" s="5"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
@@ -8489,7 +9104,7 @@
       </c>
       <c r="AD28" s="5"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>39</v>
       </c>
@@ -8572,7 +9187,7 @@
       </c>
       <c r="AD29" s="5"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>39</v>
       </c>
@@ -8654,7 +9269,7 @@
       </c>
       <c r="AD30" s="5"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>39</v>
       </c>
@@ -8736,7 +9351,7 @@
       </c>
       <c r="AD31" s="5"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>39</v>
       </c>
@@ -8819,7 +9434,7 @@
       </c>
       <c r="AD32" s="5"/>
     </row>
-    <row r="33" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
         <v>6</v>
@@ -8897,7 +9512,7 @@
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
     </row>
-    <row r="34" spans="1:30" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="B34" s="48" t="s">
         <v>6</v>
@@ -8978,7 +9593,7 @@
       <c r="AC34" s="54"/>
       <c r="AD34" s="54"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>40</v>
       </c>
@@ -9060,7 +9675,7 @@
       </c>
       <c r="AD35" s="26"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
@@ -9143,7 +9758,7 @@
       </c>
       <c r="AD36" s="26"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>40</v>
       </c>
@@ -9226,7 +9841,7 @@
       </c>
       <c r="AD37" s="5"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>40</v>
       </c>
@@ -9308,7 +9923,7 @@
       </c>
       <c r="AD38" s="5"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>40</v>
       </c>
@@ -9391,7 +10006,7 @@
       </c>
       <c r="AD39" s="5"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>40</v>
       </c>
@@ -9474,7 +10089,7 @@
       </c>
       <c r="AD40" s="5"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>40</v>
       </c>
@@ -9556,7 +10171,7 @@
       </c>
       <c r="AD41" s="5"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
@@ -9638,7 +10253,7 @@
       </c>
       <c r="AD42" s="5"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
@@ -9721,7 +10336,7 @@
       </c>
       <c r="AD43" s="5"/>
     </row>
-    <row r="44" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="3" t="s">
         <v>6</v>
@@ -9799,7 +10414,7 @@
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
     </row>
-    <row r="45" spans="1:30" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="34" t="s">
         <v>6</v>
@@ -9880,7 +10495,7 @@
       <c r="AC45" s="33"/>
       <c r="AD45" s="33"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>40</v>
       </c>
@@ -9961,7 +10576,7 @@
       </c>
       <c r="AD46" s="5"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>40</v>
       </c>
@@ -10044,7 +10659,7 @@
       </c>
       <c r="AD47" s="5"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -10126,7 +10741,7 @@
       </c>
       <c r="AD48" s="5"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>40</v>
       </c>
@@ -10207,7 +10822,7 @@
       </c>
       <c r="AD49" s="5"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>40</v>
       </c>
@@ -10290,7 +10905,7 @@
       </c>
       <c r="AD50" s="5"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>40</v>
       </c>
@@ -10372,7 +10987,7 @@
       </c>
       <c r="AD51" s="5"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>40</v>
       </c>
@@ -10454,7 +11069,7 @@
       </c>
       <c r="AD52" s="5"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>40</v>
       </c>
@@ -10536,7 +11151,7 @@
       </c>
       <c r="AD53" s="5"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>40</v>
       </c>
@@ -10619,7 +11234,7 @@
       </c>
       <c r="AD54" s="5"/>
     </row>
-    <row r="55" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="3" t="s">
         <v>6</v>
@@ -10697,7 +11312,7 @@
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
     </row>
-    <row r="56" spans="1:30" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:30" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="34" t="s">
         <v>6</v>
@@ -10778,7 +11393,7 @@
       <c r="AC56" s="33"/>
       <c r="AD56" s="33"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>40</v>
       </c>
@@ -10859,7 +11474,7 @@
       </c>
       <c r="AD57" s="5"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>40</v>
       </c>
@@ -10942,7 +11557,7 @@
       </c>
       <c r="AD58" s="5"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>40</v>
       </c>
@@ -11024,7 +11639,7 @@
       </c>
       <c r="AD59" s="5"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>40</v>
       </c>
@@ -11105,7 +11720,7 @@
       </c>
       <c r="AD60" s="5"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>40</v>
       </c>
@@ -11188,7 +11803,7 @@
       </c>
       <c r="AD61" s="5"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>40</v>
       </c>
@@ -11270,7 +11885,7 @@
       </c>
       <c r="AD62" s="5"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>40</v>
       </c>
@@ -11351,7 +11966,7 @@
       </c>
       <c r="AD63" s="5"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>40</v>
       </c>
@@ -11434,7 +12049,7 @@
       </c>
       <c r="AD64" s="5"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>40</v>
       </c>
@@ -11516,7 +12131,7 @@
       </c>
       <c r="AD65" s="5"/>
     </row>
-    <row r="66" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="3" t="s">
         <v>6</v>
@@ -11534,7 +12149,7 @@
         <v>0.9</v>
       </c>
       <c r="G66" s="9">
-        <f t="shared" ref="G65:G66" si="105">G55*1.2</f>
+        <f t="shared" ref="G66" si="105">G55*1.2</f>
         <v>23760</v>
       </c>
       <c r="H66" s="9">
@@ -11594,7 +12209,7 @@
       <c r="AC66" s="5"/>
       <c r="AD66" s="5"/>
     </row>
-    <row r="67" spans="1:30" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:30" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="34" t="s">
         <v>6</v>
@@ -11675,7 +12290,7 @@
       <c r="AC67" s="33"/>
       <c r="AD67" s="33"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="T73" t="s">
         <v>49</v>
       </c>
@@ -11683,7 +12298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="U74" t="s">
         <v>51</v>
       </c>
@@ -11694,96 +12309,102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC174A83-C7FB-46D4-AA49-62B1826A128C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.296875" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" customWidth="1"/>
-    <col min="3" max="3" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.796875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="F1" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="J1" s="69" t="s">
         <v>83</v>
       </c>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
       <c r="O1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="5">
         <v>5</v>
       </c>
       <c r="O2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>4.2</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="5">
         <v>8</v>
       </c>
       <c r="Q3">
@@ -11791,133 +12412,140 @@
         <v>1.0675675675675675</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>14.2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="69">
+      <c r="H4" s="60">
         <f>H3*30</f>
         <v>126</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="60">
         <f>L3*30</f>
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="72" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <f>C3*C4</f>
         <v>170.39999999999998</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <f>H4*12</f>
         <v>1512</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="5">
         <f>L4*12</f>
         <v>2880</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>10920</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>19</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <f>C5*C6</f>
         <v>1860767.9999999998</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <f>H5*H6</f>
         <v>28728</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="5">
         <f>L5*L6</f>
         <v>28800</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8">
+      <c r="B8" s="74"/>
+      <c r="C8" s="5">
         <v>1.1620000000000001E-3</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H8">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5">
         <v>0.27777800000000002</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L8">
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
         <v>0.27777800000000002</v>
       </c>
       <c r="O8" t="s">
@@ -11931,34 +12559,34 @@
         <v>2.4898785425101213</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="60">
         <f>C7*C8</f>
         <v>2162.2124159999998</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="69">
+      <c r="H9" s="60">
         <f>H7*H8</f>
         <v>7980.0063840000012</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="60">
         <f>L7*L8</f>
         <v>8000.0064000000011</v>
       </c>
@@ -11973,25 +12601,28 @@
         <v>4.4107142857142856</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="72" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="60">
         <f>C9/12</f>
         <v>180.18436799999998</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="69">
+      <c r="H10" s="60">
         <f>H9/12</f>
         <v>665.00053200000013</v>
       </c>
-      <c r="K10" t="s">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="60">
         <f>L9/12</f>
         <v>666.66720000000009</v>
       </c>
@@ -12002,57 +12633,60 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="72" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="60">
         <f>C10/30</f>
         <v>6.0061455999999991</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="60">
         <f>H10/30</f>
         <v>22.166684400000005</v>
       </c>
-      <c r="K11" t="s">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="69">
+      <c r="L11" s="60">
         <f>L10/30</f>
         <v>22.222240000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="60">
         <f>C11/C2</f>
         <v>2.0020485333333329</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="24">
         <f>H11/H2</f>
         <v>4.4333368800000006</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="L12" s="68">
+      <c r="L12" s="24">
         <f>L11/L2</f>
         <v>4.4444480000000004</v>
       </c>
@@ -12064,32 +12698,32 @@
         <v>0.22672064777327935</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>63.1</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <v>112</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="72" t="s">
+      <c r="K13" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="5">
         <v>112</v>
       </c>
       <c r="M13" t="s">
@@ -12099,26 +12733,26 @@
         <v>559.5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14">
+      <c r="B14" s="74"/>
+      <c r="C14" s="5">
         <v>277777.777777777</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="72"/>
-      <c r="H14">
+      <c r="G14" s="74"/>
+      <c r="H14" s="5">
         <v>277777.777777777</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="72"/>
-      <c r="L14">
+      <c r="K14" s="74"/>
+      <c r="L14" s="5">
         <v>277777.777777777</v>
       </c>
       <c r="M14" t="s">
@@ -12137,34 +12771,34 @@
         <v>1.7749603803486529</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <f>C13/C14</f>
         <v>2.2716000000000064E-4</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <f>H13/H14</f>
         <v>4.0320000000000113E-4</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K15" s="72" t="s">
+      <c r="K15" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="5">
         <f>L13/L14</f>
         <v>4.0320000000000113E-4</v>
       </c>
@@ -12173,171 +12807,182 @@
         <v>1.6113599999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C16" s="24">
         <f>C15*C9</f>
         <v>0.49116817241856137</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H16" s="24">
         <f>H15*H9</f>
         <v>3.2175385740288096</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="72" t="s">
+      <c r="K16" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="L16" s="68">
+      <c r="L16" s="24">
         <f>L15*L9</f>
         <v>3.2256025804800093</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>1150</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="G18" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
         <v>374</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="72" t="s">
+      <c r="K18" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="5">
         <f>30*12</f>
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <f>C18*C3</f>
         <v>13800</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G19" s="72" t="s">
+      <c r="G19" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="5">
         <v>30</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K19" s="72" t="s">
+      <c r="K19" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="68">
+      <c r="C20" s="24">
         <f>C19/C9</f>
         <v>6.3823516588298048</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G20" s="72" t="s">
+      <c r="G20" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="5">
         <f>H19*H18</f>
         <v>11220</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="K20" s="72" t="s">
+      <c r="K20" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="5">
         <f>L19*L18</f>
         <v>10800</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F21" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F21" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G21" s="72" t="s">
+      <c r="G21" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="H21" s="68">
+      <c r="H21" s="24">
         <f>H20/H9</f>
         <v>1.4060139127828546</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K21" s="72" t="s">
+      <c r="K21" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="L21" s="68">
+      <c r="L21" s="24">
         <f>L20/L9</f>
         <v>1.3499989200008637</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="72" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <f>C6*C4</f>
         <v>155064</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="72" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <f>C8*C23</f>
         <v>180.18436800000001</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C25">
         <f>C18/C24</f>
         <v>6.3823516588298048</v>
@@ -12350,7 +12995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B775FE-89E7-DE49-9FC4-5A387DAB3702}">
   <dimension ref="A1:C32"/>
   <sheetViews>
@@ -12358,9 +13003,9 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -12371,7 +13016,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -12383,7 +13028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -12395,7 +13040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -12407,7 +13052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -12419,7 +13064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>1</v>
       </c>
@@ -12431,7 +13076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>1</v>
       </c>
@@ -12443,7 +13088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>2</v>
       </c>
@@ -12455,7 +13100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>2</v>
       </c>
@@ -12467,7 +13112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>2</v>
       </c>
@@ -12479,7 +13124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>2</v>
       </c>
@@ -12491,7 +13136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>2</v>
       </c>
@@ -12503,7 +13148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>2</v>
       </c>
@@ -12515,7 +13160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>3</v>
       </c>
@@ -12527,7 +13172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>3</v>
       </c>
@@ -12539,7 +13184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>3</v>
       </c>
@@ -12551,7 +13196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>3</v>
       </c>
@@ -12563,7 +13208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>3</v>
       </c>
@@ -12575,7 +13220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>3</v>
       </c>
@@ -12587,7 +13232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>4</v>
       </c>
@@ -12599,7 +13244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>4</v>
       </c>
@@ -12611,7 +13256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>4</v>
       </c>
@@ -12623,7 +13268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>4</v>
       </c>
@@ -12635,7 +13280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>4</v>
       </c>
@@ -12647,7 +13292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>4</v>
       </c>
@@ -12659,7 +13304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>5</v>
       </c>
@@ -12671,7 +13316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>5</v>
       </c>
@@ -12683,7 +13328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>5</v>
       </c>
@@ -12695,7 +13340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>5</v>
       </c>
@@ -12707,7 +13352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>5</v>
       </c>
@@ -12719,7 +13364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>5</v>
       </c>
@@ -12731,13 +13376,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F122A1-15B9-4642-B2F6-3427EA4EE962}">
   <dimension ref="A1:G33"/>
   <sheetViews>
@@ -12745,41 +13390,41 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.69921875" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="95.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:7" ht="105" x14ac:dyDescent="0.2">
+      <c r="A1" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="70" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="72">
         <v>245</v>
       </c>
-      <c r="C2" s="75">
+      <c r="C2" s="72">
         <v>237</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="70">
+      <c r="F2" s="68">
         <f>AVERAGE(B2:B31)</f>
         <v>233.36666666666667</v>
       </c>
@@ -12787,20 +13432,20 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="75">
+      <c r="B3" s="72">
         <v>212</v>
       </c>
-      <c r="C3" s="75">
+      <c r="C3" s="72">
         <v>205</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="70">
+      <c r="F3" s="68">
         <f>F2/8</f>
         <v>29.170833333333334</v>
       </c>
@@ -12808,400 +13453,400 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="s">
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="75">
+      <c r="B4" s="72">
         <v>224</v>
       </c>
-      <c r="C4" s="75">
+      <c r="C4" s="72">
         <v>213</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="71" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="74" t="s">
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="75">
+      <c r="B5" s="72">
         <v>198</v>
       </c>
-      <c r="C5" s="75">
+      <c r="C5" s="72">
         <v>194</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="71" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="74" t="s">
+    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="75">
+      <c r="B6" s="72">
         <v>193</v>
       </c>
-      <c r="C6" s="75">
+      <c r="C6" s="72">
         <v>190</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="71" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="74" t="s">
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="72">
         <v>294</v>
       </c>
-      <c r="C7" s="75">
+      <c r="C7" s="72">
         <v>280</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="71" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="74" t="s">
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="75">
+      <c r="B8" s="72">
         <v>229</v>
       </c>
-      <c r="C8" s="75">
+      <c r="C8" s="72">
         <v>224</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="71" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="74" t="s">
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="75">
+      <c r="B9" s="72">
         <v>315</v>
       </c>
-      <c r="C9" s="75">
+      <c r="C9" s="72">
         <v>309</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="71" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="74" t="s">
+    <row r="10" spans="1:7" ht="37" x14ac:dyDescent="0.2">
+      <c r="A10" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="75">
+      <c r="B10" s="72">
         <v>254</v>
       </c>
-      <c r="C10" s="75">
+      <c r="C10" s="72">
         <v>248</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="71" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="74" t="s">
+    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="72">
         <v>214</v>
       </c>
-      <c r="C11" s="75">
+      <c r="C11" s="72">
         <v>204</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="71" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="74" t="s">
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="75">
+      <c r="B12" s="72">
         <v>214</v>
       </c>
-      <c r="C12" s="75">
+      <c r="C12" s="72">
         <v>204</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="71" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="74" t="s">
+    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="72">
         <v>198</v>
       </c>
-      <c r="C13" s="75">
+      <c r="C13" s="72">
         <v>194</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="71" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="74" t="s">
+    <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="75">
+      <c r="B14" s="72">
         <v>289</v>
       </c>
-      <c r="C14" s="75">
+      <c r="C14" s="72">
         <v>275</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="71" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="74" t="s">
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="72">
         <v>291</v>
       </c>
-      <c r="C15" s="75">
+      <c r="C15" s="72">
         <v>291</v>
       </c>
-      <c r="D15" s="74" t="s">
+      <c r="D15" s="71" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="74" t="s">
+    <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="75">
+      <c r="B16" s="72">
         <v>193</v>
       </c>
-      <c r="C16" s="75">
+      <c r="C16" s="72">
         <v>190</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="71" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="74" t="s">
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="72">
         <v>248</v>
       </c>
-      <c r="C17" s="75">
+      <c r="C17" s="72">
         <v>238</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="71" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="74" t="s">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="75">
+      <c r="B18" s="72">
         <v>251</v>
       </c>
-      <c r="C18" s="75">
+      <c r="C18" s="72">
         <v>238</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="71" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="74" t="s">
+    <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="72">
         <v>226</v>
       </c>
-      <c r="C19" s="75">
+      <c r="C19" s="72">
         <v>203</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="71" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="74" t="s">
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="75">
+      <c r="B20" s="72">
         <v>233</v>
       </c>
-      <c r="C20" s="75">
+      <c r="C20" s="72">
         <v>225</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="71" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="74" t="s">
+    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="75">
+      <c r="B21" s="72">
         <v>212</v>
       </c>
-      <c r="C21" s="75">
+      <c r="C21" s="72">
         <v>205</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="71" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="74" t="s">
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="75">
+      <c r="B22" s="72">
         <v>215</v>
       </c>
-      <c r="C22" s="75">
+      <c r="C22" s="72">
         <v>207</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="71" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="74" t="s">
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="75">
+      <c r="B23" s="72">
         <v>269</v>
       </c>
-      <c r="C23" s="75">
+      <c r="C23" s="72">
         <v>263</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="71" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="74" t="s">
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="75">
+      <c r="B24" s="72">
         <v>221</v>
       </c>
-      <c r="C24" s="75">
+      <c r="C24" s="72">
         <v>220</v>
       </c>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="71" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A25" s="74" t="s">
+    <row r="25" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A25" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="B25" s="75">
+      <c r="B25" s="72">
         <v>212</v>
       </c>
-      <c r="C25" s="75">
+      <c r="C25" s="72">
         <v>205</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="71" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="74" t="s">
+    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="75">
+      <c r="B26" s="72">
         <v>273</v>
       </c>
-      <c r="C26" s="75">
+      <c r="C26" s="72">
         <v>256</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="71" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="74" t="s">
+    <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="75">
+      <c r="B27" s="72">
         <v>245</v>
       </c>
-      <c r="C27" s="75">
+      <c r="C27" s="72">
         <v>237</v>
       </c>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="71" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="74" t="s">
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="B28" s="75">
+      <c r="B28" s="72">
         <v>212</v>
       </c>
-      <c r="C28" s="75">
+      <c r="C28" s="72">
         <v>205</v>
       </c>
-      <c r="D28" s="74" t="s">
+      <c r="D28" s="71" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="74" t="s">
+    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="B29" s="75">
+      <c r="B29" s="72">
         <v>204</v>
       </c>
-      <c r="C29" s="75">
+      <c r="C29" s="72">
         <v>201</v>
       </c>
-      <c r="D29" s="74" t="s">
+      <c r="D29" s="71" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="74" t="s">
+    <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="75">
+      <c r="B30" s="72">
         <v>204</v>
       </c>
-      <c r="C30" s="75">
+      <c r="C30" s="72">
         <v>201</v>
       </c>
-      <c r="D30" s="74" t="s">
+      <c r="D30" s="71" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="74" t="s">
+    <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="75">
+      <c r="B31" s="72">
         <v>213</v>
       </c>
-      <c r="C31" s="75">
+      <c r="C31" s="72">
         <v>204</v>
       </c>
-      <c r="D31" s="74" t="s">
+      <c r="D31" s="71" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="76" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="73" t="s">
         <v>147</v>
       </c>
     </row>

--- a/cook-fuel-stove.xlsx
+++ b/cook-fuel-stove.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bikash/My Drive (bikash@vasudhaindia.org)/01-cooking/01-analysis-files/TEA-cook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E545A2-1A7F-9144-812B-80E45B975897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1C3CC1-1D79-7B42-8B74-005D02577553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{7EBAAA4E-59CC-FC40-A9EE-7A0CED89A0F9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{7EBAAA4E-59CC-FC40-A9EE-7A0CED89A0F9}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
-    <sheet name="annexures" sheetId="6" r:id="rId2"/>
+    <sheet name="health-hazards" sheetId="7" r:id="rId2"/>
     <sheet name="e-cooking" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="hh-profile" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
+    <sheet name="annexures" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="hh-profile" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -534,6 +535,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={C99B6702-09D4-2E43-8EA4-5A6A8EC67FBE}</author>
     <author>Vasudha</author>
     <author>tc={9E4260F5-A750-E741-BE5E-4E0F804BE29B}</author>
     <author>tc={F4213234-2F6A-2E4F-84FA-AE5471F61469}</author>
@@ -550,7 +552,15 @@
     <author>tc={8BF39043-A68B-704A-98A0-EEBCA07B36DB}</author>
   </authors>
   <commentList>
-    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{CD450EEC-8514-4086-8328-CD02F5AD7F9B}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{C99B6702-09D4-2E43-8EA4-5A6A8EC67FBE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    https://cea.nic.in/wp-content/uploads/baseline/2023/01/Approved_report_emission__2021_22.pdf</t>
+      </text>
+    </comment>
+    <comment ref="AA2" authorId="1" shapeId="0" xr:uid="{CD450EEC-8514-4086-8328-CD02F5AD7F9B}">
       <text>
         <r>
           <rPr>
@@ -575,7 +585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{E8720F7E-4ABC-E044-9961-9C1B3F3D06F1}">
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{E8720F7E-4ABC-E044-9961-9C1B3F3D06F1}">
       <text>
         <r>
           <rPr>
@@ -599,7 +609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA3" authorId="0" shapeId="0" xr:uid="{C0190E94-4069-A44C-A58A-0F1738C1B342}">
+    <comment ref="AA3" authorId="1" shapeId="0" xr:uid="{C0190E94-4069-A44C-A58A-0F1738C1B342}">
       <text>
         <r>
           <rPr>
@@ -624,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA4" authorId="0" shapeId="0" xr:uid="{40759763-0931-4C7D-8E62-241D42790A2B}">
+    <comment ref="AA4" authorId="1" shapeId="0" xr:uid="{40759763-0931-4C7D-8E62-241D42790A2B}">
       <text>
         <r>
           <rPr>
@@ -648,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA7" authorId="0" shapeId="0" xr:uid="{233462BB-B9A9-4199-ADE4-B80ED2867E9D}">
+    <comment ref="AA7" authorId="1" shapeId="0" xr:uid="{233462BB-B9A9-4199-ADE4-B80ED2867E9D}">
       <text>
         <r>
           <rPr>
@@ -672,7 +682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="1" shapeId="0" xr:uid="{9E4260F5-A750-E741-BE5E-4E0F804BE29B}">
+    <comment ref="B8" authorId="2" shapeId="0" xr:uid="{9E4260F5-A750-E741-BE5E-4E0F804BE29B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -680,7 +690,7 @@
     Solar rooftop (capex)</t>
       </text>
     </comment>
-    <comment ref="B9" authorId="2" shapeId="0" xr:uid="{F4213234-2F6A-2E4F-84FA-AE5471F61469}">
+    <comment ref="B9" authorId="3" shapeId="0" xr:uid="{F4213234-2F6A-2E4F-84FA-AE5471F61469}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -688,7 +698,7 @@
     Solar rooftop (capex)</t>
       </text>
     </comment>
-    <comment ref="AA10" authorId="0" shapeId="0" xr:uid="{970178B8-E3FB-40C5-89AB-396867A567DD}">
+    <comment ref="AA10" authorId="1" shapeId="0" xr:uid="{970178B8-E3FB-40C5-89AB-396867A567DD}">
       <text>
         <r>
           <rPr>
@@ -712,7 +722,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="3" shapeId="0" xr:uid="{B7238FCF-9CCD-FE41-B170-D3AC62818411}">
+    <comment ref="A11" authorId="4" shapeId="0" xr:uid="{B7238FCF-9CCD-FE41-B170-D3AC62818411}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -720,7 +730,7 @@
     Rural</t>
       </text>
     </comment>
-    <comment ref="AA15" authorId="0" shapeId="0" xr:uid="{BE640D62-A8AE-4CC2-A71D-718CFB56A451}">
+    <comment ref="AA15" authorId="1" shapeId="0" xr:uid="{BE640D62-A8AE-4CC2-A71D-718CFB56A451}">
       <text>
         <r>
           <rPr>
@@ -744,7 +754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA18" authorId="0" shapeId="0" xr:uid="{2403A441-D16A-4EFA-BF63-65D170C3EEEB}">
+    <comment ref="AA18" authorId="1" shapeId="0" xr:uid="{2403A441-D16A-4EFA-BF63-65D170C3EEEB}">
       <text>
         <r>
           <rPr>
@@ -768,7 +778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="4" shapeId="0" xr:uid="{F76DD1FA-9EDF-894E-9682-549D84E698C4}">
+    <comment ref="B19" authorId="5" shapeId="0" xr:uid="{F76DD1FA-9EDF-894E-9682-549D84E698C4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -776,7 +786,7 @@
     Solar rooftop (capex)</t>
       </text>
     </comment>
-    <comment ref="B20" authorId="5" shapeId="0" xr:uid="{EEF9017A-5A15-7C4D-BD32-322887C94870}">
+    <comment ref="B20" authorId="6" shapeId="0" xr:uid="{EEF9017A-5A15-7C4D-BD32-322887C94870}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -784,7 +794,7 @@
     Solar rooftop (capex)</t>
       </text>
     </comment>
-    <comment ref="AA21" authorId="0" shapeId="0" xr:uid="{711140D8-E134-47AF-94D3-5B59ABECB7CD}">
+    <comment ref="AA21" authorId="1" shapeId="0" xr:uid="{711140D8-E134-47AF-94D3-5B59ABECB7CD}">
       <text>
         <r>
           <rPr>
@@ -808,7 +818,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA26" authorId="0" shapeId="0" xr:uid="{A6196960-083B-436C-835E-B7DF86F2173F}">
+    <comment ref="AA26" authorId="1" shapeId="0" xr:uid="{A6196960-083B-436C-835E-B7DF86F2173F}">
       <text>
         <r>
           <rPr>
@@ -832,7 +842,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA29" authorId="0" shapeId="0" xr:uid="{7DA9D3E5-E21A-457C-A396-2F6509B63039}">
+    <comment ref="AA29" authorId="1" shapeId="0" xr:uid="{7DA9D3E5-E21A-457C-A396-2F6509B63039}">
       <text>
         <r>
           <rPr>
@@ -856,7 +866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="6" shapeId="0" xr:uid="{025273C9-BFAC-204E-9DF7-C9AE208314AA}">
+    <comment ref="B30" authorId="7" shapeId="0" xr:uid="{025273C9-BFAC-204E-9DF7-C9AE208314AA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -864,7 +874,7 @@
     Solar rooftop (capex)</t>
       </text>
     </comment>
-    <comment ref="B31" authorId="7" shapeId="0" xr:uid="{B26A7EB4-4871-E945-AC62-51E6768D0688}">
+    <comment ref="B31" authorId="8" shapeId="0" xr:uid="{B26A7EB4-4871-E945-AC62-51E6768D0688}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -872,7 +882,7 @@
     Solar rooftop (capex)</t>
       </text>
     </comment>
-    <comment ref="AA32" authorId="0" shapeId="0" xr:uid="{A36B4087-C826-44E9-B903-0FA1F87C544F}">
+    <comment ref="AA32" authorId="1" shapeId="0" xr:uid="{A36B4087-C826-44E9-B903-0FA1F87C544F}">
       <text>
         <r>
           <rPr>
@@ -896,7 +906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA37" authorId="0" shapeId="0" xr:uid="{F4E058BD-F683-4445-A5CF-D831D70E58CD}">
+    <comment ref="AA37" authorId="1" shapeId="0" xr:uid="{F4E058BD-F683-4445-A5CF-D831D70E58CD}">
       <text>
         <r>
           <rPr>
@@ -920,7 +930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA40" authorId="0" shapeId="0" xr:uid="{7245C851-A1A1-4D66-BAB4-7D3EA7802CEE}">
+    <comment ref="AA40" authorId="1" shapeId="0" xr:uid="{7245C851-A1A1-4D66-BAB4-7D3EA7802CEE}">
       <text>
         <r>
           <rPr>
@@ -944,7 +954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="8" shapeId="0" xr:uid="{8A59512A-E800-F541-B85D-2DB0CC29209A}">
+    <comment ref="B41" authorId="9" shapeId="0" xr:uid="{8A59512A-E800-F541-B85D-2DB0CC29209A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -952,7 +962,7 @@
     Solar rooftop (capex)</t>
       </text>
     </comment>
-    <comment ref="B42" authorId="9" shapeId="0" xr:uid="{91DF629E-F382-A34D-A377-EB3ACF8C8448}">
+    <comment ref="B42" authorId="10" shapeId="0" xr:uid="{91DF629E-F382-A34D-A377-EB3ACF8C8448}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -960,7 +970,7 @@
     Solar rooftop (capex)</t>
       </text>
     </comment>
-    <comment ref="AA43" authorId="0" shapeId="0" xr:uid="{434F9074-2D9A-4499-B8FF-84B37681F9A8}">
+    <comment ref="AA43" authorId="1" shapeId="0" xr:uid="{434F9074-2D9A-4499-B8FF-84B37681F9A8}">
       <text>
         <r>
           <rPr>
@@ -984,7 +994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA48" authorId="0" shapeId="0" xr:uid="{2C70E28F-2C3A-4145-8326-E771F4F26C9D}">
+    <comment ref="AA48" authorId="1" shapeId="0" xr:uid="{2C70E28F-2C3A-4145-8326-E771F4F26C9D}">
       <text>
         <r>
           <rPr>
@@ -1008,7 +1018,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA51" authorId="0" shapeId="0" xr:uid="{931767FB-F481-43E9-A980-0AA1F3FBE4F7}">
+    <comment ref="AA51" authorId="1" shapeId="0" xr:uid="{931767FB-F481-43E9-A980-0AA1F3FBE4F7}">
       <text>
         <r>
           <rPr>
@@ -1032,7 +1042,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B52" authorId="10" shapeId="0" xr:uid="{926A7ED9-B53B-3048-847A-760864FA7126}">
+    <comment ref="B52" authorId="11" shapeId="0" xr:uid="{926A7ED9-B53B-3048-847A-760864FA7126}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1040,7 +1050,7 @@
     Solar rooftop (capex)</t>
       </text>
     </comment>
-    <comment ref="B53" authorId="11" shapeId="0" xr:uid="{9006F089-4225-E544-A101-0262BB2BC064}">
+    <comment ref="B53" authorId="12" shapeId="0" xr:uid="{9006F089-4225-E544-A101-0262BB2BC064}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1048,7 +1058,7 @@
     Solar rooftop (capex)</t>
       </text>
     </comment>
-    <comment ref="AA54" authorId="0" shapeId="0" xr:uid="{6BBBADC2-93CA-476C-B608-6FA3A6E25388}">
+    <comment ref="AA54" authorId="1" shapeId="0" xr:uid="{6BBBADC2-93CA-476C-B608-6FA3A6E25388}">
       <text>
         <r>
           <rPr>
@@ -1072,7 +1082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA59" authorId="0" shapeId="0" xr:uid="{14E0F0E5-194D-4705-8B63-0CAB5E70FEA7}">
+    <comment ref="AA59" authorId="1" shapeId="0" xr:uid="{14E0F0E5-194D-4705-8B63-0CAB5E70FEA7}">
       <text>
         <r>
           <rPr>
@@ -1096,7 +1106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA62" authorId="0" shapeId="0" xr:uid="{697554CE-031A-4556-B654-4B3DC17F1A8B}">
+    <comment ref="AA62" authorId="1" shapeId="0" xr:uid="{697554CE-031A-4556-B654-4B3DC17F1A8B}">
       <text>
         <r>
           <rPr>
@@ -1120,7 +1130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B63" authorId="12" shapeId="0" xr:uid="{4A415844-F674-114D-9357-F81950513821}">
+    <comment ref="B63" authorId="13" shapeId="0" xr:uid="{4A415844-F674-114D-9357-F81950513821}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1128,7 +1138,7 @@
     Solar rooftop (capex)</t>
       </text>
     </comment>
-    <comment ref="B64" authorId="13" shapeId="0" xr:uid="{8BF39043-A68B-704A-98A0-EEBCA07B36DB}">
+    <comment ref="B64" authorId="14" shapeId="0" xr:uid="{8BF39043-A68B-704A-98A0-EEBCA07B36DB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1136,7 +1146,7 @@
     Solar rooftop (capex)</t>
       </text>
     </comment>
-    <comment ref="AA65" authorId="0" shapeId="0" xr:uid="{EADC0662-88D1-47A8-9B0E-9AE85867D11C}">
+    <comment ref="AA65" authorId="1" shapeId="0" xr:uid="{EADC0662-88D1-47A8-9B0E-9AE85867D11C}">
       <text>
         <r>
           <rPr>
@@ -1582,7 +1592,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="217">
   <si>
     <t>Biogas</t>
   </si>
@@ -2653,6 +2663,31 @@
   </si>
   <si>
     <t>1 to 7.24</t>
+  </si>
+  <si>
+    <t>Fuel Used</t>
+  </si>
+  <si>
+    <t>Health Hazards</t>
+  </si>
+  <si>
+    <t>Firewood / Livestock Waste</t>
+  </si>
+  <si>
+    <t>LPG / PNG</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>1) Respiratory problems - chronic bronchitis, pneumonia, and asthma.
+2) Eye problems - eye irritation, dryness, and even blindness in severe cases.
+3) Cardiovascular diseases - stroke and heart disease.</t>
+  </si>
+  <si>
+    <t>1) Fire and explosion hazards
+2) Carbon monoxide poisoning
+3) Methane gas leaks</t>
   </si>
 </sst>
 </file>
@@ -3039,7 +3074,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3202,14 +3237,20 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3550,6 +3591,9 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="V2" dT="2023-05-23T06:30:32.78" personId="{45F6BE05-09F7-D041-8E94-19D75841EDA4}" id="{C99B6702-09D4-2E43-8EA4-5A6A8EC67FBE}">
+    <text>https://cea.nic.in/wp-content/uploads/baseline/2023/01/Approved_report_emission__2021_22.pdf</text>
+  </threadedComment>
   <threadedComment ref="B8" dT="2023-03-28T02:28:30.36" personId="{45F6BE05-09F7-D041-8E94-19D75841EDA4}" id="{9E4260F5-A750-E741-BE5E-4E0F804BE29B}">
     <text>Solar rooftop (capex)</text>
   </threadedComment>
@@ -3597,8 +3641,8 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V8" sqref="V8:V10"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3712,7 +3756,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
@@ -3795,7 +3839,7 @@
         <f>(AA2*330)/1000</f>
         <v>405.9</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="79" t="s">
         <v>173</v>
       </c>
       <c r="AD2" s="5"/>
@@ -4222,7 +4266,7 @@
       </c>
       <c r="AD7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="187" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
@@ -4306,7 +4350,7 @@
         <f t="shared" si="6"/>
         <v>19.8</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AC8" s="79" t="s">
         <v>174</v>
       </c>
       <c r="AD8" s="5"/>
@@ -6274,502 +6318,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD77EF6-099E-DB49-A98E-3D98FEFDCA5C}">
-  <dimension ref="A1:M38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A923D9-8A23-3640-B9F5-5BE48B239735}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="J1" s="78" t="s">
-        <v>203</v>
-      </c>
-      <c r="K1" s="67" t="s">
-        <v>204</v>
-      </c>
-      <c r="L1" s="67" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="77">
-        <v>0.15</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="9">
-        <v>200000</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="80">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6">
-        <v>3</v>
-      </c>
-      <c r="C3" s="77">
-        <v>0.25</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="9">
-        <v>570000</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="80">
-        <v>0.4</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6">
-        <v>3</v>
-      </c>
-      <c r="C4" s="77">
-        <v>0.35</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="9">
-        <v>900000</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="80">
-        <v>0.15</v>
-      </c>
-      <c r="L4" s="6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="9">
-        <v>250000</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="80">
-        <v>0.23</v>
-      </c>
-      <c r="L5" s="6">
-        <v>6.38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="9">
-        <v>712500</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="80">
-        <v>0.2</v>
-      </c>
-      <c r="L6" s="6">
-        <v>5.86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="9">
-        <v>1125000</v>
-      </c>
-      <c r="J7" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="6">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J8" s="79" t="s">
-        <v>206</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" s="6">
-        <v>10</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="J9" s="79" t="s">
-        <v>170</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="6">
-        <v>10</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="B12" s="67" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="5">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B19" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="B23" s="67" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I35">
-        <v>21.02</v>
-      </c>
-      <c r="J35">
-        <v>15.44</v>
-      </c>
-      <c r="L35">
-        <v>1230</v>
-      </c>
-      <c r="M35">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="J37">
-        <f>J35-I35</f>
-        <v>-5.58</v>
-      </c>
-      <c r="M37">
-        <f>M35-L35</f>
-        <v>-1183</v>
-      </c>
-    </row>
-    <row r="38" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="J38" s="76">
-        <f>J37/I35</f>
-        <v>-0.26546146527117032</v>
-      </c>
-      <c r="M38" s="76">
-        <f>M37/L35</f>
-        <v>-0.96178861788617886</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A2" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6781,9 +6380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79E494E-2633-3B47-AC49-AD95AC048CCB}">
   <dimension ref="A1:AD74"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V1" sqref="V1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V57" sqref="V57:V59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -6957,11 +6556,11 @@
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="6">
-        <v>0.79</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="W2" s="25">
         <f>(V2*M2)/(10^3)</f>
-        <v>1.2200759999999999</v>
+        <v>1.1042460000000001</v>
       </c>
       <c r="X2" s="21">
         <v>2000</v>
@@ -7041,11 +6640,11 @@
       </c>
       <c r="U3" s="5"/>
       <c r="V3" s="6">
-        <v>0.79</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="W3" s="25">
         <f>(V3*M3)/(10^3)</f>
-        <v>1.2200759999999999</v>
+        <v>1.1042460000000001</v>
       </c>
       <c r="X3" s="21">
         <v>2000</v>
@@ -7122,11 +6721,11 @@
       </c>
       <c r="U4" s="5"/>
       <c r="V4" s="6">
-        <v>0.79</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="W4" s="25">
         <f t="shared" ref="W4:W12" si="4">(V4*M4)/(10^3)</f>
-        <v>1.2200759999999999</v>
+        <v>1.1042459999999998</v>
       </c>
       <c r="X4" s="21">
         <v>2000</v>
@@ -7851,11 +7450,11 @@
       </c>
       <c r="U13" s="5"/>
       <c r="V13" s="6">
-        <v>0.79</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="W13" s="25">
         <f>(V13*M13)/(10^3)</f>
-        <v>1.25136</v>
+        <v>1.13256</v>
       </c>
       <c r="X13" s="21">
         <v>2000</v>
@@ -7934,11 +7533,11 @@
       </c>
       <c r="U14" s="5"/>
       <c r="V14" s="6">
-        <v>0.79</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="W14" s="25">
         <f>(V14*M14)/(10^3)</f>
-        <v>1.2670020000000002</v>
+        <v>1.1467170000000002</v>
       </c>
       <c r="X14" s="21">
         <v>2000</v>
@@ -8016,11 +7615,11 @@
       </c>
       <c r="U15" s="5"/>
       <c r="V15" s="6">
-        <v>0.79</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="W15" s="25">
         <f t="shared" ref="W15:W23" si="21">(V15*M15)/(10^3)</f>
-        <v>1.25136</v>
+        <v>1.13256</v>
       </c>
       <c r="X15" s="21">
         <v>2000</v>
@@ -8751,11 +8350,11 @@
       </c>
       <c r="U24" s="5"/>
       <c r="V24" s="6">
-        <v>0.79</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="W24" s="25">
         <f>(V24*M24)/(10^3)</f>
-        <v>1.2826439999999997</v>
+        <v>1.1608739999999997</v>
       </c>
       <c r="X24" s="21">
         <v>2000</v>
@@ -8834,11 +8433,11 @@
       </c>
       <c r="U25" s="5"/>
       <c r="V25" s="6">
-        <v>0.79</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="W25" s="25">
         <f>(V25*M25)/(10^3)</f>
-        <v>1.3139280000000002</v>
+        <v>1.1891879999999999</v>
       </c>
       <c r="X25" s="21">
         <v>2000</v>
@@ -8916,11 +8515,11 @@
       </c>
       <c r="U26" s="5"/>
       <c r="V26" s="6">
-        <v>0.79</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="W26" s="25">
         <f t="shared" ref="W26:W34" si="37">(V26*M26)/(10^3)</f>
-        <v>1.2826439999999997</v>
+        <v>1.1608739999999997</v>
       </c>
       <c r="X26" s="21">
         <v>2000</v>
@@ -9651,12 +9250,12 @@
         <v>250000</v>
       </c>
       <c r="U35" s="26"/>
-      <c r="V35" s="27">
-        <v>0.79</v>
+      <c r="V35" s="6">
+        <v>0.71499999999999997</v>
       </c>
       <c r="W35" s="55">
         <f>(V35*M35)/(10^3)</f>
-        <v>1.2200759999999999</v>
+        <v>1.1042460000000001</v>
       </c>
       <c r="X35" s="30">
         <v>2000</v>
@@ -9734,12 +9333,12 @@
         <v>250000</v>
       </c>
       <c r="U36" s="26"/>
-      <c r="V36" s="27">
-        <v>0.79</v>
+      <c r="V36" s="6">
+        <v>0.71499999999999997</v>
       </c>
       <c r="W36" s="55">
         <f>(V36*M36)/(10^3)</f>
-        <v>1.2200759999999999</v>
+        <v>1.1042460000000001</v>
       </c>
       <c r="X36" s="30">
         <v>2000</v>
@@ -9817,11 +9416,11 @@
       </c>
       <c r="U37" s="5"/>
       <c r="V37" s="6">
-        <v>0.79</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="W37" s="25">
         <f t="shared" ref="W37:W45" si="56">(V37*M37)/(10^3)</f>
-        <v>1.2200759999999999</v>
+        <v>1.1042460000000001</v>
       </c>
       <c r="X37" s="21">
         <v>2000</v>
@@ -10553,11 +10152,11 @@
       </c>
       <c r="U46" s="5"/>
       <c r="V46" s="6">
-        <v>0.79</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="W46" s="25">
         <f>(V46*M46)/(10^3)</f>
-        <v>1.25136</v>
+        <v>1.13256</v>
       </c>
       <c r="X46" s="21">
         <v>2000</v>
@@ -10636,11 +10235,11 @@
       </c>
       <c r="U47" s="5"/>
       <c r="V47" s="6">
-        <v>0.79</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="W47" s="25">
         <f>(V47*M47)/(10^3)</f>
-        <v>1.2670020000000002</v>
+        <v>1.1467170000000002</v>
       </c>
       <c r="X47" s="21">
         <v>2000</v>
@@ -10717,11 +10316,11 @@
       </c>
       <c r="U48" s="5"/>
       <c r="V48" s="6">
-        <v>0.79</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="W48" s="25">
         <f t="shared" ref="W48:W56" si="74">(V48*M48)/(10^3)</f>
-        <v>1.25136</v>
+        <v>1.13256</v>
       </c>
       <c r="X48" s="21">
         <v>2000</v>
@@ -11451,11 +11050,11 @@
       </c>
       <c r="U57" s="5"/>
       <c r="V57" s="6">
-        <v>0.79</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="W57" s="25">
         <f>(V57*M57)/(10^3)</f>
-        <v>1.2826439999999997</v>
+        <v>1.1608739999999997</v>
       </c>
       <c r="X57" s="21">
         <v>2000</v>
@@ -11534,11 +11133,11 @@
       </c>
       <c r="U58" s="5"/>
       <c r="V58" s="6">
-        <v>0.79</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="W58" s="25">
         <f>(V58*M58)/(10^3)</f>
-        <v>1.3139280000000002</v>
+        <v>1.1891879999999999</v>
       </c>
       <c r="X58" s="21">
         <v>2000</v>
@@ -11615,11 +11214,11 @@
       </c>
       <c r="U59" s="5"/>
       <c r="V59" s="6">
-        <v>0.79</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="W59" s="25">
         <f t="shared" ref="W59:W67" si="91">(V59*M59)/(10^3)</f>
-        <v>1.2826439999999997</v>
+        <v>1.1608739999999997</v>
       </c>
       <c r="X59" s="21">
         <v>2000</v>
@@ -12310,6 +11909,510 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD77EF6-099E-DB49-A98E-3D98FEFDCA5C}">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1" s="67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="77">
+        <v>0.15</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="9">
+        <v>200000</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" s="77">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="9">
+        <v>570000</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="77">
+        <v>0.35</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="9">
+        <v>900000</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="78">
+        <v>0.15</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="9">
+        <v>250000</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="78">
+        <v>0.23</v>
+      </c>
+      <c r="L5" s="6">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="9">
+        <v>712500</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="L6" s="6">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1125000</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="6">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="6">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="67" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>21.02</v>
+      </c>
+      <c r="J35">
+        <v>15.44</v>
+      </c>
+      <c r="L35">
+        <v>1230</v>
+      </c>
+      <c r="M35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <f>J35-I35</f>
+        <v>-5.58</v>
+      </c>
+      <c r="M37">
+        <f>M35-L35</f>
+        <v>-1183</v>
+      </c>
+    </row>
+    <row r="38" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="J38" s="76">
+        <f>J37/I35</f>
+        <v>-0.26546146527117032</v>
+      </c>
+      <c r="M38" s="76">
+        <f>M37/L35</f>
+        <v>-0.96178861788617886</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC174A83-C7FB-46D4-AA49-62B1826A128C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
@@ -12995,7 +13098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B775FE-89E7-DE49-9FC4-5A387DAB3702}">
   <dimension ref="A1:C32"/>
   <sheetViews>
@@ -13382,7 +13485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F122A1-15B9-4642-B2F6-3427EA4EE962}">
   <dimension ref="A1:G33"/>
   <sheetViews>
